--- a/data/CHARLS_CITY.xlsx
+++ b/data/CHARLS_CITY.xlsx
@@ -782,7 +782,7 @@
         <v>19168.7209302326</v>
       </c>
       <c r="AK2" s="0">
-        <v>11193.7735849057</v>
+        <v>1.11937735849057</v>
       </c>
       <c r="AL2" s="0">
         <v>3632.29508196721</v>
@@ -977,7 +977,7 @@
         <v>17787.8787878788</v>
       </c>
       <c r="AK3" s="0">
-        <v>10388.9108910891</v>
+        <v>1.03889108910891</v>
       </c>
       <c r="AL3" s="0">
         <v>9528.52941176471</v>
@@ -1172,7 +1172,7 @@
         <v>29107.746835443</v>
       </c>
       <c r="AK4" s="0">
-        <v>16144.8073394495</v>
+        <v>1.61448073394495</v>
       </c>
       <c r="AL4" s="0">
         <v>5797.12</v>
@@ -1367,7 +1367,7 @@
         <v>13450.0757575758</v>
       </c>
       <c r="AK5" s="0">
-        <v>9348.13793103448</v>
+        <v>0.934813793103448</v>
       </c>
       <c r="AL5" s="0">
         <v>1897.61904761905</v>
@@ -1562,7 +1562,7 @@
         <v>14370.0069204152</v>
       </c>
       <c r="AK6" s="0">
-        <v>7988.28387096774</v>
+        <v>0.798828387096774</v>
       </c>
       <c r="AL6" s="0">
         <v>5159.24347826087</v>
@@ -1757,7 +1757,7 @@
         <v>26686.0108471074</v>
       </c>
       <c r="AK7" s="0">
-        <v>15295.2709363759</v>
+        <v>1.52952709363759</v>
       </c>
       <c r="AL7" s="0">
         <v>4808.72093023256</v>
@@ -1952,7 +1952,7 @@
         <v>56573.5033557047</v>
       </c>
       <c r="AK8" s="0">
-        <v>32785.0259067358</v>
+        <v>3.27850259067358</v>
       </c>
       <c r="AL8" s="0">
         <v>225.478260869565</v>
@@ -2147,7 +2147,7 @@
         <v>89576.4556962025</v>
       </c>
       <c r="AK9" s="0">
-        <v>45726.4516129032</v>
+        <v>4.57264516129032</v>
       </c>
       <c r="AL9" s="0">
         <v>1900</v>
@@ -2342,7 +2342,7 @@
         <v>34761.1267605634</v>
       </c>
       <c r="AK10" s="0">
-        <v>23030.099009901</v>
+        <v>2.3030099009901</v>
       </c>
       <c r="AL10" s="0">
         <v>1762.5</v>
@@ -2537,7 +2537,7 @@
         <v>19551.8076923077</v>
       </c>
       <c r="AK11" s="0">
-        <v>10931.7931034483</v>
+        <v>1.09317931034483</v>
       </c>
       <c r="AL11" s="0">
         <v>3368.9247311828</v>
@@ -2732,7 +2732,7 @@
         <v>40479.3191489362</v>
       </c>
       <c r="AK12" s="0">
-        <v>23638.0281690141</v>
+        <v>2.36380281690141</v>
       </c>
       <c r="AL12" s="0">
         <v>3852.38095238095</v>
@@ -2927,7 +2927,7 @@
         <v>40230.3636363636</v>
       </c>
       <c r="AK13" s="0">
-        <v>23148.8253968254</v>
+        <v>2.31488253968254</v>
       </c>
       <c r="AL13" s="0">
         <v>9914.17721518987</v>
@@ -3122,7 +3122,7 @@
         <v>36612.0869565217</v>
       </c>
       <c r="AK14" s="0">
-        <v>21344.4761904762</v>
+        <v>2.13444761904762</v>
       </c>
       <c r="AL14" s="0">
         <v>25728.8</v>
@@ -3317,7 +3317,7 @@
         <v>14268.1460674157</v>
       </c>
       <c r="AK15" s="0">
-        <v>5459.96666666667</v>
+        <v>0.545996666666667</v>
       </c>
       <c r="AL15" s="0">
         <v>5917.02127659574</v>
@@ -3512,7 +3512,7 @@
         <v>30623.075</v>
       </c>
       <c r="AK16" s="0">
-        <v>23116.3333333333</v>
+        <v>2.31163333333333</v>
       </c>
       <c r="AL16" s="0">
         <v>5163.26530612245</v>
@@ -3707,7 +3707,7 @@
         <v>14612.1296296296</v>
       </c>
       <c r="AK17" s="0">
-        <v>5827.71929824561</v>
+        <v>0.582771929824562</v>
       </c>
       <c r="AL17" s="0">
         <v>1904.61538461538</v>
@@ -3902,7 +3902,7 @@
         <v>26917.8333440061</v>
       </c>
       <c r="AK18" s="0">
-        <v>14173.9780597928</v>
+        <v>1.41739780597928</v>
       </c>
       <c r="AL18" s="0">
         <v>3019.05737704918</v>
@@ -4097,7 +4097,7 @@
         <v>18825.9461538462</v>
       </c>
       <c r="AK19" s="0">
-        <v>13227.0652173913</v>
+        <v>1.32270652173913</v>
       </c>
       <c r="AL19" s="0">
         <v>2920.96774193548</v>
@@ -4292,7 +4292,7 @@
         <v>37388.2894736842</v>
       </c>
       <c r="AK20" s="0">
-        <v>21465.6456692913</v>
+        <v>2.14656456692913</v>
       </c>
       <c r="AL20" s="0">
         <v>4459.13978494624</v>
@@ -4487,7 +4487,7 @@
         <v>18602.7024793388</v>
       </c>
       <c r="AK21" s="0">
-        <v>6799.38970588235</v>
+        <v>0.679938970588235</v>
       </c>
       <c r="AL21" s="0">
         <v>3538.94859813084</v>
@@ -4682,7 +4682,7 @@
         <v>34887.2203389831</v>
       </c>
       <c r="AK22" s="0">
-        <v>20844.301369863</v>
+        <v>2.0844301369863</v>
       </c>
       <c r="AL22" s="0">
         <v>4830.94339622641</v>
@@ -4877,7 +4877,7 @@
         <v>27056.3846153846</v>
       </c>
       <c r="AK23" s="0">
-        <v>14470.1481481481</v>
+        <v>1.44701481481481</v>
       </c>
       <c r="AL23" s="0">
         <v>8615.74468085106</v>
@@ -5072,7 +5072,7 @@
         <v>15199.1684210526</v>
       </c>
       <c r="AK24" s="0">
-        <v>7274.77678571429</v>
+        <v>0.727477678571429</v>
       </c>
       <c r="AL24" s="0">
         <v>8034.8051948052</v>
@@ -5267,7 +5267,7 @@
         <v>25964.9142857143</v>
       </c>
       <c r="AK25" s="0">
-        <v>17150.7155172414</v>
+        <v>1.71507155172414</v>
       </c>
       <c r="AL25" s="0">
         <v>2753.64705882353</v>
@@ -5462,7 +5462,7 @@
         <v>44658.9946157095</v>
       </c>
       <c r="AK26" s="0">
-        <v>26813.3219047546</v>
+        <v>2.68133219047546</v>
       </c>
       <c r="AL26" s="0">
         <v>18582.8571428571</v>
@@ -5657,7 +5657,7 @@
         <v>35555.4583333333</v>
       </c>
       <c r="AK27" s="0">
-        <v>23482.347826087</v>
+        <v>2.3482347826087</v>
       </c>
       <c r="AL27" s="0">
         <v>399.915492957746</v>
@@ -5852,7 +5852,7 @@
         <v>51318.9607843137</v>
       </c>
       <c r="AK28" s="0">
-        <v>34252.534351145</v>
+        <v>3.4252534351145</v>
       </c>
       <c r="AL28" s="0">
         <v>11581.5825242718</v>
@@ -6047,7 +6047,7 @@
         <v>8954.11320754717</v>
       </c>
       <c r="AK29" s="0">
-        <v>5991.67741935484</v>
+        <v>0.599167741935484</v>
       </c>
       <c r="AL29" s="0">
         <v>4687.7358490566</v>
@@ -6242,7 +6242,7 @@
         <v>27738.0223473837</v>
       </c>
       <c r="AK30" s="0">
-        <v>15522.2391696506</v>
+        <v>1.55222391696506</v>
       </c>
       <c r="AL30" s="0">
         <v>4190</v>
@@ -6437,7 +6437,7 @@
         <v>12727.8333333333</v>
       </c>
       <c r="AK31" s="0">
-        <v>8283.86290322581</v>
+        <v>0.828386290322581</v>
       </c>
       <c r="AL31" s="0">
         <v>2010</v>
@@ -6632,7 +6632,7 @@
         <v>35601.9496402878</v>
       </c>
       <c r="AK32" s="0">
-        <v>20167.0890052356</v>
+        <v>2.01670890052356</v>
       </c>
       <c r="AL32" s="0">
         <v>1398.59649122807</v>
@@ -6827,7 +6827,7 @@
         <v>51211.6001059322</v>
       </c>
       <c r="AK33" s="0">
-        <v>27851.9123507725</v>
+        <v>2.78519123507725</v>
       </c>
       <c r="AL33" s="0">
         <v>4004.34782608696</v>
@@ -7022,7 +7022,7 @@
         <v>64655.5714285714</v>
       </c>
       <c r="AK34" s="0">
-        <v>36455.0882352941</v>
+        <v>3.64550882352941</v>
       </c>
       <c r="AL34" s="0">
         <v>2500</v>
@@ -7217,7 +7217,7 @@
         <v>41442.9655172414</v>
       </c>
       <c r="AK35" s="0">
-        <v>26073.5588235294</v>
+        <v>2.60735588235294</v>
       </c>
       <c r="AL35" s="0">
         <v>3125</v>
@@ -7412,7 +7412,7 @@
         <v>16072.3513513514</v>
       </c>
       <c r="AK36" s="0">
-        <v>8359.44444444445</v>
+        <v>0.835944444444444</v>
       </c>
       <c r="AL36" s="0">
         <v>6239.39316239316</v>
@@ -7607,7 +7607,7 @@
         <v>22705.4453125</v>
       </c>
       <c r="AK37" s="0">
-        <v>13210.9236696478</v>
+        <v>1.32109236696478</v>
       </c>
       <c r="AL37" s="0">
         <v>2855.39682539683</v>
@@ -7802,7 +7802,7 @@
         <v>63787.3684210526</v>
       </c>
       <c r="AK38" s="0">
-        <v>57904.1025641026</v>
+        <v>5.79041025641026</v>
       </c>
       <c r="AL38" s="0">
         <v>6564.10256410256</v>
@@ -7997,7 +7997,7 @@
         <v>35597.641509434</v>
       </c>
       <c r="AK39" s="0">
-        <v>25865.203125</v>
+        <v>2.5865203125</v>
       </c>
       <c r="AL39" s="0">
         <v>3234.63414634146</v>
@@ -8192,7 +8192,7 @@
         <v>16707.025</v>
       </c>
       <c r="AK40" s="0">
-        <v>37189.2736842105</v>
+        <v>3.71892736842105</v>
       </c>
       <c r="AL40" s="0">
         <v>13594.4444444444</v>
@@ -8387,7 +8387,7 @@
         <v>22869.952681388</v>
       </c>
       <c r="AK41" s="0">
-        <v>10017.1615598886</v>
+        <v>1.00171615598886</v>
       </c>
       <c r="AL41" s="0">
         <v>9123.6015037594</v>
@@ -8582,7 +8582,7 @@
         <v>66283.537377451</v>
       </c>
       <c r="AK42" s="0">
-        <v>50253.0531546677</v>
+        <v>5.02530531546677</v>
       </c>
       <c r="AL42" s="0">
         <v>6995.12195121951</v>
@@ -8777,7 +8777,7 @@
         <v>38490.1758241758</v>
       </c>
       <c r="AK43" s="0">
-        <v>30718.1121495327</v>
+        <v>3.07181121495327</v>
       </c>
       <c r="AL43" s="0">
         <v>6956.34146341463</v>
@@ -8972,7 +8972,7 @@
         <v>29411.6029411765</v>
       </c>
       <c r="AK44" s="0">
-        <v>17992.1176470588</v>
+        <v>1.79921176470588</v>
       </c>
       <c r="AL44" s="0">
         <v>4267.96116504854</v>
@@ -9167,7 +9167,7 @@
         <v>15194.4358974359</v>
       </c>
       <c r="AK45" s="0">
-        <v>5833.64051968444</v>
+        <v>0.583364051968444</v>
       </c>
       <c r="AL45" s="0">
         <v>10403.1746031746</v>
@@ -9362,7 +9362,7 @@
         <v>39544.8972355769</v>
       </c>
       <c r="AK46" s="0">
-        <v>25448.4122971755</v>
+        <v>2.54484122971755</v>
       </c>
       <c r="AL46" s="0">
         <v>402.941176470588</v>
@@ -9557,7 +9557,7 @@
         <v>43859.4123894743</v>
       </c>
       <c r="AK47" s="0">
-        <v>24713.6336127387</v>
+        <v>2.47136336127387</v>
       </c>
       <c r="AL47" s="0">
         <v>2363.07692307692</v>
@@ -9752,7 +9752,7 @@
         <v>41749.9069475446</v>
       </c>
       <c r="AK48" s="0">
-        <v>23474.0516979836</v>
+        <v>2.34740516979836</v>
       </c>
       <c r="AL48" s="0">
         <v>8337.0101010101</v>
@@ -9947,7 +9947,7 @@
         <v>78204.0952380952</v>
       </c>
       <c r="AK49" s="0">
-        <v>42252.9545454545</v>
+        <v>4.22529545454545</v>
       </c>
       <c r="AL49" s="0">
         <v>31200</v>
@@ -10142,7 +10142,7 @@
         <v>69694.6</v>
       </c>
       <c r="AK50" s="0">
-        <v>37856.7924528302</v>
+        <v>3.78567924528302</v>
       </c>
       <c r="AL50" s="0">
         <v>17705.2631578947</v>
@@ -10337,7 +10337,7 @@
         <v>56338.4301423373</v>
       </c>
       <c r="AK51" s="0">
-        <v>25901.3599999322</v>
+        <v>2.59013599999322</v>
       </c>
       <c r="AL51" s="0">
         <v>-1406.66666666667</v>
@@ -10532,7 +10532,7 @@
         <v>19085.347826087</v>
       </c>
       <c r="AK52" s="0">
-        <v>12317.4383561644</v>
+        <v>1.23174383561644</v>
       </c>
       <c r="AL52" s="0">
         <v>3663.39285714286</v>
@@ -10727,7 +10727,7 @@
         <v>30545.2720588235</v>
       </c>
       <c r="AK53" s="0">
-        <v>15571.7198581154</v>
+        <v>1.55717198581154</v>
       </c>
       <c r="AL53" s="0">
         <v>3884.74747474747</v>
@@ -10922,7 +10922,7 @@
         <v>34260.8115942029</v>
       </c>
       <c r="AK54" s="0">
-        <v>20633.2083333333</v>
+        <v>2.06332083333333</v>
       </c>
       <c r="AL54" s="0">
         <v>9639.73684210526</v>
@@ -11117,7 +11117,7 @@
         <v>38652.5675675676</v>
       </c>
       <c r="AK55" s="0">
-        <v>24642.6206896552</v>
+        <v>2.46426206896552</v>
       </c>
       <c r="AL55" s="0">
         <v>4777.55102040816</v>
@@ -11312,7 +11312,7 @@
         <v>25066.0430107527</v>
       </c>
       <c r="AK56" s="0">
-        <v>15558.0186915888</v>
+        <v>1.55580186915888</v>
       </c>
       <c r="AL56" s="0">
         <v>16883.6111111111</v>
@@ -11507,7 +11507,7 @@
         <v>26956.8774193548</v>
       </c>
       <c r="AK57" s="0">
-        <v>16781.63507109</v>
+        <v>1.678163507109</v>
       </c>
       <c r="AL57" s="0">
         <v>4786.9696969697</v>
@@ -11702,7 +11702,7 @@
         <v>39387.4482758621</v>
       </c>
       <c r="AK58" s="0">
-        <v>24521.2173913043</v>
+        <v>2.45212173913043</v>
       </c>
       <c r="AL58" s="0">
         <v>0</v>
@@ -11897,7 +11897,7 @@
         <v>10686.8941176471</v>
       </c>
       <c r="AK59" s="0">
-        <v>5772.26923076923</v>
+        <v>0.577226923076923</v>
       </c>
       <c r="AL59" s="0">
         <v>3566.27450980392</v>
@@ -12092,7 +12092,7 @@
         <v>16896.6767676768</v>
       </c>
       <c r="AK60" s="0">
-        <v>11587.304</v>
+        <v>1.1587304</v>
       </c>
       <c r="AL60" s="0">
         <v>8845.98734177215</v>
@@ -12287,7 +12287,7 @@
         <v>33590.5688073394</v>
       </c>
       <c r="AK61" s="0">
-        <v>19006.6850393701</v>
+        <v>1.90066850393701</v>
       </c>
       <c r="AL61" s="0">
         <v>2152</v>
@@ -12482,7 +12482,7 @@
         <v>37680.8536585366</v>
       </c>
       <c r="AK62" s="0">
-        <v>17205.6790123457</v>
+        <v>1.72056790123457</v>
       </c>
       <c r="AL62" s="0">
         <v>8461.98412698413</v>
@@ -12677,7 +12677,7 @@
         <v>22647.3626373626</v>
       </c>
       <c r="AK63" s="0">
-        <v>14135.3978494624</v>
+        <v>1.41353978494624</v>
       </c>
       <c r="AL63" s="0">
         <v>1720.91503267974</v>
@@ -12872,7 +12872,7 @@
         <v>18225</v>
       </c>
       <c r="AK64" s="0">
-        <v>10523.5643564356</v>
+        <v>1.05235643564356</v>
       </c>
       <c r="AL64" s="0">
         <v>4645.85714285714</v>
@@ -13067,7 +13067,7 @@
         <v>19116.5891472868</v>
       </c>
       <c r="AK65" s="0">
-        <v>12700.8428571429</v>
+        <v>1.27008428571429</v>
       </c>
       <c r="AL65" s="0">
         <v>4668.28828828829</v>
@@ -13262,7 +13262,7 @@
         <v>27017.7079646018</v>
       </c>
       <c r="AK66" s="0">
-        <v>12938.1204379562</v>
+        <v>1.29381204379562</v>
       </c>
       <c r="AL66" s="0">
         <v>3166.88372093023</v>
@@ -13457,7 +13457,7 @@
         <v>13898.5454545455</v>
       </c>
       <c r="AK67" s="0">
-        <v>5765.92105263158</v>
+        <v>0.576592105263158</v>
       </c>
       <c r="AL67" s="0">
         <v>5851.64835164835</v>
@@ -13652,7 +13652,7 @@
         <v>34206.7288135593</v>
       </c>
       <c r="AK68" s="0">
-        <v>24794.8059701493</v>
+        <v>2.47948059701493</v>
       </c>
       <c r="AL68" s="0">
         <v>6764.36781609195</v>
@@ -13847,7 +13847,7 @@
         <v>72420.003503418</v>
       </c>
       <c r="AK69" s="0">
-        <v>34932.8702914044</v>
+        <v>3.49328702914044</v>
       </c>
       <c r="AL69" s="0">
         <v>2750.30769230769</v>
@@ -14042,7 +14042,7 @@
         <v>20752.7632653061</v>
       </c>
       <c r="AK70" s="0">
-        <v>14827.3756146098</v>
+        <v>1.48273756146098</v>
       </c>
       <c r="AL70" s="0">
         <v>5155.78010471204</v>
@@ -14237,7 +14237,7 @@
         <v>18455.9746835443</v>
       </c>
       <c r="AK71" s="0">
-        <v>10586.7741935484</v>
+        <v>1.05867741935484</v>
       </c>
       <c r="AL71" s="0">
         <v>5931.49473684211</v>
@@ -14432,7 +14432,7 @@
         <v>24460.2432432432</v>
       </c>
       <c r="AK72" s="0">
-        <v>8221.1214953271</v>
+        <v>0.82211214953271</v>
       </c>
       <c r="AL72" s="0">
         <v>6562.55</v>
@@ -14627,7 +14627,7 @@
         <v>35879.1847826087</v>
       </c>
       <c r="AK73" s="0">
-        <v>26177.6742081448</v>
+        <v>2.61776742081448</v>
       </c>
       <c r="AL73" s="0">
         <v>3656.06557377049</v>
@@ -14822,7 +14822,7 @@
         <v>10039.4824120603</v>
       </c>
       <c r="AK74" s="0">
-        <v>4964.77822580645</v>
+        <v>0.496477822580645</v>
       </c>
       <c r="AL74" s="0">
         <v>2708.03038674033</v>
@@ -15017,7 +15017,7 @@
         <v>17651.4117647059</v>
       </c>
       <c r="AK75" s="0">
-        <v>10512.5909090909</v>
+        <v>1.05125909090909</v>
       </c>
       <c r="AL75" s="0">
         <v>13581.4814814815</v>
@@ -15212,7 +15212,7 @@
         <v>12729.7183098592</v>
       </c>
       <c r="AK76" s="0">
-        <v>8107.27272727273</v>
+        <v>0.810727272727273</v>
       </c>
       <c r="AL76" s="0">
         <v>1263.39603960396</v>
@@ -15407,7 +15407,7 @@
         <v>72472.4545454545</v>
       </c>
       <c r="AK77" s="0">
-        <v>31113.519379845</v>
+        <v>3.1113519379845</v>
       </c>
       <c r="AL77" s="0">
         <v>20922.0238095238</v>
@@ -15602,7 +15602,7 @@
         <v>19025.5416666667</v>
       </c>
       <c r="AK78" s="0">
-        <v>9349.82142857143</v>
+        <v>0.934982142857143</v>
       </c>
       <c r="AL78" s="0">
         <v>1458.57142857143</v>
@@ -15797,7 +15797,7 @@
         <v>25409.9705882353</v>
       </c>
       <c r="AK79" s="0">
-        <v>17047.4630872483</v>
+        <v>1.70474630872483</v>
       </c>
       <c r="AL79" s="0">
         <v>3209.62121212121</v>
@@ -15992,7 +15992,7 @@
         <v>15926.1515151515</v>
       </c>
       <c r="AK80" s="0">
-        <v>10358.5491803279</v>
+        <v>1.03585491803279</v>
       </c>
       <c r="AL80" s="0">
         <v>866.666666666667</v>
@@ -16187,7 +16187,7 @@
         <v>49323.1182795699</v>
       </c>
       <c r="AK81" s="0">
-        <v>27425.1639344262</v>
+        <v>2.74251639344262</v>
       </c>
       <c r="AL81" s="0">
         <v>12969.012345679</v>
@@ -16382,7 +16382,7 @@
         <v>24181.1470588235</v>
       </c>
       <c r="AK82" s="0">
-        <v>12398.9875</v>
+        <v>1.23989875</v>
       </c>
       <c r="AL82" s="0">
         <v>4078.26086956522</v>
@@ -16577,7 +16577,7 @@
         <v>19752.675</v>
       </c>
       <c r="AK83" s="0">
-        <v>13794.4863725142</v>
+        <v>1.37944863725142</v>
       </c>
       <c r="AL83" s="0">
         <v>7045.2</v>
@@ -16772,7 +16772,7 @@
         <v>27152.6632653061</v>
       </c>
       <c r="AK84" s="0">
-        <v>22882.787037037</v>
+        <v>2.2882787037037</v>
       </c>
       <c r="AL84" s="0">
         <v>1222.44</v>
@@ -16967,7 +16967,7 @@
         <v>39200.12</v>
       </c>
       <c r="AK85" s="0">
-        <v>19275.4603174603</v>
+        <v>1.92754603174603</v>
       </c>
       <c r="AL85" s="0">
         <v>2650.97142857143</v>
@@ -17162,7 +17162,7 @@
         <v>44045.55</v>
       </c>
       <c r="AK86" s="0">
-        <v>21608.5714285714</v>
+        <v>2.16085714285714</v>
       </c>
       <c r="AL86" s="0">
         <v>7008.51063829787</v>
@@ -17357,7 +17357,7 @@
         <v>101946.333333333</v>
       </c>
       <c r="AK87" s="0">
-        <v>57617.2399823589</v>
+        <v>5.76172399823589</v>
       </c>
       <c r="AL87" s="0">
         <v>11700</v>
@@ -17552,7 +17552,7 @@
         <v>9700.95833333333</v>
       </c>
       <c r="AK88" s="0">
-        <v>5397.13385826772</v>
+        <v>0.539713385826772</v>
       </c>
       <c r="AL88" s="0">
         <v>2030.42352941176</v>
@@ -17747,7 +17747,7 @@
         <v>28328.7684729064</v>
       </c>
       <c r="AK89" s="0">
-        <v>14473.7168141593</v>
+        <v>1.44737168141593</v>
       </c>
       <c r="AL89" s="0">
         <v>9288.58682634731</v>
@@ -17942,7 +17942,7 @@
         <v>55713.75</v>
       </c>
       <c r="AK90" s="0">
-        <v>45391.0714285714</v>
+        <v>4.53910714285714</v>
       </c>
       <c r="AL90" s="0">
         <v>2591.5625</v>
@@ -18137,7 +18137,7 @@
         <v>29322.6091954023</v>
       </c>
       <c r="AK91" s="0">
-        <v>18253.1957446809</v>
+        <v>1.82531957446809</v>
       </c>
       <c r="AL91" s="0">
         <v>2325.43609022556</v>
@@ -18332,7 +18332,7 @@
         <v>25195.1817103795</v>
       </c>
       <c r="AK92" s="0">
-        <v>13203.3150140571</v>
+        <v>1.32033150140571</v>
       </c>
       <c r="AL92" s="0">
         <v>4059.65714285714</v>
@@ -18527,7 +18527,7 @@
         <v>59268.6896551724</v>
       </c>
       <c r="AK93" s="0">
-        <v>29035.7967479675</v>
+        <v>2.90357967479675</v>
       </c>
       <c r="AL93" s="0">
         <v>18119.875</v>
@@ -18722,7 +18722,7 @@
         <v>24187.7731958763</v>
       </c>
       <c r="AK94" s="0">
-        <v>13652.9380530973</v>
+        <v>1.36529380530973</v>
       </c>
       <c r="AL94" s="0">
         <v>11534.1333333333</v>
@@ -18917,7 +18917,7 @@
         <v>16066.1111111111</v>
       </c>
       <c r="AK95" s="0">
-        <v>13387.5539568345</v>
+        <v>1.33875539568345</v>
       </c>
       <c r="AL95" s="0">
         <v>3690.76923076923</v>
@@ -19112,7 +19112,7 @@
         <v>46685.6857142857</v>
       </c>
       <c r="AK96" s="0">
-        <v>23196.8217054264</v>
+        <v>2.31968217054264</v>
       </c>
       <c r="AL96" s="0">
         <v>8086.32926829268</v>
@@ -19307,7 +19307,7 @@
         <v>38775.9432624113</v>
       </c>
       <c r="AK97" s="0">
-        <v>25475.8363351422</v>
+        <v>2.54758363351422</v>
       </c>
       <c r="AL97" s="0">
         <v>4025.67796610169</v>
@@ -19502,7 +19502,7 @@
         <v>88200.8275862069</v>
       </c>
       <c r="AK98" s="0">
-        <v>47985.1898734177</v>
+        <v>4.79851898734177</v>
       </c>
       <c r="AL98" s="0">
         <v>1580</v>
@@ -19697,7 +19697,7 @@
         <v>27011.9836065574</v>
       </c>
       <c r="AK99" s="0">
-        <v>14289.2602739726</v>
+        <v>1.42892602739726</v>
       </c>
       <c r="AL99" s="0">
         <v>1521.10091743119</v>
@@ -19892,7 +19892,7 @@
         <v>38214.4392361111</v>
       </c>
       <c r="AK100" s="0">
-        <v>22425.9291901203</v>
+        <v>2.24259291901203</v>
       </c>
       <c r="AL100" s="0">
         <v>4052.63157894737</v>
@@ -20087,7 +20087,7 @@
         <v>20939.1239669421</v>
       </c>
       <c r="AK101" s="0">
-        <v>14583.5602836879</v>
+        <v>1.45835602836879</v>
       </c>
       <c r="AL101" s="0">
         <v>4129.69696969697</v>
@@ -20282,7 +20282,7 @@
         <v>22439.4404761905</v>
       </c>
       <c r="AK102" s="0">
-        <v>6872.57943925234</v>
+        <v>0.687257943925234</v>
       </c>
       <c r="AL102" s="0">
         <v>50029.0625</v>
@@ -20477,7 +20477,7 @@
         <v>19433.7471264368</v>
       </c>
       <c r="AK103" s="0">
-        <v>11359.9015544041</v>
+        <v>1.13599015544041</v>
       </c>
       <c r="AL103" s="0">
         <v>2364.89655172414</v>
@@ -20672,7 +20672,7 @@
         <v>22579.7288135593</v>
       </c>
       <c r="AK104" s="0">
-        <v>15191.5905511811</v>
+        <v>1.51915905511811</v>
       </c>
       <c r="AL104" s="0">
         <v>613.114754098361</v>
@@ -20867,7 +20867,7 @@
         <v>26165.1772727273</v>
       </c>
       <c r="AK105" s="0">
-        <v>13675.417721519</v>
+        <v>1.3675417721519</v>
       </c>
       <c r="AL105" s="0">
         <v>6920.75757575758</v>
@@ -21062,7 +21062,7 @@
         <v>39956.25</v>
       </c>
       <c r="AK106" s="0">
-        <v>21478.2647058824</v>
+        <v>2.14782647058824</v>
       </c>
       <c r="AL106" s="0">
         <v>10689.9322033898</v>
@@ -21257,7 +21257,7 @@
         <v>20216.7692307692</v>
       </c>
       <c r="AK107" s="0">
-        <v>15390.0934579439</v>
+        <v>1.53900934579439</v>
       </c>
       <c r="AL107" s="0">
         <v>5504</v>
@@ -21452,7 +21452,7 @@
         <v>35935.9066666667</v>
       </c>
       <c r="AK108" s="0">
-        <v>21736.956043956</v>
+        <v>2.1736956043956</v>
       </c>
       <c r="AL108" s="0">
         <v>8937.85087719298</v>
@@ -21647,7 +21647,7 @@
         <v>42559.8421052632</v>
       </c>
       <c r="AK109" s="0">
-        <v>26616.6458333333</v>
+        <v>2.66166458333333</v>
       </c>
       <c r="AL109" s="0">
         <v>6965.15217391304</v>
@@ -21842,7 +21842,7 @@
         <v>14648.5669291339</v>
       </c>
       <c r="AK110" s="0">
-        <v>7280.18309859155</v>
+        <v>0.728018309859155</v>
       </c>
       <c r="AL110" s="0">
         <v>3460.43956043956</v>
@@ -22037,7 +22037,7 @@
         <v>33583.8492462312</v>
       </c>
       <c r="AK111" s="0">
-        <v>22060.3146551724</v>
+        <v>2.20603146551724</v>
       </c>
       <c r="AL111" s="0">
         <v>8011.97350993377</v>
@@ -22232,7 +22232,7 @@
         <v>36118.9591836735</v>
       </c>
       <c r="AK112" s="0">
-        <v>29718.5636363636</v>
+        <v>2.97185636363636</v>
       </c>
       <c r="AL112" s="0">
         <v>2407.32394366197</v>
@@ -22427,7 +22427,7 @@
         <v>22284.7244897959</v>
       </c>
       <c r="AK113" s="0">
-        <v>11970.525</v>
+        <v>1.1970525</v>
       </c>
       <c r="AL113" s="0">
         <v>2004.21052631579</v>
@@ -22622,7 +22622,7 @@
         <v>27420.5299145299</v>
       </c>
       <c r="AK114" s="0">
-        <v>11378.5267175573</v>
+        <v>1.13785267175573</v>
       </c>
       <c r="AL114" s="0">
         <v>5950.93975903615</v>
@@ -22817,7 +22817,7 @@
         <v>49030.937037037</v>
       </c>
       <c r="AK115" s="0">
-        <v>38489.0396039604</v>
+        <v>3.84890396039604</v>
       </c>
       <c r="AL115" s="0">
         <v>2565.93922651934</v>
@@ -23012,7 +23012,7 @@
         <v>50933.1460674157</v>
       </c>
       <c r="AK116" s="0">
-        <v>32886.5</v>
+        <v>3.28865</v>
       </c>
       <c r="AL116" s="0">
         <v>18473.2142857143</v>
@@ -23207,7 +23207,7 @@
         <v>27711.2696707589</v>
       </c>
       <c r="AK117" s="0">
-        <v>15930.1131752665</v>
+        <v>1.59301131752665</v>
       </c>
       <c r="AL117" s="0">
         <v>5855.59139784946</v>
@@ -23402,7 +23402,7 @@
         <v>31359.78125</v>
       </c>
       <c r="AK118" s="0">
-        <v>15470.6857142857</v>
+        <v>1.54706857142857</v>
       </c>
       <c r="AL118" s="0">
         <v>1391.70149253731</v>
@@ -23597,7 +23597,7 @@
         <v>44894.4615384615</v>
       </c>
       <c r="AK119" s="0">
-        <v>34211.4962962963</v>
+        <v>3.42114962962963</v>
       </c>
       <c r="AL119" s="0">
         <v>44326.0759493671</v>
@@ -23792,7 +23792,7 @@
         <v>18441.3377483444</v>
       </c>
       <c r="AK120" s="0">
-        <v>11855.2371794872</v>
+        <v>1.18552371794872</v>
       </c>
       <c r="AL120" s="0">
         <v>10642.8571428571</v>
@@ -23987,7 +23987,7 @@
         <v>19055.9863013699</v>
       </c>
       <c r="AK121" s="0">
-        <v>12030.2317073171</v>
+        <v>1.20302317073171</v>
       </c>
       <c r="AL121" s="0">
         <v>2035.0303030303</v>
@@ -24182,7 +24182,7 @@
         <v>57174.6104403409</v>
       </c>
       <c r="AK122" s="0">
-        <v>31337.4743111165</v>
+        <v>3.13374743111165</v>
       </c>
       <c r="AL122" s="0">
         <v>2813.6170212766</v>
@@ -24377,7 +24377,7 @@
         <v>20302.5204081633</v>
       </c>
       <c r="AK123" s="0">
-        <v>12689.0865800866</v>
+        <v>1.26890865800866</v>
       </c>
       <c r="AL123" s="0">
         <v>4245.21472392638</v>
@@ -24572,7 +24572,7 @@
         <v>23009.2340099299</v>
       </c>
       <c r="AK124" s="0">
-        <v>12741.8354900521</v>
+        <v>1.27418354900521</v>
       </c>
       <c r="AL124" s="0">
         <v>3932.63157894737</v>
@@ -24767,7 +24767,7 @@
         <v>14323.5744305541</v>
       </c>
       <c r="AK125" s="0">
-        <v>7850.37555252878</v>
+        <v>0.785037555252878</v>
       </c>
       <c r="AL125" s="0">
         <v>1768.29927007299</v>
@@ -24962,7 +24962,7 @@
         <v>25335.0553588867</v>
       </c>
       <c r="AK126" s="0">
-        <v>16330.5183622941</v>
+        <v>1.63305183622941</v>
       </c>
       <c r="AL126" s="0">
         <v>8171.20879120879</v>
@@ -25157,7 +25157,7 @@
         <v>26799.1428571429</v>
       </c>
       <c r="AK127" s="0">
-        <v>16714.6126760563</v>
+        <v>1.67146126760563</v>
       </c>
       <c r="AL127" s="0">
         <v>3235.20408163265</v>
@@ -25352,7 +25352,7 @@
         <v>43753.6896551724</v>
       </c>
       <c r="AK128" s="0">
-        <v>23789.5384615385</v>
+        <v>2.37895384615385</v>
       </c>
       <c r="AL128" s="0">
         <v>3632.29508196721</v>
@@ -25547,7 +25547,7 @@
         <v>22732.328358209</v>
       </c>
       <c r="AK129" s="0">
-        <v>11025.734939759</v>
+        <v>1.1025734939759</v>
       </c>
       <c r="AL129" s="0">
         <v>9528.52941176471</v>
@@ -25742,7 +25742,7 @@
         <v>17938.32</v>
       </c>
       <c r="AK130" s="0">
-        <v>11204.476744186</v>
+        <v>1.1204476744186</v>
       </c>
       <c r="AL130" s="0">
         <v>5797.12</v>
@@ -25937,7 +25937,7 @@
         <v>16460.9489795918</v>
       </c>
       <c r="AK131" s="0">
-        <v>9945.9037037037</v>
+        <v>0.99459037037037</v>
       </c>
       <c r="AL131" s="0">
         <v>1897.61904761905</v>
@@ -26132,7 +26132,7 @@
         <v>24374.5784313725</v>
       </c>
       <c r="AK132" s="0">
-        <v>13953.8383838384</v>
+        <v>1.39538383838384</v>
       </c>
       <c r="AL132" s="0">
         <v>5159.24347826087</v>
@@ -26327,7 +26327,7 @@
         <v>22773.2941176471</v>
       </c>
       <c r="AK133" s="0">
-        <v>14293.1092436975</v>
+        <v>1.42931092436975</v>
       </c>
       <c r="AL133" s="0">
         <v>4808.72093023256</v>
@@ -26522,7 +26522,7 @@
         <v>49048.5111111111</v>
       </c>
       <c r="AK134" s="0">
-        <v>25414.5230744191</v>
+        <v>2.54145230744191</v>
       </c>
       <c r="AL134" s="0">
         <v>225.478260869565</v>
@@ -26717,7 +26717,7 @@
         <v>101840.1</v>
       </c>
       <c r="AK135" s="0">
-        <v>63162.1666666667</v>
+        <v>6.31621666666667</v>
       </c>
       <c r="AL135" s="0">
         <v>1900</v>
@@ -26912,7 +26912,7 @@
         <v>54953.6888888889</v>
       </c>
       <c r="AK136" s="0">
-        <v>32730.7222222222</v>
+        <v>3.27307222222222</v>
       </c>
       <c r="AL136" s="0">
         <v>1762.5</v>
@@ -27107,7 +27107,7 @@
         <v>14098.3440860215</v>
       </c>
       <c r="AK137" s="0">
-        <v>9168.29577464789</v>
+        <v>0.916829577464789</v>
       </c>
       <c r="AL137" s="0">
         <v>3368.9247311828</v>
@@ -27302,7 +27302,7 @@
         <v>34301.0769230769</v>
       </c>
       <c r="AK138" s="0">
-        <v>22772.2372881356</v>
+        <v>2.27722372881356</v>
       </c>
       <c r="AL138" s="0">
         <v>3852.38095238095</v>
@@ -27497,7 +27497,7 @@
         <v>47289.4473684211</v>
       </c>
       <c r="AK139" s="0">
-        <v>25953.5684210526</v>
+        <v>2.59535684210526</v>
       </c>
       <c r="AL139" s="0">
         <v>9914.17721518987</v>
@@ -27692,7 +27692,7 @@
         <v>52705.5531914894</v>
       </c>
       <c r="AK140" s="0">
-        <v>20692.1547619048</v>
+        <v>2.06921547619048</v>
       </c>
       <c r="AL140" s="0">
         <v>25728.8</v>
@@ -27887,7 +27887,7 @@
         <v>22100.5222222222</v>
       </c>
       <c r="AK141" s="0">
-        <v>13825.2410714286</v>
+        <v>1.38252410714286</v>
       </c>
       <c r="AL141" s="0">
         <v>5917.02127659574</v>
@@ -28082,7 +28082,7 @@
         <v>45453.4255319149</v>
       </c>
       <c r="AK142" s="0">
-        <v>25456.661971831</v>
+        <v>2.5456661971831</v>
       </c>
       <c r="AL142" s="0">
         <v>5163.26530612245</v>
@@ -28277,7 +28277,7 @@
         <v>8011.75</v>
       </c>
       <c r="AK143" s="0">
-        <v>3542.91111111111</v>
+        <v>0.354291111111111</v>
       </c>
       <c r="AL143" s="0">
         <v>1904.61538461538</v>
@@ -28472,7 +28472,7 @@
         <v>34601.7446073009</v>
       </c>
       <c r="AK144" s="0">
-        <v>22806.5029537577</v>
+        <v>2.28065029537577</v>
       </c>
       <c r="AL144" s="0">
         <v>3019.05737704918</v>
@@ -28667,7 +28667,7 @@
         <v>30809.9879518072</v>
       </c>
       <c r="AK145" s="0">
-        <v>19039.6377952756</v>
+        <v>1.90396377952756</v>
       </c>
       <c r="AL145" s="0">
         <v>2920.96774193548</v>
@@ -28862,7 +28862,7 @@
         <v>35740.0454545455</v>
       </c>
       <c r="AK146" s="0">
-        <v>20265.3859649123</v>
+        <v>2.02653859649123</v>
       </c>
       <c r="AL146" s="0">
         <v>4459.13978494624</v>
@@ -29057,7 +29057,7 @@
         <v>14654.8097560976</v>
       </c>
       <c r="AK147" s="0">
-        <v>8361.97265625</v>
+        <v>0.836197265625</v>
       </c>
       <c r="AL147" s="0">
         <v>3538.94859813084</v>
@@ -29252,7 +29252,7 @@
         <v>22051.28</v>
       </c>
       <c r="AK148" s="0">
-        <v>13944.6769230769</v>
+        <v>1.39446769230769</v>
       </c>
       <c r="AL148" s="0">
         <v>4830.94339622641</v>
@@ -29447,7 +29447,7 @@
         <v>27019.6666666667</v>
       </c>
       <c r="AK149" s="0">
-        <v>16762.8387096774</v>
+        <v>1.67628387096774</v>
       </c>
       <c r="AL149" s="0">
         <v>8615.74468085106</v>
@@ -29642,7 +29642,7 @@
         <v>21986.5277777778</v>
       </c>
       <c r="AK150" s="0">
-        <v>9753.36734693878</v>
+        <v>0.975336734693878</v>
       </c>
       <c r="AL150" s="0">
         <v>8034.8051948052</v>
@@ -29837,7 +29837,7 @@
         <v>25897.0361445783</v>
       </c>
       <c r="AK151" s="0">
-        <v>17904</v>
+        <v>1.7904</v>
       </c>
       <c r="AL151" s="0">
         <v>2753.64705882353</v>
@@ -30032,7 +30032,7 @@
         <v>63103.8787878788</v>
       </c>
       <c r="AK152" s="0">
-        <v>31553.2837837838</v>
+        <v>3.15532837837838</v>
       </c>
       <c r="AL152" s="0">
         <v>18582.8571428571</v>
@@ -30227,7 +30227,7 @@
         <v>35813.7101449275</v>
       </c>
       <c r="AK153" s="0">
-        <v>37261.5208333333</v>
+        <v>3.72615208333333</v>
       </c>
       <c r="AL153" s="0">
         <v>399.915492957746</v>
@@ -30422,7 +30422,7 @@
         <v>25735.0980392157</v>
       </c>
       <c r="AK154" s="0">
-        <v>9744.20338983051</v>
+        <v>0.974420338983051</v>
       </c>
       <c r="AL154" s="0">
         <v>11581.5825242718</v>
@@ -30617,7 +30617,7 @@
         <v>12748.4186046512</v>
       </c>
       <c r="AK155" s="0">
-        <v>6660.15</v>
+        <v>0.666015</v>
       </c>
       <c r="AL155" s="0">
         <v>4687.7358490566</v>
@@ -30812,7 +30812,7 @@
         <v>29144.8767123288</v>
       </c>
       <c r="AK156" s="0">
-        <v>19627.3759398496</v>
+        <v>1.96273759398496</v>
       </c>
       <c r="AL156" s="0">
         <v>4190</v>
@@ -31007,7 +31007,7 @@
         <v>19744.2470327524</v>
       </c>
       <c r="AK157" s="0">
-        <v>14035.7589089134</v>
+        <v>1.40357589089134</v>
       </c>
       <c r="AL157" s="0">
         <v>2010</v>
@@ -31202,7 +31202,7 @@
         <v>35957.4509803922</v>
       </c>
       <c r="AK158" s="0">
-        <v>25193.4615384615</v>
+        <v>2.51934615384615</v>
       </c>
       <c r="AL158" s="0">
         <v>1398.59649122807</v>
@@ -31397,7 +31397,7 @@
         <v>61506.7619047619</v>
       </c>
       <c r="AK159" s="0">
-        <v>37485.4478845731</v>
+        <v>3.74854478845731</v>
       </c>
       <c r="AL159" s="0">
         <v>4004.34782608696</v>
@@ -31592,7 +31592,7 @@
         <v>60805.7142857143</v>
       </c>
       <c r="AK160" s="0">
-        <v>34982.9565217391</v>
+        <v>3.49829565217391</v>
       </c>
       <c r="AL160" s="0">
         <v>2500</v>
@@ -31787,7 +31787,7 @@
         <v>48411.125</v>
       </c>
       <c r="AK161" s="0">
-        <v>27158.6153846154</v>
+        <v>2.71586153846154</v>
       </c>
       <c r="AL161" s="0">
         <v>3125</v>
@@ -31982,7 +31982,7 @@
         <v>26551.1428571429</v>
       </c>
       <c r="AK162" s="0">
-        <v>16423.8088235294</v>
+        <v>1.64238088235294</v>
       </c>
       <c r="AL162" s="0">
         <v>6239.39316239316</v>
@@ -32177,7 +32177,7 @@
         <v>23999.0588235294</v>
       </c>
       <c r="AK163" s="0">
-        <v>18373.9603960396</v>
+        <v>1.83739603960396</v>
       </c>
       <c r="AL163" s="0">
         <v>2855.39682539683</v>
@@ -32372,7 +32372,7 @@
         <v>109785.244357639</v>
       </c>
       <c r="AK164" s="0">
-        <v>61758.7199991862</v>
+        <v>6.17587199991862</v>
       </c>
       <c r="AL164" s="0">
         <v>6564.10256410256</v>
@@ -32567,7 +32567,7 @@
         <v>18451.7222222222</v>
       </c>
       <c r="AK165" s="0">
-        <v>13750.3482142857</v>
+        <v>1.37503482142857</v>
       </c>
       <c r="AL165" s="0">
         <v>3234.63414634146</v>
@@ -32762,7 +32762,7 @@
         <v>94209.696969697</v>
       </c>
       <c r="AK166" s="0">
-        <v>52444</v>
+        <v>5.2444</v>
       </c>
       <c r="AL166" s="0">
         <v>13594.4444444444</v>
@@ -32957,7 +32957,7 @@
         <v>27340.9961389961</v>
       </c>
       <c r="AK167" s="0">
-        <v>12856.6300614246</v>
+        <v>1.28566300614246</v>
       </c>
       <c r="AL167" s="0">
         <v>9123.6015037594</v>
@@ -33152,7 +33152,7 @@
         <v>65836.3333333333</v>
       </c>
       <c r="AK168" s="0">
-        <v>43427.606557377</v>
+        <v>4.3427606557377</v>
       </c>
       <c r="AL168" s="0">
         <v>6995.12195121951</v>
@@ -33347,7 +33347,7 @@
         <v>24356.6933333333</v>
       </c>
       <c r="AK169" s="0">
-        <v>11828.797979798</v>
+        <v>1.1828797979798</v>
       </c>
       <c r="AL169" s="0">
         <v>6956.34146341463</v>
@@ -33542,7 +33542,7 @@
         <v>24488.0400010851</v>
       </c>
       <c r="AK170" s="0">
-        <v>17146.4895522274</v>
+        <v>1.71464895522274</v>
       </c>
       <c r="AL170" s="0">
         <v>4267.96116504854</v>
@@ -33737,7 +33737,7 @@
         <v>26725.1034482759</v>
       </c>
       <c r="AK171" s="0">
-        <v>10283.2421052632</v>
+        <v>1.02832421052632</v>
       </c>
       <c r="AL171" s="0">
         <v>10403.1746031746</v>
@@ -33932,7 +33932,7 @@
         <v>69992.8125</v>
       </c>
       <c r="AK172" s="0">
-        <v>39533.9215686274</v>
+        <v>3.95339215686274</v>
       </c>
       <c r="AL172" s="0">
         <v>402.941176470588</v>
@@ -34127,7 +34127,7 @@
         <v>49793.8769230769</v>
       </c>
       <c r="AK173" s="0">
-        <v>25950.9391576943</v>
+        <v>2.59509391576943</v>
       </c>
       <c r="AL173" s="0">
         <v>2363.07692307692</v>
@@ -34322,7 +34322,7 @@
         <v>43575.7171959005</v>
       </c>
       <c r="AK174" s="0">
-        <v>23254.0016965704</v>
+        <v>2.32540016965704</v>
       </c>
       <c r="AL174" s="0">
         <v>8337.0101010101</v>
@@ -34517,7 +34517,7 @@
         <v>102209</v>
       </c>
       <c r="AK175" s="0">
-        <v>51236.625</v>
+        <v>5.1236625</v>
       </c>
       <c r="AL175" s="0">
         <v>31200</v>
@@ -34712,7 +34712,7 @@
         <v>67056.8421052632</v>
       </c>
       <c r="AK176" s="0">
-        <v>30947.3684210526</v>
+        <v>3.09473684210526</v>
       </c>
       <c r="AL176" s="0">
         <v>17705.2631578947</v>
@@ -34907,7 +34907,7 @@
         <v>30562.8518518519</v>
       </c>
       <c r="AK177" s="0">
-        <v>17510.4015151515</v>
+        <v>1.75104015151515</v>
       </c>
       <c r="AL177" s="0">
         <v>-1406.66666666667</v>
@@ -35102,7 +35102,7 @@
         <v>29931.8902420343</v>
       </c>
       <c r="AK178" s="0">
-        <v>19638.2530300256</v>
+        <v>1.96382530300256</v>
       </c>
       <c r="AL178" s="0">
         <v>3663.39285714286</v>
@@ -35297,7 +35297,7 @@
         <v>23932.505050505</v>
       </c>
       <c r="AK179" s="0">
-        <v>13881.606557377</v>
+        <v>1.3881606557377</v>
       </c>
       <c r="AL179" s="0">
         <v>3884.74747474747</v>
@@ -35492,7 +35492,7 @@
         <v>53244.6689814815</v>
       </c>
       <c r="AK180" s="0">
-        <v>27698.1225585938</v>
+        <v>2.76981225585938</v>
       </c>
       <c r="AL180" s="0">
         <v>9639.73684210526</v>
@@ -35687,7 +35687,7 @@
         <v>42997.1555555556</v>
       </c>
       <c r="AK181" s="0">
-        <v>25830.03125</v>
+        <v>2.583003125</v>
       </c>
       <c r="AL181" s="0">
         <v>4777.55102040816</v>
@@ -35882,7 +35882,7 @@
         <v>50106.4285714286</v>
       </c>
       <c r="AK182" s="0">
-        <v>31154.4623655914</v>
+        <v>3.11544623655914</v>
       </c>
       <c r="AL182" s="0">
         <v>16883.6111111111</v>
@@ -36077,7 +36077,7 @@
         <v>33961.7016129032</v>
       </c>
       <c r="AK183" s="0">
-        <v>25408.3063583815</v>
+        <v>2.54083063583815</v>
       </c>
       <c r="AL183" s="0">
         <v>4786.9696969697</v>
@@ -36272,7 +36272,7 @@
         <v>38579.6363636364</v>
       </c>
       <c r="AK184" s="0">
-        <v>33777.0909090909</v>
+        <v>3.37770909090909</v>
       </c>
       <c r="AL184" s="0">
         <v>0</v>
@@ -36467,7 +36467,7 @@
         <v>13468.9411764706</v>
       </c>
       <c r="AK185" s="0">
-        <v>5397.85869565217</v>
+        <v>0.539785869565217</v>
       </c>
       <c r="AL185" s="0">
         <v>3566.27450980392</v>
@@ -36662,7 +36662,7 @@
         <v>41722.5479452055</v>
       </c>
       <c r="AK186" s="0">
-        <v>22134.1</v>
+        <v>2.21341</v>
       </c>
       <c r="AL186" s="0">
         <v>8845.98734177215</v>
@@ -36857,7 +36857,7 @@
         <v>17516.3611111111</v>
       </c>
       <c r="AK187" s="0">
-        <v>9127.73109243697</v>
+        <v>0.912773109243697</v>
       </c>
       <c r="AL187" s="0">
         <v>2152</v>
@@ -37052,7 +37052,7 @@
         <v>36306.2888888889</v>
       </c>
       <c r="AK188" s="0">
-        <v>22457.1447368421</v>
+        <v>2.24571447368421</v>
       </c>
       <c r="AL188" s="0">
         <v>8461.98412698413</v>
@@ -37247,7 +37247,7 @@
         <v>16083.6666666667</v>
       </c>
       <c r="AK189" s="0">
-        <v>10361.4302325581</v>
+        <v>1.03614302325581</v>
       </c>
       <c r="AL189" s="0">
         <v>1720.91503267974</v>
@@ -37442,7 +37442,7 @@
         <v>37657.4461538462</v>
       </c>
       <c r="AK190" s="0">
-        <v>22362.4395604396</v>
+        <v>2.23624395604396</v>
       </c>
       <c r="AL190" s="0">
         <v>4645.85714285714</v>
@@ -37637,7 +37637,7 @@
         <v>31273.70796875</v>
       </c>
       <c r="AK191" s="0">
-        <v>18114.1402984164</v>
+        <v>1.81141402984164</v>
       </c>
       <c r="AL191" s="0">
         <v>4668.28828828829</v>
@@ -37832,7 +37832,7 @@
         <v>21146.3888888889</v>
       </c>
       <c r="AK192" s="0">
-        <v>13071.7222222222</v>
+        <v>1.30717222222222</v>
       </c>
       <c r="AL192" s="0">
         <v>3166.88372093023</v>
@@ -38027,7 +38027,7 @@
         <v>10217.3033707865</v>
       </c>
       <c r="AK193" s="0">
-        <v>4439.88679245283</v>
+        <v>0.443988679245283</v>
       </c>
       <c r="AL193" s="0">
         <v>5851.64835164835</v>
@@ -38222,7 +38222,7 @@
         <v>36372.275862069</v>
       </c>
       <c r="AK194" s="0">
-        <v>21789.3193277311</v>
+        <v>2.17893193277311</v>
       </c>
       <c r="AL194" s="0">
         <v>6764.36781609195</v>
@@ -38417,7 +38417,7 @@
         <v>33267.4287109375</v>
       </c>
       <c r="AK195" s="0">
-        <v>21879.1214453125</v>
+        <v>2.18791214453125</v>
       </c>
       <c r="AL195" s="0">
         <v>2750.30769230769</v>
@@ -38612,7 +38612,7 @@
         <v>31503.3913043478</v>
       </c>
       <c r="AK196" s="0">
-        <v>19863.1185770751</v>
+        <v>1.98631185770751</v>
       </c>
       <c r="AL196" s="0">
         <v>5155.78010471204</v>
@@ -38807,7 +38807,7 @@
         <v>35524.8602150538</v>
       </c>
       <c r="AK197" s="0">
-        <v>21193.9908256881</v>
+        <v>2.11939908256881</v>
       </c>
       <c r="AL197" s="0">
         <v>5931.49473684211</v>
@@ -39002,7 +39002,7 @@
         <v>23294.3684210526</v>
       </c>
       <c r="AK198" s="0">
-        <v>13435.3854166667</v>
+        <v>1.34353854166667</v>
       </c>
       <c r="AL198" s="0">
         <v>6562.55</v>
@@ -39197,7 +39197,7 @@
         <v>54692.3050847458</v>
       </c>
       <c r="AK199" s="0">
-        <v>33241.3987730061</v>
+        <v>3.32413987730061</v>
       </c>
       <c r="AL199" s="0">
         <v>3656.06557377049</v>
@@ -39392,7 +39392,7 @@
         <v>13055.6903409091</v>
       </c>
       <c r="AK200" s="0">
-        <v>7038.69266055046</v>
+        <v>0.703869266055046</v>
       </c>
       <c r="AL200" s="0">
         <v>2708.03038674033</v>
@@ -39587,7 +39587,7 @@
         <v>46415.44</v>
       </c>
       <c r="AK201" s="0">
-        <v>22522.1428571429</v>
+        <v>2.25221428571429</v>
       </c>
       <c r="AL201" s="0">
         <v>13581.4814814815</v>
@@ -39782,7 +39782,7 @@
         <v>11475.6489361702</v>
       </c>
       <c r="AK202" s="0">
-        <v>6261.14705882353</v>
+        <v>0.626114705882353</v>
       </c>
       <c r="AL202" s="0">
         <v>1263.39603960396</v>
@@ -39977,7 +39977,7 @@
         <v>63067.6097560976</v>
       </c>
       <c r="AK203" s="0">
-        <v>33515.724137931</v>
+        <v>3.3515724137931</v>
       </c>
       <c r="AL203" s="0">
         <v>20922.0238095238</v>
@@ -40172,7 +40172,7 @@
         <v>16200.0615384615</v>
       </c>
       <c r="AK204" s="0">
-        <v>8299.30973451327</v>
+        <v>0.829930973451327</v>
       </c>
       <c r="AL204" s="0">
         <v>1458.57142857143</v>
@@ -40367,7 +40367,7 @@
         <v>25064.7175572519</v>
       </c>
       <c r="AK205" s="0">
-        <v>16255.5611510791</v>
+        <v>1.62555611510791</v>
       </c>
       <c r="AL205" s="0">
         <v>3209.62121212121</v>
@@ -40562,7 +40562,7 @@
         <v>17087.0133333333</v>
       </c>
       <c r="AK206" s="0">
-        <v>12263.4174757282</v>
+        <v>1.22634174757282</v>
       </c>
       <c r="AL206" s="0">
         <v>866.666666666667</v>
@@ -40757,7 +40757,7 @@
         <v>46155.3768115942</v>
       </c>
       <c r="AK207" s="0">
-        <v>27746.5333333333</v>
+        <v>2.77465333333333</v>
       </c>
       <c r="AL207" s="0">
         <v>12969.012345679</v>
@@ -40952,7 +40952,7 @@
         <v>34621.4347826087</v>
       </c>
       <c r="AK208" s="0">
-        <v>22353.0169491525</v>
+        <v>2.23530169491525</v>
       </c>
       <c r="AL208" s="0">
         <v>4078.26086956522</v>
@@ -41147,7 +41147,7 @@
         <v>25400.8</v>
       </c>
       <c r="AK209" s="0">
-        <v>19324.4035213695</v>
+        <v>1.93244035213695</v>
       </c>
       <c r="AL209" s="0">
         <v>7045.2</v>
@@ -41342,7 +41342,7 @@
         <v>11691.3492930238</v>
       </c>
       <c r="AK210" s="0">
-        <v>7702.52000054253</v>
+        <v>0.770252000054254</v>
       </c>
       <c r="AL210" s="0">
         <v>1222.44</v>
@@ -41537,7 +41537,7 @@
         <v>40730.3529411765</v>
       </c>
       <c r="AK211" s="0">
-        <v>22453</v>
+        <v>2.2453</v>
       </c>
       <c r="AL211" s="0">
         <v>2650.97142857143</v>
@@ -41732,7 +41732,7 @@
         <v>38647.8222222222</v>
       </c>
       <c r="AK212" s="0">
-        <v>24076.619047619</v>
+        <v>2.4076619047619</v>
       </c>
       <c r="AL212" s="0">
         <v>7008.51063829787</v>
@@ -41927,7 +41927,7 @@
         <v>107620</v>
       </c>
       <c r="AK213" s="0">
-        <v>92395.1063829787</v>
+        <v>9.23951063829787</v>
       </c>
       <c r="AL213" s="0">
         <v>11700</v>
@@ -42122,7 +42122,7 @@
         <v>17215.4078947368</v>
       </c>
       <c r="AK214" s="0">
-        <v>11014.5175438596</v>
+        <v>1.10145175438597</v>
       </c>
       <c r="AL214" s="0">
         <v>2030.42352941176</v>
@@ -42317,7 +42317,7 @@
         <v>23285.1446540881</v>
       </c>
       <c r="AK215" s="0">
-        <v>11073.2722772277</v>
+        <v>1.10732722772277</v>
       </c>
       <c r="AL215" s="0">
         <v>9288.58682634731</v>
@@ -42512,7 +42512,7 @@
         <v>60596.5625</v>
       </c>
       <c r="AK216" s="0">
-        <v>42671.4285714286</v>
+        <v>4.26714285714286</v>
       </c>
       <c r="AL216" s="0">
         <v>2591.5625</v>
@@ -42707,7 +42707,7 @@
         <v>31264.7166666667</v>
       </c>
       <c r="AK217" s="0">
-        <v>21482.2063492064</v>
+        <v>2.14822063492064</v>
       </c>
       <c r="AL217" s="0">
         <v>2325.43609022556</v>
@@ -42902,7 +42902,7 @@
         <v>31995.1479289941</v>
       </c>
       <c r="AK218" s="0">
-        <v>15629.7803921569</v>
+        <v>1.56297803921569</v>
       </c>
       <c r="AL218" s="0">
         <v>4059.65714285714</v>
@@ -43097,7 +43097,7 @@
         <v>181242.848484848</v>
       </c>
       <c r="AK219" s="0">
-        <v>68625.4117647059</v>
+        <v>6.86254117647059</v>
       </c>
       <c r="AL219" s="0">
         <v>18119.875</v>
@@ -43292,7 +43292,7 @@
         <v>23408.0289855072</v>
       </c>
       <c r="AK220" s="0">
-        <v>9488.45833333333</v>
+        <v>0.948845833333333</v>
       </c>
       <c r="AL220" s="0">
         <v>11534.1333333333</v>
@@ -43487,7 +43487,7 @@
         <v>13054.5517241379</v>
       </c>
       <c r="AK221" s="0">
-        <v>7761.93333418997</v>
+        <v>0.776193333418997</v>
       </c>
       <c r="AL221" s="0">
         <v>3690.76923076923</v>
@@ -43682,7 +43682,7 @@
         <v>42211.1346153846</v>
       </c>
       <c r="AK222" s="0">
-        <v>27162.5458715596</v>
+        <v>2.71625458715596</v>
       </c>
       <c r="AL222" s="0">
         <v>8086.32926829268</v>
@@ -43877,7 +43877,7 @@
         <v>47075.7794383397</v>
       </c>
       <c r="AK223" s="0">
-        <v>28618.9089738895</v>
+        <v>2.86189089738895</v>
       </c>
       <c r="AL223" s="0">
         <v>4025.67796610169</v>
@@ -44072,7 +44072,7 @@
         <v>42452.7123287671</v>
       </c>
       <c r="AK224" s="0">
-        <v>23596.0163934426</v>
+        <v>2.35960163934426</v>
       </c>
       <c r="AL224" s="0">
         <v>1580</v>
@@ -44267,7 +44267,7 @@
         <v>33289.0505050505</v>
       </c>
       <c r="AK225" s="0">
-        <v>16226.9253731343</v>
+        <v>1.62269253731343</v>
       </c>
       <c r="AL225" s="0">
         <v>1521.10091743119</v>
@@ -44462,7 +44462,7 @@
         <v>35266.9072164948</v>
       </c>
       <c r="AK226" s="0">
-        <v>23192.6666666667</v>
+        <v>2.31926666666667</v>
       </c>
       <c r="AL226" s="0">
         <v>4052.63157894737</v>
@@ -44657,7 +44657,7 @@
         <v>28914.1425286655</v>
       </c>
       <c r="AK227" s="0">
-        <v>20205.0421874523</v>
+        <v>2.02050421874523</v>
       </c>
       <c r="AL227" s="0">
         <v>4129.69696969697</v>
@@ -44852,7 +44852,7 @@
         <v>72712.109375</v>
       </c>
       <c r="AK228" s="0">
-        <v>16898.670886076</v>
+        <v>1.6898670886076</v>
       </c>
       <c r="AL228" s="0">
         <v>50029.0625</v>
@@ -45047,7 +45047,7 @@
         <v>31873.7098975728</v>
       </c>
       <c r="AK229" s="0">
-        <v>21640.745349263</v>
+        <v>2.1640745349263</v>
       </c>
       <c r="AL229" s="0">
         <v>2364.89655172414</v>
@@ -45242,7 +45242,7 @@
         <v>17130.3376588983</v>
       </c>
       <c r="AK230" s="0">
-        <v>8373.01846078726</v>
+        <v>0.837301846078726</v>
       </c>
       <c r="AL230" s="0">
         <v>613.114754098361</v>
@@ -45437,7 +45437,7 @@
         <v>22821.9675675676</v>
       </c>
       <c r="AK231" s="0">
-        <v>13264.6416665536</v>
+        <v>1.32646416665536</v>
       </c>
       <c r="AL231" s="0">
         <v>6920.75757575758</v>
@@ -45632,7 +45632,7 @@
         <v>43058.623853211</v>
       </c>
       <c r="AK232" s="0">
-        <v>19790.2236842105</v>
+        <v>1.97902236842105</v>
       </c>
       <c r="AL232" s="0">
         <v>10689.9322033898</v>
@@ -45827,7 +45827,7 @@
         <v>36338.546875</v>
       </c>
       <c r="AK233" s="0">
-        <v>18124.6394421215</v>
+        <v>1.81246394421215</v>
       </c>
       <c r="AL233" s="0">
         <v>5504</v>
@@ -46022,7 +46022,7 @@
         <v>54568.9479166667</v>
       </c>
       <c r="AK234" s="0">
-        <v>29374</v>
+        <v>2.9374</v>
       </c>
       <c r="AL234" s="0">
         <v>8937.85087719298</v>
@@ -46217,7 +46217,7 @@
         <v>58377.4409826807</v>
       </c>
       <c r="AK235" s="0">
-        <v>33690.6537815382</v>
+        <v>3.36906537815382</v>
       </c>
       <c r="AL235" s="0">
         <v>6965.15217391304</v>
@@ -46412,7 +46412,7 @@
         <v>17388.3444444444</v>
       </c>
       <c r="AK236" s="0">
-        <v>9110.81746031746</v>
+        <v>0.911081746031746</v>
       </c>
       <c r="AL236" s="0">
         <v>3460.43956043956</v>
@@ -46607,7 +46607,7 @@
         <v>34487.3052793561</v>
       </c>
       <c r="AK237" s="0">
-        <v>17764.6586168411</v>
+        <v>1.77646586168411</v>
       </c>
       <c r="AL237" s="0">
         <v>8011.97350993377</v>
@@ -46802,7 +46802,7 @@
         <v>21379.6119402985</v>
       </c>
       <c r="AK238" s="0">
-        <v>16790.4444444444</v>
+        <v>1.67904444444444</v>
       </c>
       <c r="AL238" s="0">
         <v>2407.32394366197</v>
@@ -46997,7 +46997,7 @@
         <v>19995.8181818182</v>
       </c>
       <c r="AK239" s="0">
-        <v>15272.3461538462</v>
+        <v>1.52723461538462</v>
       </c>
       <c r="AL239" s="0">
         <v>2004.21052631579</v>
@@ -47192,7 +47192,7 @@
         <v>22299.5844155844</v>
       </c>
       <c r="AK240" s="0">
-        <v>15328.1553398058</v>
+        <v>1.53281553398058</v>
       </c>
       <c r="AL240" s="0">
         <v>5950.93975903615</v>
@@ -47387,7 +47387,7 @@
         <v>32136.953125</v>
       </c>
       <c r="AK241" s="0">
-        <v>20466.1051660517</v>
+        <v>2.04661051660517</v>
       </c>
       <c r="AL241" s="0">
         <v>2565.93922651934</v>
@@ -47582,7 +47582,7 @@
         <v>72707.6923076923</v>
       </c>
       <c r="AK242" s="0">
-        <v>37953.7631578947</v>
+        <v>3.79537631578947</v>
       </c>
       <c r="AL242" s="0">
         <v>18473.2142857143</v>
@@ -47777,7 +47777,7 @@
         <v>37134</v>
       </c>
       <c r="AK243" s="0">
-        <v>21468.7203389831</v>
+        <v>2.14687203389831</v>
       </c>
       <c r="AL243" s="0">
         <v>5855.59139784946</v>
@@ -47972,7 +47972,7 @@
         <v>22582.74609375</v>
       </c>
       <c r="AK244" s="0">
-        <v>11713.5251780192</v>
+        <v>1.17135251780192</v>
       </c>
       <c r="AL244" s="0">
         <v>1391.70149253731</v>
@@ -48167,7 +48167,7 @@
         <v>104279.191176471</v>
       </c>
       <c r="AK245" s="0">
-        <v>22172.1721311475</v>
+        <v>2.21721721311475</v>
       </c>
       <c r="AL245" s="0">
         <v>44326.0759493671</v>
@@ -48362,7 +48362,7 @@
         <v>33840.0425531915</v>
       </c>
       <c r="AK246" s="0">
-        <v>15640.8791946309</v>
+        <v>1.56408791946309</v>
       </c>
       <c r="AL246" s="0">
         <v>10642.8571428571</v>
@@ -48557,7 +48557,7 @@
         <v>14725.8815789474</v>
       </c>
       <c r="AK247" s="0">
-        <v>8941.4801980198</v>
+        <v>0.89414801980198</v>
       </c>
       <c r="AL247" s="0">
         <v>2035.0303030303</v>
@@ -48752,7 +48752,7 @@
         <v>39368.6961996064</v>
       </c>
       <c r="AK248" s="0">
-        <v>26442.0230001831</v>
+        <v>2.64420230001831</v>
       </c>
       <c r="AL248" s="0">
         <v>2813.6170212766</v>
@@ -48947,7 +48947,7 @@
         <v>34508.7536231884</v>
       </c>
       <c r="AK249" s="0">
-        <v>20278.415</v>
+        <v>2.0278415</v>
       </c>
       <c r="AL249" s="0">
         <v>4245.21472392638</v>
@@ -49142,7 +49142,7 @@
         <v>25335.1744186047</v>
       </c>
       <c r="AK250" s="0">
-        <v>16860.8384615385</v>
+        <v>1.68608384615385</v>
       </c>
       <c r="AL250" s="0">
         <v>3932.63157894737</v>
@@ -49337,7 +49337,7 @@
         <v>17991.5826771654</v>
       </c>
       <c r="AK251" s="0">
-        <v>10719.65625</v>
+        <v>1.071965625</v>
       </c>
       <c r="AL251" s="0">
         <v>1768.29927007299</v>
@@ -49532,7 +49532,7 @@
         <v>16436.091954023</v>
       </c>
       <c r="AK252" s="0">
-        <v>6431.52459016393</v>
+        <v>0.643152459016394</v>
       </c>
       <c r="AL252" s="0">
         <v>8171.20879120879</v>
@@ -49727,7 +49727,7 @@
         <v>25698.4042553192</v>
       </c>
       <c r="AK253" s="0">
-        <v>18531.328125</v>
+        <v>1.8531328125</v>
       </c>
       <c r="AL253" s="0">
         <v>3235.20408163265</v>
@@ -49922,7 +49922,7 @@
         <v>30977.5151515152</v>
       </c>
       <c r="AK254" s="0">
-        <v>15418.1025641026</v>
+        <v>1.54181025641026</v>
       </c>
       <c r="AL254" s="0">
         <v>7477.16417910448</v>
@@ -50117,7 +50117,7 @@
         <v>14850.985915493</v>
       </c>
       <c r="AK255" s="0">
-        <v>7047.03488372093</v>
+        <v>0.704703488372093</v>
       </c>
       <c r="AL255" s="0">
         <v>3631.90476190476</v>
@@ -50312,7 +50312,7 @@
         <v>35336.1967213115</v>
       </c>
       <c r="AK256" s="0">
-        <v>17643.1071428571</v>
+        <v>1.76431071428571</v>
       </c>
       <c r="AL256" s="0">
         <v>13545.5616438356</v>
@@ -50507,7 +50507,7 @@
         <v>7273.3</v>
       </c>
       <c r="AK257" s="0">
-        <v>3214.4962406015</v>
+        <v>0.32144962406015</v>
       </c>
       <c r="AL257" s="0">
         <v>2310.9243697479</v>
@@ -50702,7 +50702,7 @@
         <v>16005.1211042346</v>
       </c>
       <c r="AK258" s="0">
-        <v>7751.12725271148</v>
+        <v>0.775112725271148</v>
       </c>
       <c r="AL258" s="0">
         <v>3363.85537190083</v>
@@ -50897,7 +50897,7 @@
         <v>12281.1285714286</v>
       </c>
       <c r="AK259" s="0">
-        <v>9114.31067961165</v>
+        <v>0.911431067961165</v>
       </c>
       <c r="AL259" s="0">
         <v>1153.42391304348</v>
@@ -51092,7 +51092,7 @@
         <v>34946.3095238095</v>
       </c>
       <c r="AK260" s="0">
-        <v>16765.6209150327</v>
+        <v>1.67656209150327</v>
       </c>
       <c r="AL260" s="0">
         <v>1019.44444444444</v>
@@ -51287,7 +51287,7 @@
         <v>77431</v>
       </c>
       <c r="AK261" s="0">
-        <v>44045.9574468085</v>
+        <v>4.40459574468085</v>
       </c>
       <c r="AL261" s="0">
         <v>4254.54545454546</v>
@@ -51482,7 +51482,7 @@
         <v>40976.5625</v>
       </c>
       <c r="AK262" s="0">
-        <v>27637.8153846154</v>
+        <v>2.76378153846154</v>
       </c>
       <c r="AL262" s="0">
         <v>1041.50943396226</v>
@@ -51677,7 +51677,7 @@
         <v>33085.7897961675</v>
       </c>
       <c r="AK263" s="0">
-        <v>7463.04558832505</v>
+        <v>0.746304558832505</v>
       </c>
       <c r="AL263" s="0">
         <v>19204.8461538462</v>
@@ -51872,7 +51872,7 @@
         <v>63033.1034482759</v>
       </c>
       <c r="AK264" s="0">
-        <v>44896.7333333333</v>
+        <v>4.48967333333333</v>
       </c>
       <c r="AL264" s="0">
         <v>3139.28571428571</v>
@@ -52067,7 +52067,7 @@
         <v>43766.2857142857</v>
       </c>
       <c r="AK265" s="0">
-        <v>24655.4</v>
+        <v>2.46554</v>
       </c>
       <c r="AL265" s="0">
         <v>7548.51063829787</v>
@@ -52262,7 +52262,7 @@
         <v>16948.0754716981</v>
       </c>
       <c r="AK266" s="0">
-        <v>7493.12941176471</v>
+        <v>0.749312941176471</v>
       </c>
       <c r="AL266" s="0">
         <v>4912.53333333333</v>
@@ -52457,7 +52457,7 @@
         <v>20677.5</v>
       </c>
       <c r="AK267" s="0">
-        <v>6110.32710280374</v>
+        <v>0.611032710280374</v>
       </c>
       <c r="AL267" s="0">
         <v>7938.33333333333</v>
@@ -52652,7 +52652,7 @@
         <v>32112.6976744186</v>
       </c>
       <c r="AK268" s="0">
-        <v>15856.7402597403</v>
+        <v>1.58567402597403</v>
       </c>
       <c r="AL268" s="0">
         <v>3566.66666666667</v>
@@ -52847,7 +52847,7 @@
         <v>21531.6455269608</v>
       </c>
       <c r="AK269" s="0">
-        <v>11138.3895996094</v>
+        <v>1.11383895996094</v>
       </c>
       <c r="AL269" s="0">
         <v>5889.39759036145</v>
@@ -53042,7 +53042,7 @@
         <v>28344.7547169811</v>
       </c>
       <c r="AK270" s="0">
-        <v>15708.0421781994</v>
+        <v>1.57080421781994</v>
       </c>
       <c r="AL270" s="0">
         <v>2650.35714285714</v>
@@ -53237,7 +53237,7 @@
         <v>17401.3722195095</v>
       </c>
       <c r="AK271" s="0">
-        <v>14255.9023257707</v>
+        <v>1.42559023257707</v>
       </c>
       <c r="AL271" s="0">
         <v>910.434782608696</v>
@@ -53432,7 +53432,7 @@
         <v>28268.6153846154</v>
       </c>
       <c r="AK272" s="0">
-        <v>13676.2818181818</v>
+        <v>1.36762818181818</v>
       </c>
       <c r="AL272" s="0">
         <v>4432.67326732673</v>
@@ -53627,7 +53627,7 @@
         <v>12374.4671532847</v>
       </c>
       <c r="AK273" s="0">
-        <v>3537.88617886179</v>
+        <v>0.353788617886179</v>
       </c>
       <c r="AL273" s="0">
         <v>6151.07317073171</v>
@@ -53822,7 +53822,7 @@
         <v>14179.3939393939</v>
       </c>
       <c r="AK274" s="0">
-        <v>11134.8387096774</v>
+        <v>1.11348387096774</v>
       </c>
       <c r="AL274" s="0">
         <v>5389.83050847458</v>
@@ -54017,7 +54017,7 @@
         <v>16025.7619047619</v>
       </c>
       <c r="AK275" s="0">
-        <v>7474.37931034483</v>
+        <v>0.747437931034483</v>
       </c>
       <c r="AL275" s="0">
         <v>4010.01869158879</v>
@@ -54212,7 +54212,7 @@
         <v>14668.2</v>
       </c>
       <c r="AK276" s="0">
-        <v>4717.47572815534</v>
+        <v>0.471747572815534</v>
       </c>
       <c r="AL276" s="0">
         <v>9412.94117647059</v>
@@ -54407,7 +54407,7 @@
         <v>12926.2542372881</v>
       </c>
       <c r="AK277" s="0">
-        <v>9235.18</v>
+        <v>0.923518</v>
       </c>
       <c r="AL277" s="0">
         <v>1705.44444444444</v>
@@ -54602,7 +54602,7 @@
         <v>75955.3333333333</v>
       </c>
       <c r="AK278" s="0">
-        <v>34170.0119047619</v>
+        <v>3.41700119047619</v>
       </c>
       <c r="AL278" s="0">
         <v>8474.92753623188</v>
@@ -54797,7 +54797,7 @@
         <v>21481.306122449</v>
       </c>
       <c r="AK279" s="0">
-        <v>12023.1894736842</v>
+        <v>1.20231894736842</v>
       </c>
       <c r="AL279" s="0">
         <v>96.5853658536585</v>
@@ -54992,7 +54992,7 @@
         <v>15750.0256410256</v>
       </c>
       <c r="AK280" s="0">
-        <v>6926.14912280702</v>
+        <v>0.692614912280702</v>
       </c>
       <c r="AL280" s="0">
         <v>2021.20720720721</v>
@@ -55187,7 +55187,7 @@
         <v>11983.2292659108</v>
       </c>
       <c r="AK281" s="0">
-        <v>3952.78148142497</v>
+        <v>0.395278148142497</v>
       </c>
       <c r="AL281" s="0">
         <v>3569.25925925926</v>
@@ -55382,7 +55382,7 @@
         <v>15102.1866666667</v>
       </c>
       <c r="AK282" s="0">
-        <v>9585.59842519685</v>
+        <v>0.958559842519685</v>
       </c>
       <c r="AL282" s="0">
         <v>1732.43564356436</v>
@@ -55577,7 +55577,7 @@
         <v>11292.7346938776</v>
       </c>
       <c r="AK283" s="0">
-        <v>5081.03035736084</v>
+        <v>0.508103035736084</v>
       </c>
       <c r="AL283" s="0">
         <v>1164</v>
@@ -55772,7 +55772,7 @@
         <v>37565.5</v>
       </c>
       <c r="AK284" s="0">
-        <v>20980.3891518803</v>
+        <v>2.09803891518803</v>
       </c>
       <c r="AL284" s="0">
         <v>2619.04761904762</v>
@@ -55967,7 +55967,7 @@
         <v>58449.0909090909</v>
       </c>
       <c r="AK285" s="0">
-        <v>30250.9787234043</v>
+        <v>3.02509787234043</v>
       </c>
       <c r="AL285" s="0">
         <v>8027.90697674419</v>
@@ -56162,7 +56162,7 @@
         <v>51658.1818181818</v>
       </c>
       <c r="AK286" s="0">
-        <v>22795.3058938419</v>
+        <v>2.27953058938419</v>
       </c>
       <c r="AL286" s="0">
         <v>0</v>
@@ -56357,7 +56357,7 @@
         <v>46919.5</v>
       </c>
       <c r="AK287" s="0">
-        <v>24648.3529411765</v>
+        <v>2.46483529411765</v>
       </c>
       <c r="AL287" s="0">
         <v>4588.23529411765</v>
@@ -56552,7 +56552,7 @@
         <v>14562.60930119</v>
       </c>
       <c r="AK288" s="0">
-        <v>7783.37185149016</v>
+        <v>0.778337185149016</v>
       </c>
       <c r="AL288" s="0">
         <v>3994.18803418803</v>
@@ -56747,7 +56747,7 @@
         <v>20447.5744680851</v>
       </c>
       <c r="AK289" s="0">
-        <v>7689.30303030303</v>
+        <v>0.768930303030303</v>
       </c>
       <c r="AL289" s="0">
         <v>2957.38636363636</v>
@@ -56942,7 +56942,7 @@
         <v>106422.476190476</v>
       </c>
       <c r="AK290" s="0">
-        <v>65891.1794871795</v>
+        <v>6.58911794871795</v>
       </c>
       <c r="AL290" s="0">
         <v>0</v>
@@ -57137,7 +57137,7 @@
         <v>8502.55263157895</v>
       </c>
       <c r="AK291" s="0">
-        <v>3376.33</v>
+        <v>0.337633</v>
       </c>
       <c r="AL291" s="0">
         <v>1684.18987341772</v>
@@ -57332,7 +57332,7 @@
         <v>97743.75</v>
       </c>
       <c r="AK292" s="0">
-        <v>37722.5</v>
+        <v>3.77225</v>
       </c>
       <c r="AL292" s="0">
         <v>8828.10810810811</v>
@@ -57527,7 +57527,7 @@
         <v>24924.0602409639</v>
       </c>
       <c r="AK293" s="0">
-        <v>13245.9857651246</v>
+        <v>1.32459857651246</v>
       </c>
       <c r="AL293" s="0">
         <v>3984.34024896266</v>
@@ -57722,7 +57722,7 @@
         <v>65077.9428571429</v>
       </c>
       <c r="AK294" s="0">
-        <v>48464.1785714286</v>
+        <v>4.84641785714286</v>
       </c>
       <c r="AL294" s="0">
         <v>11854.9019607843</v>
@@ -57917,7 +57917,7 @@
         <v>19996.4847483915</v>
       </c>
       <c r="AK295" s="0">
-        <v>11381.9430938406</v>
+        <v>1.13819430938406</v>
       </c>
       <c r="AL295" s="0">
         <v>3238.9247311828</v>
@@ -58112,7 +58112,7 @@
         <v>23138.1851851852</v>
       </c>
       <c r="AK296" s="0">
-        <v>11687.1092436975</v>
+        <v>1.16871092436975</v>
       </c>
       <c r="AL296" s="0">
         <v>1228.07692307692</v>
@@ -58307,7 +58307,7 @@
         <v>12697.3599877451</v>
       </c>
       <c r="AK297" s="0">
-        <v>5001.3123337766</v>
+        <v>0.50013123337766</v>
       </c>
       <c r="AL297" s="0">
         <v>4604.7619047619</v>
@@ -58502,7 +58502,7 @@
         <v>45014.7826086957</v>
       </c>
       <c r="AK298" s="0">
-        <v>19857.3333333333</v>
+        <v>1.98573333333333</v>
       </c>
       <c r="AL298" s="0">
         <v>5863.63636363636</v>
@@ -58697,7 +58697,7 @@
         <v>49745.1342037671</v>
       </c>
       <c r="AK299" s="0">
-        <v>24628.0649124949</v>
+        <v>2.46280649124949</v>
       </c>
       <c r="AL299" s="0">
         <v>8589.70297029703</v>
@@ -58892,7 +58892,7 @@
         <v>35665.5616592751</v>
       </c>
       <c r="AK300" s="0">
-        <v>16161.3298674727</v>
+        <v>1.61613298674727</v>
       </c>
       <c r="AL300" s="0">
         <v>10459.7</v>
@@ -59087,7 +59087,7 @@
         <v>43634.6666666667</v>
       </c>
       <c r="AK301" s="0">
-        <v>33671.0588235294</v>
+        <v>3.36710588235294</v>
       </c>
       <c r="AL301" s="0">
         <v>11844.6153846154</v>
@@ -59282,7 +59282,7 @@
         <v>46210.0952380952</v>
       </c>
       <c r="AK302" s="0">
-        <v>24221.0285714286</v>
+        <v>2.42210285714286</v>
       </c>
       <c r="AL302" s="0">
         <v>16929.0322580645</v>
@@ -59477,7 +59477,7 @@
         <v>40627.3724407328</v>
       </c>
       <c r="AK303" s="0">
-        <v>24623.0058451186</v>
+        <v>2.46230058451186</v>
       </c>
       <c r="AL303" s="0">
         <v>1383.61538461538</v>
@@ -59672,7 +59672,7 @@
         <v>19623.8461538462</v>
       </c>
       <c r="AK304" s="0">
-        <v>10781.1722628183</v>
+        <v>1.07811722628183</v>
       </c>
       <c r="AL304" s="0">
         <v>2102.66129032258</v>
@@ -59867,7 +59867,7 @@
         <v>22545.9220779221</v>
       </c>
       <c r="AK305" s="0">
-        <v>10892.7614678899</v>
+        <v>1.08927614678899</v>
       </c>
       <c r="AL305" s="0">
         <v>4258.64646464646</v>
@@ -60062,7 +60062,7 @@
         <v>43426.5161290323</v>
       </c>
       <c r="AK306" s="0">
-        <v>17417.6527777778</v>
+        <v>1.74176527777778</v>
       </c>
       <c r="AL306" s="0">
         <v>1377.35294117647</v>
@@ -60257,7 +60257,7 @@
         <v>24386.4864864865</v>
       </c>
       <c r="AK307" s="0">
-        <v>15950.625</v>
+        <v>1.5950625</v>
       </c>
       <c r="AL307" s="0">
         <v>1366.77966101695</v>
@@ -60452,7 +60452,7 @@
         <v>29529.5208333333</v>
       </c>
       <c r="AK308" s="0">
-        <v>12532.3010752688</v>
+        <v>1.25323010752688</v>
       </c>
       <c r="AL308" s="0">
         <v>11583.4210526316</v>
@@ -60647,7 +60647,7 @@
         <v>22698.2330097087</v>
       </c>
       <c r="AK309" s="0">
-        <v>11625.0243902439</v>
+        <v>1.16250243902439</v>
       </c>
       <c r="AL309" s="0">
         <v>5826.14864864865</v>
@@ -60842,7 +60842,7 @@
         <v>64629.0909090909</v>
       </c>
       <c r="AK310" s="0">
-        <v>34289.5384615385</v>
+        <v>3.42895384615385</v>
       </c>
       <c r="AL310" s="0">
         <v>3750</v>
@@ -61037,7 +61037,7 @@
         <v>8144.93077674279</v>
       </c>
       <c r="AK311" s="0">
-        <v>3626.8413787491</v>
+        <v>0.36268413787491</v>
       </c>
       <c r="AL311" s="0">
         <v>3617.27777777778</v>
@@ -61232,7 +61232,7 @@
         <v>24180.1403508772</v>
       </c>
       <c r="AK312" s="0">
-        <v>14300.8086956522</v>
+        <v>1.43008086956522</v>
       </c>
       <c r="AL312" s="0">
         <v>3058.82352941176</v>
@@ -61427,7 +61427,7 @@
         <v>14180.2028985507</v>
       </c>
       <c r="AK313" s="0">
-        <v>5438.71171171171</v>
+        <v>0.543871171171171</v>
       </c>
       <c r="AL313" s="0">
         <v>2082.1359223301</v>
@@ -61622,7 +61622,7 @@
         <v>41103.7</v>
       </c>
       <c r="AK314" s="0">
-        <v>8459.71621621622</v>
+        <v>0.845971621621622</v>
       </c>
       <c r="AL314" s="0">
         <v>9190.78947368421</v>
@@ -61817,7 +61817,7 @@
         <v>13600.6510067114</v>
       </c>
       <c r="AK315" s="0">
-        <v>7451.15909090909</v>
+        <v>0.745115909090909</v>
       </c>
       <c r="AL315" s="0">
         <v>2175.79881656805</v>
@@ -62012,7 +62012,7 @@
         <v>21587.2765957447</v>
       </c>
       <c r="AK316" s="0">
-        <v>6993.02272727273</v>
+        <v>0.699302272727273</v>
       </c>
       <c r="AL316" s="0">
         <v>6678.08823529412</v>
@@ -62207,7 +62207,7 @@
         <v>25311.5714285714</v>
       </c>
       <c r="AK317" s="0">
-        <v>9416.21052631579</v>
+        <v>0.941621052631579</v>
       </c>
       <c r="AL317" s="0">
         <v>7115.04132231405</v>
@@ -62402,7 +62402,7 @@
         <v>17612.431168197</v>
       </c>
       <c r="AK318" s="0">
-        <v>9282.84999992434</v>
+        <v>0.928284999992434</v>
       </c>
       <c r="AL318" s="0">
         <v>3720.40952380952</v>
@@ -62597,7 +62597,7 @@
         <v>19714.484375</v>
       </c>
       <c r="AK319" s="0">
-        <v>7883.47096761068</v>
+        <v>0.788347096761068</v>
       </c>
       <c r="AL319" s="0">
         <v>5210.9</v>
@@ -62792,7 +62792,7 @@
         <v>28416.3333333333</v>
       </c>
       <c r="AK320" s="0">
-        <v>8370.19417475728</v>
+        <v>0.837019417475728</v>
       </c>
       <c r="AL320" s="0">
         <v>4626.15189873418</v>
@@ -62987,7 +62987,7 @@
         <v>35587.7014925373</v>
       </c>
       <c r="AK321" s="0">
-        <v>16433.1006711409</v>
+        <v>1.64331006711409</v>
       </c>
       <c r="AL321" s="0">
         <v>6044.87218045113</v>
@@ -63182,7 +63182,7 @@
         <v>24493.6315789474</v>
       </c>
       <c r="AK322" s="0">
-        <v>13442.1495726496</v>
+        <v>1.34421495726496</v>
       </c>
       <c r="AL322" s="0">
         <v>2057.36994219653</v>
@@ -63377,7 +63377,7 @@
         <v>14238.7666666667</v>
       </c>
       <c r="AK323" s="0">
-        <v>5831.95833333333</v>
+        <v>0.583195833333333</v>
       </c>
       <c r="AL323" s="0">
         <v>1510.18604651163</v>
@@ -63572,7 +63572,7 @@
         <v>31975.581108941</v>
       </c>
       <c r="AK324" s="0">
-        <v>16111.8165377103</v>
+        <v>1.61118165377103</v>
       </c>
       <c r="AL324" s="0">
         <v>8741.86597938144</v>
@@ -63767,7 +63767,7 @@
         <v>40968.7733333333</v>
       </c>
       <c r="AK325" s="0">
-        <v>18055.950617284</v>
+        <v>1.8055950617284</v>
       </c>
       <c r="AL325" s="0">
         <v>4361.79104477612</v>
@@ -63962,7 +63962,7 @@
         <v>11473.0856542223</v>
       </c>
       <c r="AK326" s="0">
-        <v>4804.92388412327</v>
+        <v>0.480492388412327</v>
       </c>
       <c r="AL326" s="0">
         <v>2295.79591836735</v>
@@ -64157,7 +64157,7 @@
         <v>46883.4666666667</v>
       </c>
       <c r="AK327" s="0">
-        <v>19425.6923076923</v>
+        <v>1.94256923076923</v>
       </c>
       <c r="AL327" s="0">
         <v>9007.62962962963</v>
@@ -64352,7 +64352,7 @@
         <v>4920.55714285714</v>
       </c>
       <c r="AK328" s="0">
-        <v>3247.895651997</v>
+        <v>0.3247895651997</v>
       </c>
       <c r="AL328" s="0">
         <v>401.018181818182</v>
@@ -64547,7 +64547,7 @@
         <v>97286.6956521739</v>
       </c>
       <c r="AK329" s="0">
-        <v>53672.8245614035</v>
+        <v>5.36728245614035</v>
       </c>
       <c r="AL329" s="0">
         <v>12417.4757281553</v>
@@ -64742,7 +64742,7 @@
         <v>25679.4642857143</v>
       </c>
       <c r="AK330" s="0">
-        <v>14056.1607142857</v>
+        <v>1.40561607142857</v>
       </c>
       <c r="AL330" s="0">
         <v>2406.73469387755</v>
@@ -64937,7 +64937,7 @@
         <v>10879.8961038961</v>
       </c>
       <c r="AK331" s="0">
-        <v>4862.76716408801</v>
+        <v>0.486276716408801</v>
       </c>
       <c r="AL331" s="0">
         <v>2655.68965517241</v>
@@ -65132,7 +65132,7 @@
         <v>10038.7878787879</v>
       </c>
       <c r="AK332" s="0">
-        <v>4756.14761904762</v>
+        <v>0.475614761904762</v>
       </c>
       <c r="AL332" s="0">
         <v>1295.21276595745</v>
@@ -65327,7 +65327,7 @@
         <v>124359.682539683</v>
       </c>
       <c r="AK333" s="0">
-        <v>15276.1367521368</v>
+        <v>1.52761367521368</v>
       </c>
       <c r="AL333" s="0">
         <v>67101.1224489796</v>
@@ -65522,7 +65522,7 @@
         <v>21786.4516129032</v>
       </c>
       <c r="AK334" s="0">
-        <v>7605.98214285714</v>
+        <v>0.760598214285714</v>
       </c>
       <c r="AL334" s="0">
         <v>5084.89795918367</v>
@@ -65717,7 +65717,7 @@
         <v>16016.8965517241</v>
       </c>
       <c r="AK335" s="0">
-        <v>8752.83561643836</v>
+        <v>0.875283561643836</v>
       </c>
       <c r="AL335" s="0">
         <v>3446.15873015873</v>
@@ -65912,7 +65912,7 @@
         <v>8022.61363636364</v>
       </c>
       <c r="AK336" s="0">
-        <v>3930.18390804598</v>
+        <v>0.393018390804598</v>
       </c>
       <c r="AL336" s="0">
         <v>4361.51315789474</v>
@@ -66107,7 +66107,7 @@
         <v>73682.7407407407</v>
       </c>
       <c r="AK337" s="0">
-        <v>31639.2244897959</v>
+        <v>3.16392244897959</v>
       </c>
       <c r="AL337" s="0">
         <v>5800</v>
@@ -66302,7 +66302,7 @@
         <v>16081.3043478261</v>
       </c>
       <c r="AK338" s="0">
-        <v>11338.2524594166</v>
+        <v>1.13382524594166</v>
       </c>
       <c r="AL338" s="0">
         <v>3593.86666666667</v>
@@ -66497,7 +66497,7 @@
         <v>90759.5</v>
       </c>
       <c r="AK339" s="0">
-        <v>43116.9756097561</v>
+        <v>4.31169756097561</v>
       </c>
       <c r="AL339" s="0">
         <v>9690.32258064516</v>
@@ -66692,7 +66692,7 @@
         <v>16719.6333333333</v>
       </c>
       <c r="AK340" s="0">
-        <v>8164.40833333333</v>
+        <v>0.816440833333333</v>
       </c>
       <c r="AL340" s="0">
         <v>3549.12844036697</v>
@@ -66887,7 +66887,7 @@
         <v>12742.437037037</v>
       </c>
       <c r="AK341" s="0">
-        <v>7123.73658536585</v>
+        <v>0.712373658536585</v>
       </c>
       <c r="AL341" s="0">
         <v>2777.02105263158</v>
@@ -67082,7 +67082,7 @@
         <v>76650</v>
       </c>
       <c r="AK342" s="0">
-        <v>30754.6666666667</v>
+        <v>3.07546666666667</v>
       </c>
       <c r="AL342" s="0">
         <v>0</v>
@@ -67277,7 +67277,7 @@
         <v>21519.4260869565</v>
       </c>
       <c r="AK343" s="0">
-        <v>12962.1450777202</v>
+        <v>1.29621450777202</v>
       </c>
       <c r="AL343" s="0">
         <v>1717.06896551724</v>
@@ -67472,7 +67472,7 @@
         <v>20991.0843373494</v>
       </c>
       <c r="AK344" s="0">
-        <v>9230.84188034188</v>
+        <v>0.923084188034188</v>
       </c>
       <c r="AL344" s="0">
         <v>5228.71748878924</v>
@@ -67667,7 +67667,7 @@
         <v>94127.32796875</v>
       </c>
       <c r="AK345" s="0">
-        <v>35683.6216980556</v>
+        <v>3.56836216980556</v>
       </c>
       <c r="AL345" s="0">
         <v>22457.92</v>
@@ -67862,7 +67862,7 @@
         <v>12052.4937496185</v>
       </c>
       <c r="AK346" s="0">
-        <v>7309.02745026233</v>
+        <v>0.730902745026233</v>
       </c>
       <c r="AL346" s="0">
         <v>1084.40860215054</v>
@@ -68057,7 +68057,7 @@
         <v>6165.07407407407</v>
       </c>
       <c r="AK347" s="0">
-        <v>3297.43157894737</v>
+        <v>0.329743157894737</v>
       </c>
       <c r="AL347" s="0">
         <v>1660.40476190476</v>
@@ -68252,7 +68252,7 @@
         <v>39221.993006993</v>
       </c>
       <c r="AK348" s="0">
-        <v>22070.9777777778</v>
+        <v>2.20709777777778</v>
       </c>
       <c r="AL348" s="0">
         <v>5877.10714285714</v>
@@ -68447,7 +68447,7 @@
         <v>51436.8951646959</v>
       </c>
       <c r="AK349" s="0">
-        <v>24091.7281110003</v>
+        <v>2.40917281110003</v>
       </c>
       <c r="AL349" s="0">
         <v>4181.62962962963</v>
@@ -68642,7 +68642,7 @@
         <v>41260.4761904762</v>
       </c>
       <c r="AK350" s="0">
-        <v>18422.8910891089</v>
+        <v>1.84228910891089</v>
       </c>
       <c r="AL350" s="0">
         <v>2756.97802197802</v>
@@ -68837,7 +68837,7 @@
         <v>38964.9350649351</v>
       </c>
       <c r="AK351" s="0">
-        <v>20606.6938712828</v>
+        <v>2.06066938712828</v>
       </c>
       <c r="AL351" s="0">
         <v>4384.77876106195</v>
@@ -69032,7 +69032,7 @@
         <v>43737.5061848958</v>
       </c>
       <c r="AK352" s="0">
-        <v>16052.6429632482</v>
+        <v>1.60526429632482</v>
       </c>
       <c r="AL352" s="0">
         <v>10137.7099236641</v>
@@ -69227,7 +69227,7 @@
         <v>18059.9104477612</v>
       </c>
       <c r="AK353" s="0">
-        <v>7828.9173553719</v>
+        <v>0.78289173553719</v>
       </c>
       <c r="AL353" s="0">
         <v>2670.38095238095</v>
@@ -69422,7 +69422,7 @@
         <v>24741.4</v>
       </c>
       <c r="AK354" s="0">
-        <v>9329.54545454545</v>
+        <v>0.932954545454545</v>
       </c>
       <c r="AL354" s="0">
         <v>21422.8070175439</v>
@@ -69617,7 +69617,7 @@
         <v>18298.9288845486</v>
       </c>
       <c r="AK355" s="0">
-        <v>16753.7345915021</v>
+        <v>1.67537345915021</v>
       </c>
       <c r="AL355" s="0">
         <v>2142.68115942029</v>
@@ -69812,7 +69812,7 @@
         <v>15062.2392861503</v>
       </c>
       <c r="AK356" s="0">
-        <v>8225.36423081618</v>
+        <v>0.822536423081618</v>
       </c>
       <c r="AL356" s="0">
         <v>592.715789473684</v>
@@ -70007,7 +70007,7 @@
         <v>6466.19266055046</v>
       </c>
       <c r="AK357" s="0">
-        <v>2564.21081081081</v>
+        <v>0.256421081081081</v>
       </c>
       <c r="AL357" s="0">
         <v>3574.09638554217</v>
@@ -70202,7 +70202,7 @@
         <v>35601.7978830645</v>
       </c>
       <c r="AK358" s="0">
-        <v>18522.8276893029</v>
+        <v>1.85228276893029</v>
       </c>
       <c r="AL358" s="0">
         <v>5439.49206349206</v>
@@ -70397,7 +70397,7 @@
         <v>41151.8787878788</v>
       </c>
       <c r="AK359" s="0">
-        <v>19488.8648648649</v>
+        <v>1.94888648648649</v>
       </c>
       <c r="AL359" s="0">
         <v>2806.25</v>
@@ -70592,7 +70592,7 @@
         <v>38132.7543945313</v>
       </c>
       <c r="AK360" s="0">
-        <v>25728.1947423031</v>
+        <v>2.57281947423031</v>
       </c>
       <c r="AL360" s="0">
         <v>8789.36363636364</v>
@@ -70787,7 +70787,7 @@
         <v>45113.2753623188</v>
       </c>
       <c r="AK361" s="0">
-        <v>24027.487804878</v>
+        <v>2.4027487804878</v>
       </c>
       <c r="AL361" s="0">
         <v>4412.64957264957</v>
@@ -70982,7 +70982,7 @@
         <v>12283.4696969697</v>
       </c>
       <c r="AK362" s="0">
-        <v>5737.80508474576</v>
+        <v>0.573780508474576</v>
       </c>
       <c r="AL362" s="0">
         <v>726.126126126126</v>
@@ -71177,7 +71177,7 @@
         <v>19957.7159441519</v>
       </c>
       <c r="AK363" s="0">
-        <v>9399.37969529205</v>
+        <v>0.939937969529205</v>
       </c>
       <c r="AL363" s="0">
         <v>3913.40909090909</v>
@@ -71372,7 +71372,7 @@
         <v>8255.41463414634</v>
       </c>
       <c r="AK364" s="0">
-        <v>5365.13043478261</v>
+        <v>0.536513043478261</v>
       </c>
       <c r="AL364" s="0">
         <v>408.148648648649</v>
@@ -71567,7 +71567,7 @@
         <v>16035.4126984127</v>
       </c>
       <c r="AK365" s="0">
-        <v>8310.97058823529</v>
+        <v>0.831097058823529</v>
       </c>
       <c r="AL365" s="0">
         <v>6013.39784946237</v>
@@ -71762,7 +71762,7 @@
         <v>4971.36363636364</v>
       </c>
       <c r="AK366" s="0">
-        <v>6480</v>
+        <v>0.648</v>
       </c>
       <c r="AL366" s="0">
         <v>-2751.48936170213</v>
@@ -71957,7 +71957,7 @@
         <v>24822.6923076923</v>
       </c>
       <c r="AK367" s="0">
-        <v>11757.4196078431</v>
+        <v>1.17574196078431</v>
       </c>
       <c r="AL367" s="0">
         <v>3472.80213903743</v>
@@ -72152,7 +72152,7 @@
         <v>86828.6666666667</v>
       </c>
       <c r="AK368" s="0">
-        <v>51031.012987013</v>
+        <v>5.1031012987013</v>
       </c>
       <c r="AL368" s="0">
         <v>10300</v>
@@ -72347,7 +72347,7 @@
         <v>30394.5479452055</v>
       </c>
       <c r="AK369" s="0">
-        <v>12673.1696428571</v>
+        <v>1.26731696428571</v>
       </c>
       <c r="AL369" s="0">
         <v>4909.49056603774</v>
@@ -72542,7 +72542,7 @@
         <v>17791.3913043478</v>
       </c>
       <c r="AK370" s="0">
-        <v>7886.96046518725</v>
+        <v>0.788696046518725</v>
       </c>
       <c r="AL370" s="0">
         <v>2116.1875</v>
@@ -72737,7 +72737,7 @@
         <v>18417.7419354839</v>
       </c>
       <c r="AK371" s="0">
-        <v>98847.4576271186</v>
+        <v>9.88474576271186</v>
       </c>
       <c r="AL371" s="0">
         <v>-9670.59405940594</v>
@@ -72932,7 +72932,7 @@
         <v>22725.039612409</v>
       </c>
       <c r="AK372" s="0">
-        <v>9880.85544812433</v>
+        <v>0.988085544812433</v>
       </c>
       <c r="AL372" s="0">
         <v>3454.14814814815</v>
@@ -73127,7 +73127,7 @@
         <v>9732.2</v>
       </c>
       <c r="AK373" s="0">
-        <v>4990.12807881773</v>
+        <v>0.499012807881773</v>
       </c>
       <c r="AL373" s="0">
         <v>2111.42045454545</v>
@@ -73322,7 +73322,7 @@
         <v>34276.6842105263</v>
       </c>
       <c r="AK374" s="0">
-        <v>23841.4734042553</v>
+        <v>2.38414734042553</v>
       </c>
       <c r="AL374" s="0">
         <v>3179.60248447205</v>
@@ -73517,7 +73517,7 @@
         <v>23377.1885245902</v>
       </c>
       <c r="AK375" s="0">
-        <v>10395.546728972</v>
+        <v>1.0395546728972</v>
       </c>
       <c r="AL375" s="0">
         <v>5471.60621761658</v>
@@ -73712,7 +73712,7 @@
         <v>15287.9411764706</v>
       </c>
       <c r="AK376" s="0">
-        <v>7591.34126984127</v>
+        <v>0.759134126984127</v>
       </c>
       <c r="AL376" s="0">
         <v>4284.34782608696</v>
@@ -73907,7 +73907,7 @@
         <v>11220.5784585806</v>
       </c>
       <c r="AK377" s="0">
-        <v>5966.98026944513</v>
+        <v>0.596698026944513</v>
       </c>
       <c r="AL377" s="0">
         <v>2164.54545454545</v>
@@ -74102,7 +74102,7 @@
         <v>8440.38095238095</v>
       </c>
       <c r="AK378" s="0">
-        <v>4596.28666687012</v>
+        <v>0.459628666687012</v>
       </c>
       <c r="AL378" s="0">
         <v>2651.35135135135</v>
@@ -74297,7 +74297,7 @@
         <v>21004.5974025974</v>
       </c>
       <c r="AK379" s="0">
-        <v>10613.4263565891</v>
+        <v>1.06134263565891</v>
       </c>
       <c r="AL379" s="0">
         <v>8744.58333333333</v>

--- a/data/CHARLS_CITY.xlsx
+++ b/data/CHARLS_CITY.xlsx
@@ -788,7 +788,7 @@
         <v>3632.29508196721</v>
       </c>
       <c r="AM2" s="0">
-        <v>2337.35849056604</v>
+        <v>0.233735849056604</v>
       </c>
       <c r="AN2" s="0">
         <v>468.867924528302</v>
@@ -983,7 +983,7 @@
         <v>9528.52941176471</v>
       </c>
       <c r="AM3" s="0">
-        <v>2632.67326732673</v>
+        <v>0.263267326732673</v>
       </c>
       <c r="AN3" s="0">
         <v>346.534653465347</v>
@@ -1178,7 +1178,7 @@
         <v>5797.12</v>
       </c>
       <c r="AM4" s="0">
-        <v>4150.5504587156</v>
+        <v>0.41505504587156</v>
       </c>
       <c r="AN4" s="0">
         <v>917.43119266055</v>
@@ -1373,7 +1373,7 @@
         <v>1897.61904761905</v>
       </c>
       <c r="AM5" s="0">
-        <v>1563.65517241379</v>
+        <v>0.156365517241379</v>
       </c>
       <c r="AN5" s="0">
         <v>22.0689655172414</v>
@@ -1568,7 +1568,7 @@
         <v>5159.24347826087</v>
       </c>
       <c r="AM6" s="0">
-        <v>1908.56774193548</v>
+        <v>0.190856774193548</v>
       </c>
       <c r="AN6" s="0">
         <v>1132.25806451613</v>
@@ -1763,7 +1763,7 @@
         <v>4808.72093023256</v>
       </c>
       <c r="AM7" s="0">
-        <v>1609.75539568345</v>
+        <v>0.160975539568345</v>
       </c>
       <c r="AN7" s="0">
         <v>194.244604316547</v>
@@ -1958,7 +1958,7 @@
         <v>225.478260869565</v>
       </c>
       <c r="AM8" s="0">
-        <v>8921.34715025907</v>
+        <v>0.892134715025907</v>
       </c>
       <c r="AN8" s="0">
         <v>51.8134715025907</v>
@@ -2153,7 +2153,7 @@
         <v>1900</v>
       </c>
       <c r="AM9" s="0">
-        <v>10791.3978494624</v>
+        <v>1.07913978494624</v>
       </c>
       <c r="AN9" s="0">
         <v>2150.5376344086</v>
@@ -2348,7 +2348,7 @@
         <v>1762.5</v>
       </c>
       <c r="AM10" s="0">
-        <v>6900</v>
+        <v>0.69</v>
       </c>
       <c r="AN10" s="0">
         <v>445.544554455446</v>
@@ -2543,7 +2543,7 @@
         <v>3368.9247311828</v>
       </c>
       <c r="AM11" s="0">
-        <v>2117.24137931034</v>
+        <v>0.211724137931034</v>
       </c>
       <c r="AN11" s="0">
         <v>234.48275862069</v>
@@ -2738,7 +2738,7 @@
         <v>3852.38095238095</v>
       </c>
       <c r="AM12" s="0">
-        <v>7137.88732394366</v>
+        <v>0.713788732394366</v>
       </c>
       <c r="AN12" s="0">
         <v>450.704225352113</v>
@@ -2933,7 +2933,7 @@
         <v>9914.17721518987</v>
       </c>
       <c r="AM13" s="0">
-        <v>5625.80952380952</v>
+        <v>0.562580952380952</v>
       </c>
       <c r="AN13" s="0">
         <v>1047.61904761905</v>
@@ -3128,7 +3128,7 @@
         <v>25728.8</v>
       </c>
       <c r="AM14" s="0">
-        <v>6452.38095238095</v>
+        <v>0.645238095238095</v>
       </c>
       <c r="AN14" s="0">
         <v>1047.61904761905</v>
@@ -3323,7 +3323,7 @@
         <v>5917.02127659574</v>
       </c>
       <c r="AM15" s="0">
-        <v>2137</v>
+        <v>0.2137</v>
       </c>
       <c r="AN15" s="0">
         <v>100</v>
@@ -3518,7 +3518,7 @@
         <v>5163.26530612245</v>
       </c>
       <c r="AM16" s="0">
-        <v>7788.17204301075</v>
+        <v>0.778817204301075</v>
       </c>
       <c r="AN16" s="0">
         <v>2376.34408602151</v>
@@ -3713,7 +3713,7 @@
         <v>1904.61538461538</v>
       </c>
       <c r="AM17" s="0">
-        <v>1310.9649122807</v>
+        <v>0.13109649122807</v>
       </c>
       <c r="AN17" s="0">
         <v>175.438596491228</v>
@@ -3908,7 +3908,7 @@
         <v>3019.05737704918</v>
       </c>
       <c r="AM18" s="0">
-        <v>2991.72995729084</v>
+        <v>0.299172995729084</v>
       </c>
       <c r="AN18" s="0">
         <v>430.379746835443</v>
@@ -4103,7 +4103,7 @@
         <v>2920.96774193548</v>
       </c>
       <c r="AM19" s="0">
-        <v>3722.46376811594</v>
+        <v>0.372246376811594</v>
       </c>
       <c r="AN19" s="0">
         <v>572.463768115942</v>
@@ -4298,7 +4298,7 @@
         <v>4459.13978494624</v>
       </c>
       <c r="AM20" s="0">
-        <v>5224.17322834646</v>
+        <v>0.522417322834646</v>
       </c>
       <c r="AN20" s="0">
         <v>314.96062992126</v>
@@ -4493,7 +4493,7 @@
         <v>3538.94859813084</v>
       </c>
       <c r="AM21" s="0">
-        <v>1090.69117647059</v>
+        <v>0.109069117647059</v>
       </c>
       <c r="AN21" s="0">
         <v>137.5</v>
@@ -4688,7 +4688,7 @@
         <v>4830.94339622641</v>
       </c>
       <c r="AM22" s="0">
-        <v>3561.64383561644</v>
+        <v>0.356164383561644</v>
       </c>
       <c r="AN22" s="0">
         <v>1547.94520547945</v>
@@ -4883,7 +4883,7 @@
         <v>8615.74468085106</v>
       </c>
       <c r="AM23" s="0">
-        <v>3756.59259259259</v>
+        <v>0.375659259259259</v>
       </c>
       <c r="AN23" s="0">
         <v>593.333333333333</v>
@@ -5078,7 +5078,7 @@
         <v>8034.8051948052</v>
       </c>
       <c r="AM24" s="0">
-        <v>1050</v>
+        <v>0.105</v>
       </c>
       <c r="AN24" s="0">
         <v>250</v>
@@ -5273,7 +5273,7 @@
         <v>2753.64705882353</v>
       </c>
       <c r="AM25" s="0">
-        <v>1689.48275862069</v>
+        <v>0.168948275862069</v>
       </c>
       <c r="AN25" s="0">
         <v>25</v>
@@ -5468,7 +5468,7 @@
         <v>18582.8571428571</v>
       </c>
       <c r="AM26" s="0">
-        <v>9314.13333333333</v>
+        <v>0.931413333333333</v>
       </c>
       <c r="AN26" s="0">
         <v>1663.80952380952</v>
@@ -5663,7 +5663,7 @@
         <v>399.915492957746</v>
       </c>
       <c r="AM27" s="0">
-        <v>6073.69565217391</v>
+        <v>0.607369565217391</v>
       </c>
       <c r="AN27" s="0">
         <v>210.434782608696</v>
@@ -5858,7 +5858,7 @@
         <v>11581.5825242718</v>
       </c>
       <c r="AM28" s="0">
-        <v>5291.52671755725</v>
+        <v>0.529152671755725</v>
       </c>
       <c r="AN28" s="0">
         <v>523.664122137405</v>
@@ -6053,7 +6053,7 @@
         <v>4687.7358490566</v>
       </c>
       <c r="AM29" s="0">
-        <v>669.354838709677</v>
+        <v>6.69354838709677E-02</v>
       </c>
       <c r="AN29" s="0">
         <v>24.1935483870968</v>
@@ -6248,7 +6248,7 @@
         <v>4190</v>
       </c>
       <c r="AM30" s="0">
-        <v>2192.36111111111</v>
+        <v>0.219236111111111</v>
       </c>
       <c r="AN30" s="0">
         <v>1020.83333333333</v>
@@ -6443,7 +6443,7 @@
         <v>2010</v>
       </c>
       <c r="AM31" s="0">
-        <v>2319.12903225806</v>
+        <v>0.231912903225806</v>
       </c>
       <c r="AN31" s="0">
         <v>241.935483870968</v>
@@ -6638,7 +6638,7 @@
         <v>1398.59649122807</v>
       </c>
       <c r="AM32" s="0">
-        <v>5041.88481675393</v>
+        <v>0.504188481675393</v>
       </c>
       <c r="AN32" s="0">
         <v>273.350785340314</v>
@@ -6833,7 +6833,7 @@
         <v>4004.34782608696</v>
       </c>
       <c r="AM33" s="0">
-        <v>7723.51685393258</v>
+        <v>0.772351685393258</v>
       </c>
       <c r="AN33" s="0">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>2500</v>
       </c>
       <c r="AM34" s="0">
-        <v>11541.1764705882</v>
+        <v>1.15411764705882</v>
       </c>
       <c r="AN34" s="0">
         <v>1470.58823529412</v>
@@ -7223,7 +7223,7 @@
         <v>3125</v>
       </c>
       <c r="AM35" s="0">
-        <v>3802.35294117647</v>
+        <v>0.380235294117647</v>
       </c>
       <c r="AN35" s="0">
         <v>585.294117647059</v>
@@ -7418,7 +7418,7 @@
         <v>6239.39316239316</v>
       </c>
       <c r="AM36" s="0">
-        <v>319.411764705882</v>
+        <v>3.19411764705882E-02</v>
       </c>
       <c r="AN36" s="0">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>2855.39682539683</v>
       </c>
       <c r="AM37" s="0">
-        <v>3503.47280616091</v>
+        <v>0.350347280616091</v>
       </c>
       <c r="AN37" s="0">
         <v>152.631578947368</v>
@@ -7808,7 +7808,7 @@
         <v>6564.10256410256</v>
       </c>
       <c r="AM38" s="0">
-        <v>12987.4358974359</v>
+        <v>1.29874358974359</v>
       </c>
       <c r="AN38" s="0">
         <v>0</v>
@@ -8003,7 +8003,7 @@
         <v>3234.63414634146</v>
       </c>
       <c r="AM39" s="0">
-        <v>2395.28125</v>
+        <v>0.239528125</v>
       </c>
       <c r="AN39" s="0">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>13594.4444444444</v>
       </c>
       <c r="AM40" s="0">
-        <v>10928.4210526316</v>
+        <v>1.09284210526316</v>
       </c>
       <c r="AN40" s="0">
         <v>1105.26315789474</v>
@@ -8393,7 +8393,7 @@
         <v>9123.6015037594</v>
       </c>
       <c r="AM41" s="0">
-        <v>2405.8495821727</v>
+        <v>0.24058495821727</v>
       </c>
       <c r="AN41" s="0">
         <v>270.75208913649</v>
@@ -8588,7 +8588,7 @@
         <v>6995.12195121951</v>
       </c>
       <c r="AM42" s="0">
-        <v>15606.2278481013</v>
+        <v>1.56062278481013</v>
       </c>
       <c r="AN42" s="0">
         <v>3037.9746835443</v>
@@ -8783,7 +8783,7 @@
         <v>6956.34146341463</v>
       </c>
       <c r="AM43" s="0">
-        <v>4102.05607476635</v>
+        <v>0.410205607476635</v>
       </c>
       <c r="AN43" s="0">
         <v>3831.77570093458</v>
@@ -8978,7 +8978,7 @@
         <v>4267.96116504854</v>
       </c>
       <c r="AM44" s="0">
-        <v>6783.98692810457</v>
+        <v>0.678398692810458</v>
       </c>
       <c r="AN44" s="0">
         <v>369.934640522876</v>
@@ -9173,7 +9173,7 @@
         <v>10403.1746031746</v>
       </c>
       <c r="AM45" s="0">
-        <v>529.738558900123</v>
+        <v>5.29738558900123E-02</v>
       </c>
       <c r="AN45" s="0">
         <v>743.137254901961</v>
@@ -9368,7 +9368,7 @@
         <v>402.941176470588</v>
       </c>
       <c r="AM46" s="0">
-        <v>4592.5641025641</v>
+        <v>0.45925641025641</v>
       </c>
       <c r="AN46" s="0">
         <v>128.205128205128</v>
@@ -9563,7 +9563,7 @@
         <v>2363.07692307692</v>
       </c>
       <c r="AM47" s="0">
-        <v>6949.25</v>
+        <v>0.694925</v>
       </c>
       <c r="AN47" s="0">
         <v>1109.72222222222</v>
@@ -9758,7 +9758,7 @@
         <v>8337.0101010101</v>
       </c>
       <c r="AM48" s="0">
-        <v>7835.87225172925</v>
+        <v>0.783587225172925</v>
       </c>
       <c r="AN48" s="0">
         <v>1515.01976284585</v>
@@ -9953,7 +9953,7 @@
         <v>31200</v>
       </c>
       <c r="AM49" s="0">
-        <v>6790.90909090909</v>
+        <v>0.679090909090909</v>
       </c>
       <c r="AN49" s="0">
         <v>681.818181818182</v>
@@ -10148,7 +10148,7 @@
         <v>17705.2631578947</v>
       </c>
       <c r="AM50" s="0">
-        <v>7809.81132075472</v>
+        <v>0.780981132075472</v>
       </c>
       <c r="AN50" s="0">
         <v>660.377358490566</v>
@@ -10343,7 +10343,7 @@
         <v>-1406.66666666667</v>
       </c>
       <c r="AM51" s="0">
-        <v>12924.8888888889</v>
+        <v>1.29248888888889</v>
       </c>
       <c r="AN51" s="0">
         <v>1009.44444444444</v>
@@ -10538,7 +10538,7 @@
         <v>3663.39285714286</v>
       </c>
       <c r="AM52" s="0">
-        <v>2631.98630136986</v>
+        <v>0.263198630136986</v>
       </c>
       <c r="AN52" s="0">
         <v>68.4931506849315</v>
@@ -10733,7 +10733,7 @@
         <v>3884.74747474747</v>
       </c>
       <c r="AM53" s="0">
-        <v>5926.31205673759</v>
+        <v>0.592631205673759</v>
       </c>
       <c r="AN53" s="0">
         <v>99.290780141844</v>
@@ -10928,7 +10928,7 @@
         <v>9639.73684210526</v>
       </c>
       <c r="AM54" s="0">
-        <v>4011.25</v>
+        <v>0.401125</v>
       </c>
       <c r="AN54" s="0">
         <v>470.833333333333</v>
@@ -11123,7 +11123,7 @@
         <v>4777.55102040816</v>
       </c>
       <c r="AM55" s="0">
-        <v>3752.98850574713</v>
+        <v>0.375298850574713</v>
       </c>
       <c r="AN55" s="0">
         <v>850.574712643678</v>
@@ -11318,7 +11318,7 @@
         <v>16883.6111111111</v>
       </c>
       <c r="AM56" s="0">
-        <v>1936.07476635514</v>
+        <v>0.193607476635514</v>
       </c>
       <c r="AN56" s="0">
         <v>1758.8785046729</v>
@@ -11513,7 +11513,7 @@
         <v>4786.9696969697</v>
       </c>
       <c r="AM57" s="0">
-        <v>4256.09004739337</v>
+        <v>0.425609004739337</v>
       </c>
       <c r="AN57" s="0">
         <v>176.303317535545</v>
@@ -11708,7 +11708,7 @@
         <v>0</v>
       </c>
       <c r="AM58" s="0">
-        <v>7625.65217391304</v>
+        <v>0.762565217391304</v>
       </c>
       <c r="AN58" s="0">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>3566.27450980392</v>
       </c>
       <c r="AM59" s="0">
-        <v>670.576923076923</v>
+        <v>6.70576923076923E-02</v>
       </c>
       <c r="AN59" s="0">
         <v>12.5</v>
@@ -12098,7 +12098,7 @@
         <v>8845.98734177215</v>
       </c>
       <c r="AM60" s="0">
-        <v>2424.48</v>
+        <v>0.242448</v>
       </c>
       <c r="AN60" s="0">
         <v>3705.6</v>
@@ -12293,7 +12293,7 @@
         <v>2152</v>
       </c>
       <c r="AM61" s="0">
-        <v>3730.70866141732</v>
+        <v>0.373070866141732</v>
       </c>
       <c r="AN61" s="0">
         <v>2342.51968503937</v>
@@ -12488,7 +12488,7 @@
         <v>8461.98412698413</v>
       </c>
       <c r="AM62" s="0">
-        <v>2938.27160493827</v>
+        <v>0.293827160493827</v>
       </c>
       <c r="AN62" s="0">
         <v>1400</v>
@@ -12683,7 +12683,7 @@
         <v>1720.91503267974</v>
       </c>
       <c r="AM63" s="0">
-        <v>2809.94623655914</v>
+        <v>0.280994623655914</v>
       </c>
       <c r="AN63" s="0">
         <v>570.967741935484</v>
@@ -12878,7 +12878,7 @@
         <v>4645.85714285714</v>
       </c>
       <c r="AM64" s="0">
-        <v>777.227722772277</v>
+        <v>7.77227722772277E-02</v>
       </c>
       <c r="AN64" s="0">
         <v>11.8811881188119</v>
@@ -13073,7 +13073,7 @@
         <v>4668.28828828829</v>
       </c>
       <c r="AM65" s="0">
-        <v>3381.14285714286</v>
+        <v>0.338114285714286</v>
       </c>
       <c r="AN65" s="0">
         <v>614.285714285714</v>
@@ -13268,7 +13268,7 @@
         <v>3166.88372093023</v>
       </c>
       <c r="AM66" s="0">
-        <v>2973.4598540146</v>
+        <v>0.29734598540146</v>
       </c>
       <c r="AN66" s="0">
         <v>4109.12408759124</v>
@@ -13463,7 +13463,7 @@
         <v>5851.64835164835</v>
       </c>
       <c r="AM67" s="0">
-        <v>1490.35087719298</v>
+        <v>0.149035087719298</v>
       </c>
       <c r="AN67" s="0">
         <v>526.315789473684</v>
@@ -13658,7 +13658,7 @@
         <v>6764.36781609195</v>
       </c>
       <c r="AM68" s="0">
-        <v>4934.32835820896</v>
+        <v>0.493432835820896</v>
       </c>
       <c r="AN68" s="0">
         <v>794.029850746269</v>
@@ -13853,7 +13853,7 @@
         <v>2750.30769230769</v>
       </c>
       <c r="AM69" s="0">
-        <v>18144.6601941748</v>
+        <v>1.81446601941748</v>
       </c>
       <c r="AN69" s="0">
         <v>1283.98058252427</v>
@@ -14048,7 +14048,7 @@
         <v>5155.78010471204</v>
       </c>
       <c r="AM70" s="0">
-        <v>4549.76744186046</v>
+        <v>0.454976744186046</v>
       </c>
       <c r="AN70" s="0">
         <v>323.58803986711</v>
@@ -14243,7 +14243,7 @@
         <v>5931.49473684211</v>
       </c>
       <c r="AM71" s="0">
-        <v>1610.16129032258</v>
+        <v>0.161016129032258</v>
       </c>
       <c r="AN71" s="0">
         <v>332.258064516129</v>
@@ -14438,7 +14438,7 @@
         <v>6562.55</v>
       </c>
       <c r="AM72" s="0">
-        <v>1878.8785046729</v>
+        <v>0.18788785046729</v>
       </c>
       <c r="AN72" s="0">
         <v>822.429906542056</v>
@@ -14633,7 +14633,7 @@
         <v>3656.06557377049</v>
       </c>
       <c r="AM73" s="0">
-        <v>8184.05429864253</v>
+        <v>0.818405429864253</v>
       </c>
       <c r="AN73" s="0">
         <v>339.366515837104</v>
@@ -14828,7 +14828,7 @@
         <v>2708.03038674033</v>
       </c>
       <c r="AM74" s="0">
-        <v>1260.60483870968</v>
+        <v>0.126060483870968</v>
       </c>
       <c r="AN74" s="0">
         <v>250</v>
@@ -15023,7 +15023,7 @@
         <v>13581.4814814815</v>
       </c>
       <c r="AM75" s="0">
-        <v>2396.59090909091</v>
+        <v>0.239659090909091</v>
       </c>
       <c r="AN75" s="0">
         <v>579.613636363636</v>
@@ -15218,7 +15218,7 @@
         <v>1263.39603960396</v>
       </c>
       <c r="AM76" s="0">
-        <v>1276.96103896104</v>
+        <v>0.127696103896104</v>
       </c>
       <c r="AN76" s="0">
         <v>85.7142857142857</v>
@@ -15413,7 +15413,7 @@
         <v>20922.0238095238</v>
       </c>
       <c r="AM77" s="0">
-        <v>12204.0310077519</v>
+        <v>1.22040310077519</v>
       </c>
       <c r="AN77" s="0">
         <v>2968.99224806202</v>
@@ -15608,7 +15608,7 @@
         <v>1458.57142857143</v>
       </c>
       <c r="AM78" s="0">
-        <v>2128</v>
+        <v>0.2128</v>
       </c>
       <c r="AN78" s="0">
         <v>607.142857142857</v>
@@ -15803,7 +15803,7 @@
         <v>3209.62121212121</v>
       </c>
       <c r="AM79" s="0">
-        <v>1231.14093959732</v>
+        <v>0.123114093959732</v>
       </c>
       <c r="AN79" s="0">
         <v>343.624161073826</v>
@@ -15998,7 +15998,7 @@
         <v>866.666666666667</v>
       </c>
       <c r="AM80" s="0">
-        <v>1909.4262295082</v>
+        <v>0.19094262295082</v>
       </c>
       <c r="AN80" s="0">
         <v>327.868852459016</v>
@@ -16193,7 +16193,7 @@
         <v>12969.012345679</v>
       </c>
       <c r="AM81" s="0">
-        <v>8807.95081967213</v>
+        <v>0.880795081967213</v>
       </c>
       <c r="AN81" s="0">
         <v>1573.77049180328</v>
@@ -16388,7 +16388,7 @@
         <v>4078.26086956522</v>
       </c>
       <c r="AM82" s="0">
-        <v>3463.75</v>
+        <v>0.346375</v>
       </c>
       <c r="AN82" s="0">
         <v>177.5</v>
@@ -16583,7 +16583,7 @@
         <v>7045.2</v>
       </c>
       <c r="AM83" s="0">
-        <v>1202.27272727273</v>
+        <v>0.120227272727273</v>
       </c>
       <c r="AN83" s="0">
         <v>436.363636363636</v>
@@ -16778,7 +16778,7 @@
         <v>1222.44</v>
       </c>
       <c r="AM84" s="0">
-        <v>325</v>
+        <v>0.0325</v>
       </c>
       <c r="AN84" s="0">
         <v>592.592592592593</v>
@@ -16973,7 +16973,7 @@
         <v>2650.97142857143</v>
       </c>
       <c r="AM85" s="0">
-        <v>7440.60317460317</v>
+        <v>0.744060317460318</v>
       </c>
       <c r="AN85" s="0">
         <v>365.079365079365</v>
@@ -17168,7 +17168,7 @@
         <v>7008.51063829787</v>
       </c>
       <c r="AM86" s="0">
-        <v>2793.7619047619</v>
+        <v>0.27937619047619</v>
       </c>
       <c r="AN86" s="0">
         <v>2345.2380952381</v>
@@ -17363,7 +17363,7 @@
         <v>11700</v>
       </c>
       <c r="AM87" s="0">
-        <v>10649.6774193548</v>
+        <v>1.06496774193548</v>
       </c>
       <c r="AN87" s="0">
         <v>0</v>
@@ -17558,7 +17558,7 @@
         <v>2030.42352941176</v>
       </c>
       <c r="AM88" s="0">
-        <v>2517.00787401575</v>
+        <v>0.251700787401575</v>
       </c>
       <c r="AN88" s="0">
         <v>23.6220472440945</v>
@@ -17753,7 +17753,7 @@
         <v>9288.58682634731</v>
       </c>
       <c r="AM89" s="0">
-        <v>4374.36283185841</v>
+        <v>0.437436283185841</v>
       </c>
       <c r="AN89" s="0">
         <v>494.911504424779</v>
@@ -17948,7 +17948,7 @@
         <v>2591.5625</v>
       </c>
       <c r="AM90" s="0">
-        <v>8971.07142857143</v>
+        <v>0.897107142857143</v>
       </c>
       <c r="AN90" s="0">
         <v>357.142857142857</v>
@@ -18143,7 +18143,7 @@
         <v>2325.43609022556</v>
       </c>
       <c r="AM91" s="0">
-        <v>3862.65531914894</v>
+        <v>0.386265531914894</v>
       </c>
       <c r="AN91" s="0">
         <v>148.085106382979</v>
@@ -18338,7 +18338,7 @@
         <v>4059.65714285714</v>
       </c>
       <c r="AM92" s="0">
-        <v>3151.67474048443</v>
+        <v>0.315167474048443</v>
       </c>
       <c r="AN92" s="0">
         <v>608.996539792388</v>
@@ -18533,7 +18533,7 @@
         <v>18119.875</v>
       </c>
       <c r="AM93" s="0">
-        <v>8220.89430894309</v>
+        <v>0.822089430894309</v>
       </c>
       <c r="AN93" s="0">
         <v>1390.24390243902</v>
@@ -18728,7 +18728,7 @@
         <v>11534.1333333333</v>
       </c>
       <c r="AM94" s="0">
-        <v>3607.96460176991</v>
+        <v>0.360796460176991</v>
       </c>
       <c r="AN94" s="0">
         <v>1099.11504424779</v>
@@ -18923,7 +18923,7 @@
         <v>3690.76923076923</v>
       </c>
       <c r="AM95" s="0">
-        <v>785.611510791367</v>
+        <v>7.85611510791367E-02</v>
       </c>
       <c r="AN95" s="0">
         <v>237.410071942446</v>
@@ -19118,7 +19118,7 @@
         <v>8086.32926829268</v>
       </c>
       <c r="AM96" s="0">
-        <v>9748.17829457364</v>
+        <v>0.974817829457364</v>
       </c>
       <c r="AN96" s="0">
         <v>1578.68217054264</v>
@@ -19313,7 +19313,7 @@
         <v>4025.67796610169</v>
       </c>
       <c r="AM97" s="0">
-        <v>8324.59082616018</v>
+        <v>0.832459082616018</v>
       </c>
       <c r="AN97" s="0">
         <v>508.982035928144</v>
@@ -19508,7 +19508,7 @@
         <v>1580</v>
       </c>
       <c r="AM98" s="0">
-        <v>11600</v>
+        <v>1.16</v>
       </c>
       <c r="AN98" s="0">
         <v>253.164556962025</v>
@@ -19703,7 +19703,7 @@
         <v>1521.10091743119</v>
       </c>
       <c r="AM99" s="0">
-        <v>4846.71232876712</v>
+        <v>0.484671232876712</v>
       </c>
       <c r="AN99" s="0">
         <v>157.534246575342</v>
@@ -19898,7 +19898,7 @@
         <v>4052.63157894737</v>
       </c>
       <c r="AM100" s="0">
-        <v>7522.60869565217</v>
+        <v>0.752260869565217</v>
       </c>
       <c r="AN100" s="0">
         <v>863.975155279503</v>
@@ -20093,7 +20093,7 @@
         <v>4129.69696969697</v>
       </c>
       <c r="AM101" s="0">
-        <v>2331.56028368794</v>
+        <v>0.233156028368794</v>
       </c>
       <c r="AN101" s="0">
         <v>1063.82978723404</v>
@@ -20288,7 +20288,7 @@
         <v>50029.0625</v>
       </c>
       <c r="AM102" s="0">
-        <v>1520.18691588785</v>
+        <v>0.152018691588785</v>
       </c>
       <c r="AN102" s="0">
         <v>439.252336448598</v>
@@ -20483,7 +20483,7 @@
         <v>2364.89655172414</v>
       </c>
       <c r="AM103" s="0">
-        <v>2635.75129533679</v>
+        <v>0.263575129533679</v>
       </c>
       <c r="AN103" s="0">
         <v>287.564766839378</v>
@@ -20678,7 +20678,7 @@
         <v>613.114754098361</v>
       </c>
       <c r="AM104" s="0">
-        <v>5050.7874015748</v>
+        <v>0.50507874015748</v>
       </c>
       <c r="AN104" s="0">
         <v>25.9842519685039</v>
@@ -20873,7 +20873,7 @@
         <v>6920.75757575758</v>
       </c>
       <c r="AM105" s="0">
-        <v>2030.75949367089</v>
+        <v>0.203075949367089</v>
       </c>
       <c r="AN105" s="0">
         <v>1563.29113924051</v>
@@ -21068,7 +21068,7 @@
         <v>10689.9322033898</v>
       </c>
       <c r="AM106" s="0">
-        <v>4359.08235294118</v>
+        <v>0.435908235294118</v>
       </c>
       <c r="AN106" s="0">
         <v>2995.29411764706</v>
@@ -21263,7 +21263,7 @@
         <v>5504</v>
       </c>
       <c r="AM107" s="0">
-        <v>4377.57009345794</v>
+        <v>0.437757009345794</v>
       </c>
       <c r="AN107" s="0">
         <v>570.093457943925</v>
@@ -21458,7 +21458,7 @@
         <v>8937.85087719298</v>
       </c>
       <c r="AM108" s="0">
-        <v>3762.63736263736</v>
+        <v>0.376263736263736</v>
       </c>
       <c r="AN108" s="0">
         <v>516.483516483517</v>
@@ -21653,7 +21653,7 @@
         <v>6965.15217391304</v>
       </c>
       <c r="AM109" s="0">
-        <v>8040.55555555556</v>
+        <v>0.804055555555556</v>
       </c>
       <c r="AN109" s="0">
         <v>763.888888888889</v>
@@ -21848,7 +21848,7 @@
         <v>3460.43956043956</v>
       </c>
       <c r="AM110" s="0">
-        <v>2859.15492957746</v>
+        <v>0.285915492957746</v>
       </c>
       <c r="AN110" s="0">
         <v>70.4225352112676</v>
@@ -22043,7 +22043,7 @@
         <v>8011.97350993377</v>
       </c>
       <c r="AM111" s="0">
-        <v>3749.22413793103</v>
+        <v>0.374922413793103</v>
       </c>
       <c r="AN111" s="0">
         <v>1205.1724137931</v>
@@ -22238,7 +22238,7 @@
         <v>2407.32394366197</v>
       </c>
       <c r="AM112" s="0">
-        <v>2115.45454545455</v>
+        <v>0.211545454545455</v>
       </c>
       <c r="AN112" s="0">
         <v>680.909090909091</v>
@@ -22433,7 +22433,7 @@
         <v>2004.21052631579</v>
       </c>
       <c r="AM113" s="0">
-        <v>1634.75</v>
+        <v>0.163475</v>
       </c>
       <c r="AN113" s="0">
         <v>283.333333333333</v>
@@ -22628,7 +22628,7 @@
         <v>5950.93975903615</v>
       </c>
       <c r="AM114" s="0">
-        <v>2177.09923664122</v>
+        <v>0.217709923664122</v>
       </c>
       <c r="AN114" s="0">
         <v>1001.52671755725</v>
@@ -22823,7 +22823,7 @@
         <v>2565.93922651934</v>
       </c>
       <c r="AM115" s="0">
-        <v>3845.08250825083</v>
+        <v>0.384508250825083</v>
       </c>
       <c r="AN115" s="0">
         <v>707.590759075908</v>
@@ -23018,7 +23018,7 @@
         <v>18473.2142857143</v>
       </c>
       <c r="AM116" s="0">
-        <v>6713.2</v>
+        <v>0.67132</v>
       </c>
       <c r="AN116" s="0">
         <v>2420</v>
@@ -23213,7 +23213,7 @@
         <v>5855.59139784946</v>
       </c>
       <c r="AM117" s="0">
-        <v>3226.35658914729</v>
+        <v>0.322635658914729</v>
       </c>
       <c r="AN117" s="0">
         <v>596.899224806202</v>
@@ -23408,7 +23408,7 @@
         <v>1391.70149253731</v>
       </c>
       <c r="AM118" s="0">
-        <v>5033.5619047619</v>
+        <v>0.503356190476191</v>
       </c>
       <c r="AN118" s="0">
         <v>139.047619047619</v>
@@ -23603,7 +23603,7 @@
         <v>44326.0759493671</v>
       </c>
       <c r="AM119" s="0">
-        <v>4914.07407407407</v>
+        <v>0.491407407407407</v>
       </c>
       <c r="AN119" s="0">
         <v>2044.44444444444</v>
@@ -23798,7 +23798,7 @@
         <v>10642.8571428571</v>
       </c>
       <c r="AM120" s="0">
-        <v>3261.95512820513</v>
+        <v>0.326195512820513</v>
       </c>
       <c r="AN120" s="0">
         <v>384.615384615385</v>
@@ -23993,7 +23993,7 @@
         <v>2035.0303030303</v>
       </c>
       <c r="AM121" s="0">
-        <v>1676.42276422764</v>
+        <v>0.167642276422764</v>
       </c>
       <c r="AN121" s="0">
         <v>171.544715447154</v>
@@ -24188,7 +24188,7 @@
         <v>2813.6170212766</v>
       </c>
       <c r="AM122" s="0">
-        <v>4980.63111111111</v>
+        <v>0.498063111111111</v>
       </c>
       <c r="AN122" s="0">
         <v>2971.11111111111</v>
@@ -24383,7 +24383,7 @@
         <v>4245.21472392638</v>
       </c>
       <c r="AM123" s="0">
-        <v>2576.40692640693</v>
+        <v>0.257640692640693</v>
       </c>
       <c r="AN123" s="0">
         <v>208.658008658009</v>
@@ -24578,7 +24578,7 @@
         <v>3932.63157894737</v>
       </c>
       <c r="AM124" s="0">
-        <v>3306.25352112676</v>
+        <v>0.330625352112676</v>
       </c>
       <c r="AN124" s="0">
         <v>46.4788732394366</v>
@@ -24773,7 +24773,7 @@
         <v>1768.29927007299</v>
       </c>
       <c r="AM125" s="0">
-        <v>1759.64912280702</v>
+        <v>0.175964912280702</v>
       </c>
       <c r="AN125" s="0">
         <v>346.198830409357</v>
@@ -24968,7 +24968,7 @@
         <v>8171.20879120879</v>
       </c>
       <c r="AM126" s="0">
-        <v>2000.82126075634</v>
+        <v>0.200082126075634</v>
       </c>
       <c r="AN126" s="0">
         <v>1024.63768115942</v>
@@ -25163,7 +25163,7 @@
         <v>3235.20408163265</v>
       </c>
       <c r="AM127" s="0">
-        <v>3170.77464788732</v>
+        <v>0.317077464788732</v>
       </c>
       <c r="AN127" s="0">
         <v>1511.97183098592</v>
@@ -25358,7 +25358,7 @@
         <v>3632.29508196721</v>
       </c>
       <c r="AM128" s="0">
-        <v>2453.66666666667</v>
+        <v>0.245366666666667</v>
       </c>
       <c r="AN128" s="0">
         <v>730.769230769231</v>
@@ -25553,7 +25553,7 @@
         <v>9528.52941176471</v>
       </c>
       <c r="AM129" s="0">
-        <v>2174.69879518072</v>
+        <v>0.217469879518072</v>
       </c>
       <c r="AN129" s="0">
         <v>240.963855421687</v>
@@ -25748,7 +25748,7 @@
         <v>5797.12</v>
       </c>
       <c r="AM130" s="0">
-        <v>3711.62790697674</v>
+        <v>0.371162790697674</v>
       </c>
       <c r="AN130" s="0">
         <v>674.418604651163</v>
@@ -25943,7 +25943,7 @@
         <v>1897.61904761905</v>
       </c>
       <c r="AM131" s="0">
-        <v>2622.96296296296</v>
+        <v>0.262296296296296</v>
       </c>
       <c r="AN131" s="0">
         <v>25.9259259259259</v>
@@ -26138,7 +26138,7 @@
         <v>5159.24347826087</v>
       </c>
       <c r="AM132" s="0">
-        <v>4206.16161616162</v>
+        <v>0.420616161616162</v>
       </c>
       <c r="AN132" s="0">
         <v>736.363636363636</v>
@@ -26333,7 +26333,7 @@
         <v>4808.72093023256</v>
       </c>
       <c r="AM133" s="0">
-        <v>1432.60504201681</v>
+        <v>0.143260504201681</v>
       </c>
       <c r="AN133" s="0">
         <v>180.672268907563</v>
@@ -26528,7 +26528,7 @@
         <v>225.478260869565</v>
       </c>
       <c r="AM134" s="0">
-        <v>5696.53846153846</v>
+        <v>0.569653846153846</v>
       </c>
       <c r="AN134" s="0">
         <v>0</v>
@@ -26723,7 +26723,7 @@
         <v>1900</v>
       </c>
       <c r="AM135" s="0">
-        <v>9931.11111111111</v>
+        <v>0.993111111111111</v>
       </c>
       <c r="AN135" s="0">
         <v>20.8333333333333</v>
@@ -26918,7 +26918,7 @@
         <v>1762.5</v>
       </c>
       <c r="AM136" s="0">
-        <v>7526.38888888889</v>
+        <v>0.752638888888889</v>
       </c>
       <c r="AN136" s="0">
         <v>555.555555555556</v>
@@ -27113,7 +27113,7 @@
         <v>3368.9247311828</v>
       </c>
       <c r="AM137" s="0">
-        <v>2345.22535211268</v>
+        <v>0.234522535211268</v>
       </c>
       <c r="AN137" s="0">
         <v>161.971830985915</v>
@@ -27308,7 +27308,7 @@
         <v>3852.38095238095</v>
       </c>
       <c r="AM138" s="0">
-        <v>4766.10169491525</v>
+        <v>0.476610169491525</v>
       </c>
       <c r="AN138" s="0">
         <v>508.474576271186</v>
@@ -27503,7 +27503,7 @@
         <v>9914.17721518987</v>
       </c>
       <c r="AM139" s="0">
-        <v>6346.31578947368</v>
+        <v>0.634631578947368</v>
       </c>
       <c r="AN139" s="0">
         <v>1957.89473684211</v>
@@ -27698,7 +27698,7 @@
         <v>25728.8</v>
       </c>
       <c r="AM140" s="0">
-        <v>4591.66666666667</v>
+        <v>0.459166666666667</v>
       </c>
       <c r="AN140" s="0">
         <v>2738.09523809524</v>
@@ -27893,7 +27893,7 @@
         <v>5917.02127659574</v>
       </c>
       <c r="AM141" s="0">
-        <v>2134.82142857143</v>
+        <v>0.213482142857143</v>
       </c>
       <c r="AN141" s="0">
         <v>26.7857142857143</v>
@@ -28088,7 +28088,7 @@
         <v>5163.26530612245</v>
       </c>
       <c r="AM142" s="0">
-        <v>8666.08450704225</v>
+        <v>0.866608450704225</v>
       </c>
       <c r="AN142" s="0">
         <v>1647.88732394366</v>
@@ -28283,7 +28283,7 @@
         <v>1904.61538461538</v>
       </c>
       <c r="AM143" s="0">
-        <v>829.955555555556</v>
+        <v>8.29955555555556E-02</v>
       </c>
       <c r="AN143" s="0">
         <v>222.222222222222</v>
@@ -28478,7 +28478,7 @@
         <v>3019.05737704918</v>
       </c>
       <c r="AM144" s="0">
-        <v>2685.56338028169</v>
+        <v>0.268556338028169</v>
       </c>
       <c r="AN144" s="0">
         <v>553.521126760563</v>
@@ -28673,7 +28673,7 @@
         <v>2920.96774193548</v>
       </c>
       <c r="AM145" s="0">
-        <v>4885.1968503937</v>
+        <v>0.48851968503937</v>
       </c>
       <c r="AN145" s="0">
         <v>984.251968503937</v>
@@ -28868,7 +28868,7 @@
         <v>4459.13978494624</v>
       </c>
       <c r="AM146" s="0">
-        <v>4847.70175438596</v>
+        <v>0.484770175438596</v>
       </c>
       <c r="AN146" s="0">
         <v>964.912280701754</v>
@@ -29063,7 +29063,7 @@
         <v>3538.94859813084</v>
       </c>
       <c r="AM147" s="0">
-        <v>1376.1640625</v>
+        <v>0.13761640625</v>
       </c>
       <c r="AN147" s="0">
         <v>3.90625</v>
@@ -29258,7 +29258,7 @@
         <v>4830.94339622641</v>
       </c>
       <c r="AM148" s="0">
-        <v>3304.61538461538</v>
+        <v>0.330461538461538</v>
       </c>
       <c r="AN148" s="0">
         <v>769.230769230769</v>
@@ -29453,7 +29453,7 @@
         <v>8615.74468085106</v>
       </c>
       <c r="AM149" s="0">
-        <v>4211.61290322581</v>
+        <v>0.421161290322581</v>
       </c>
       <c r="AN149" s="0">
         <v>241.935483870968</v>
@@ -29648,7 +29648,7 @@
         <v>8034.8051948052</v>
       </c>
       <c r="AM150" s="0">
-        <v>2286.32653061224</v>
+        <v>0.228632653061224</v>
       </c>
       <c r="AN150" s="0">
         <v>540.816326530612</v>
@@ -29843,7 +29843,7 @@
         <v>2753.64705882353</v>
       </c>
       <c r="AM151" s="0">
-        <v>1796.95238095238</v>
+        <v>0.179695238095238</v>
       </c>
       <c r="AN151" s="0">
         <v>147.619047619048</v>
@@ -30038,7 +30038,7 @@
         <v>18582.8571428571</v>
       </c>
       <c r="AM152" s="0">
-        <v>9076.35135135135</v>
+        <v>0.907635135135135</v>
       </c>
       <c r="AN152" s="0">
         <v>421.621621621622</v>
@@ -30233,7 +30233,7 @@
         <v>399.915492957746</v>
       </c>
       <c r="AM153" s="0">
-        <v>6094.16666666667</v>
+        <v>0.609416666666667</v>
       </c>
       <c r="AN153" s="0">
         <v>3166.66666666667</v>
@@ -30428,7 +30428,7 @@
         <v>11581.5825242718</v>
       </c>
       <c r="AM154" s="0">
-        <v>2468.47457627119</v>
+        <v>0.246847457627119</v>
       </c>
       <c r="AN154" s="0">
         <v>932.203389830509</v>
@@ -30623,7 +30623,7 @@
         <v>4687.7358490566</v>
       </c>
       <c r="AM155" s="0">
-        <v>1384</v>
+        <v>0.1384</v>
       </c>
       <c r="AN155" s="0">
         <v>20</v>
@@ -30818,7 +30818,7 @@
         <v>4190</v>
       </c>
       <c r="AM156" s="0">
-        <v>2765.56390977444</v>
+        <v>0.276556390977444</v>
       </c>
       <c r="AN156" s="0">
         <v>60.1503759398496</v>
@@ -31013,7 +31013,7 @@
         <v>2010</v>
       </c>
       <c r="AM157" s="0">
-        <v>2506.18181818182</v>
+        <v>0.250618181818182</v>
       </c>
       <c r="AN157" s="0">
         <v>67.2727272727273</v>
@@ -31208,7 +31208,7 @@
         <v>1398.59649122807</v>
       </c>
       <c r="AM158" s="0">
-        <v>6621.10256410256</v>
+        <v>0.662110256410256</v>
       </c>
       <c r="AN158" s="0">
         <v>118.589743589744</v>
@@ -31403,7 +31403,7 @@
         <v>4004.34782608696</v>
       </c>
       <c r="AM159" s="0">
-        <v>6215.21126760563</v>
+        <v>0.621521126760563</v>
       </c>
       <c r="AN159" s="0">
         <v>507.042253521127</v>
@@ -31598,7 +31598,7 @@
         <v>2500</v>
       </c>
       <c r="AM160" s="0">
-        <v>10460.8695652174</v>
+        <v>1.04608695652174</v>
       </c>
       <c r="AN160" s="0">
         <v>0</v>
@@ -31793,7 +31793,7 @@
         <v>3125</v>
       </c>
       <c r="AM161" s="0">
-        <v>6744.23076923077</v>
+        <v>0.674423076923077</v>
       </c>
       <c r="AN161" s="0">
         <v>76.9230769230769</v>
@@ -31988,7 +31988,7 @@
         <v>6239.39316239316</v>
       </c>
       <c r="AM162" s="0">
-        <v>2419.26470588235</v>
+        <v>0.241926470588235</v>
       </c>
       <c r="AN162" s="0">
         <v>544.117647058824</v>
@@ -32183,7 +32183,7 @@
         <v>2855.39682539683</v>
       </c>
       <c r="AM163" s="0">
-        <v>5136.31683168317</v>
+        <v>0.513631683168317</v>
       </c>
       <c r="AN163" s="0">
         <v>118.811881188119</v>
@@ -32378,7 +32378,7 @@
         <v>6564.10256410256</v>
       </c>
       <c r="AM164" s="0">
-        <v>17282.2222222222</v>
+        <v>1.72822222222222</v>
       </c>
       <c r="AN164" s="0">
         <v>0</v>
@@ -32573,7 +32573,7 @@
         <v>3234.63414634146</v>
       </c>
       <c r="AM165" s="0">
-        <v>558.839285714286</v>
+        <v>5.58839285714286E-02</v>
       </c>
       <c r="AN165" s="0">
         <v>102.678571428571</v>
@@ -32768,7 +32768,7 @@
         <v>13594.4444444444</v>
       </c>
       <c r="AM166" s="0">
-        <v>14865</v>
+        <v>1.4865</v>
       </c>
       <c r="AN166" s="0">
         <v>2900</v>
@@ -32963,7 +32963,7 @@
         <v>9123.6015037594</v>
       </c>
       <c r="AM167" s="0">
-        <v>3420.45398773006</v>
+        <v>0.342045398773006</v>
       </c>
       <c r="AN167" s="0">
         <v>1154.90797546012</v>
@@ -33158,7 +33158,7 @@
         <v>6995.12195121951</v>
       </c>
       <c r="AM168" s="0">
-        <v>14891.8032786885</v>
+        <v>1.48918032786885</v>
       </c>
       <c r="AN168" s="0">
         <v>2295.08196721311</v>
@@ -33353,7 +33353,7 @@
         <v>6956.34146341463</v>
       </c>
       <c r="AM169" s="0">
-        <v>3735.35353535354</v>
+        <v>0.373535353535354</v>
       </c>
       <c r="AN169" s="0">
         <v>555.555555555556</v>
@@ -33548,7 +33548,7 @@
         <v>4267.96116504854</v>
       </c>
       <c r="AM170" s="0">
-        <v>6382.61194029851</v>
+        <v>0.638261194029851</v>
       </c>
       <c r="AN170" s="0">
         <v>858.208955223881</v>
@@ -33743,7 +33743,7 @@
         <v>10403.1746031746</v>
       </c>
       <c r="AM171" s="0">
-        <v>1166.31578947368</v>
+        <v>0.116631578947368</v>
       </c>
       <c r="AN171" s="0">
         <v>736.842105263158</v>
@@ -33938,7 +33938,7 @@
         <v>402.941176470588</v>
       </c>
       <c r="AM172" s="0">
-        <v>2438.82352941176</v>
+        <v>0.243882352941176</v>
       </c>
       <c r="AN172" s="0">
         <v>0</v>
@@ -34133,7 +34133,7 @@
         <v>2363.07692307692</v>
       </c>
       <c r="AM173" s="0">
-        <v>6684.20168067227</v>
+        <v>0.668420168067227</v>
       </c>
       <c r="AN173" s="0">
         <v>1033.61344537815</v>
@@ -34328,7 +34328,7 @@
         <v>8337.0101010101</v>
       </c>
       <c r="AM174" s="0">
-        <v>5865.33898305085</v>
+        <v>0.586533898305085</v>
       </c>
       <c r="AN174" s="0">
         <v>656.779661016949</v>
@@ -34523,7 +34523,7 @@
         <v>31200</v>
       </c>
       <c r="AM175" s="0">
-        <v>7636.25</v>
+        <v>0.763625</v>
       </c>
       <c r="AN175" s="0">
         <v>1437.5</v>
@@ -34718,7 +34718,7 @@
         <v>17705.2631578947</v>
       </c>
       <c r="AM176" s="0">
-        <v>5405.26315789474</v>
+        <v>0.540526315789474</v>
       </c>
       <c r="AN176" s="0">
         <v>3026.31578947368</v>
@@ -34913,7 +34913,7 @@
         <v>-1406.66666666667</v>
       </c>
       <c r="AM177" s="0">
-        <v>7412.04545454546</v>
+        <v>0.741204545454546</v>
       </c>
       <c r="AN177" s="0">
         <v>405.30303030303</v>
@@ -35108,7 +35108,7 @@
         <v>3663.39285714286</v>
       </c>
       <c r="AM178" s="0">
-        <v>4091.59090909091</v>
+        <v>0.409159090909091</v>
       </c>
       <c r="AN178" s="0">
         <v>1060.60606060606</v>
@@ -35303,7 +35303,7 @@
         <v>3884.74747474747</v>
       </c>
       <c r="AM179" s="0">
-        <v>4473.93442622951</v>
+        <v>0.447393442622951</v>
       </c>
       <c r="AN179" s="0">
         <v>535.245901639344</v>
@@ -35498,7 +35498,7 @@
         <v>9639.73684210526</v>
       </c>
       <c r="AM180" s="0">
-        <v>5787.17948717949</v>
+        <v>0.578717948717949</v>
       </c>
       <c r="AN180" s="0">
         <v>307.692307692308</v>
@@ -35693,7 +35693,7 @@
         <v>4777.55102040816</v>
       </c>
       <c r="AM181" s="0">
-        <v>4530.9375</v>
+        <v>0.45309375</v>
       </c>
       <c r="AN181" s="0">
         <v>875</v>
@@ -35888,7 +35888,7 @@
         <v>16883.6111111111</v>
       </c>
       <c r="AM182" s="0">
-        <v>3751.29032258065</v>
+        <v>0.375129032258065</v>
       </c>
       <c r="AN182" s="0">
         <v>3408.60215053763</v>
@@ -36083,7 +36083,7 @@
         <v>4786.9696969697</v>
       </c>
       <c r="AM183" s="0">
-        <v>4977.80346820809</v>
+        <v>0.497780346820809</v>
       </c>
       <c r="AN183" s="0">
         <v>6768.78612716763</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="AM184" s="0">
-        <v>16868.1818181818</v>
+        <v>1.68681818181818</v>
       </c>
       <c r="AN184" s="0">
         <v>0</v>
@@ -36473,7 +36473,7 @@
         <v>3566.27450980392</v>
       </c>
       <c r="AM185" s="0">
-        <v>1308.69565217391</v>
+        <v>0.130869565217391</v>
       </c>
       <c r="AN185" s="0">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>8845.98734177215</v>
       </c>
       <c r="AM186" s="0">
-        <v>7082</v>
+        <v>0.7082</v>
       </c>
       <c r="AN186" s="0">
         <v>1463.63636363636</v>
@@ -36863,7 +36863,7 @@
         <v>2152</v>
       </c>
       <c r="AM187" s="0">
-        <v>3807.14285714286</v>
+        <v>0.380714285714286</v>
       </c>
       <c r="AN187" s="0">
         <v>252.100840336134</v>
@@ -37058,7 +37058,7 @@
         <v>8461.98412698413</v>
       </c>
       <c r="AM188" s="0">
-        <v>3420</v>
+        <v>0.342</v>
       </c>
       <c r="AN188" s="0">
         <v>3.94736842105263</v>
@@ -37253,7 +37253,7 @@
         <v>1720.91503267974</v>
       </c>
       <c r="AM189" s="0">
-        <v>2642.44186046512</v>
+        <v>0.264244186046512</v>
       </c>
       <c r="AN189" s="0">
         <v>87.2093023255814</v>
@@ -37448,7 +37448,7 @@
         <v>4645.85714285714</v>
       </c>
       <c r="AM190" s="0">
-        <v>1365.49450549451</v>
+        <v>0.136549450549451</v>
       </c>
       <c r="AN190" s="0">
         <v>214.285714285714</v>
@@ -37643,7 +37643,7 @@
         <v>4668.28828828829</v>
       </c>
       <c r="AM191" s="0">
-        <v>4467.94029850746</v>
+        <v>0.446794029850746</v>
       </c>
       <c r="AN191" s="0">
         <v>283.582089552239</v>
@@ -37838,7 +37838,7 @@
         <v>3166.88372093023</v>
       </c>
       <c r="AM192" s="0">
-        <v>3748.5119047619</v>
+        <v>0.37485119047619</v>
       </c>
       <c r="AN192" s="0">
         <v>974.206349206349</v>
@@ -38033,7 +38033,7 @@
         <v>5851.64835164835</v>
       </c>
       <c r="AM193" s="0">
-        <v>1375</v>
+        <v>0.1375</v>
       </c>
       <c r="AN193" s="0">
         <v>358.490566037736</v>
@@ -38228,7 +38228,7 @@
         <v>6764.36781609195</v>
       </c>
       <c r="AM194" s="0">
-        <v>5274.28571428571</v>
+        <v>0.527428571428571</v>
       </c>
       <c r="AN194" s="0">
         <v>1277.31092436975</v>
@@ -38423,7 +38423,7 @@
         <v>2750.30769230769</v>
       </c>
       <c r="AM195" s="0">
-        <v>6869.66476004464</v>
+        <v>0.686966476004464</v>
       </c>
       <c r="AN195" s="0">
         <v>190.285714285714</v>
@@ -38618,7 +38618,7 @@
         <v>5155.78010471204</v>
       </c>
       <c r="AM196" s="0">
-        <v>3929.16996047431</v>
+        <v>0.392916996047431</v>
       </c>
       <c r="AN196" s="0">
         <v>781.97628458498</v>
@@ -38813,7 +38813,7 @@
         <v>5931.49473684211</v>
       </c>
       <c r="AM197" s="0">
-        <v>2023.48623853211</v>
+        <v>0.202348623853211</v>
       </c>
       <c r="AN197" s="0">
         <v>284.403669724771</v>
@@ -39008,7 +39008,7 @@
         <v>6562.55</v>
       </c>
       <c r="AM198" s="0">
-        <v>2617.1875</v>
+        <v>0.26171875</v>
       </c>
       <c r="AN198" s="0">
         <v>550.520833333333</v>
@@ -39203,7 +39203,7 @@
         <v>3656.06557377049</v>
       </c>
       <c r="AM199" s="0">
-        <v>9477.51533742331</v>
+        <v>0.947751533742331</v>
       </c>
       <c r="AN199" s="0">
         <v>1009.81595092025</v>
@@ -39398,7 +39398,7 @@
         <v>2708.03038674033</v>
       </c>
       <c r="AM200" s="0">
-        <v>2183.91743119266</v>
+        <v>0.218391743119266</v>
       </c>
       <c r="AN200" s="0">
         <v>201.834862385321</v>
@@ -39593,7 +39593,7 @@
         <v>13581.4814814815</v>
       </c>
       <c r="AM201" s="0">
-        <v>4292.14285714286</v>
+        <v>0.429214285714286</v>
       </c>
       <c r="AN201" s="0">
         <v>985.714285714286</v>
@@ -39788,7 +39788,7 @@
         <v>1263.39603960396</v>
       </c>
       <c r="AM202" s="0">
-        <v>1239.70588235294</v>
+        <v>0.123970588235294</v>
       </c>
       <c r="AN202" s="0">
         <v>7.35294117647059</v>
@@ -39983,7 +39983,7 @@
         <v>20922.0238095238</v>
       </c>
       <c r="AM203" s="0">
-        <v>9298.53448275862</v>
+        <v>0.929853448275862</v>
       </c>
       <c r="AN203" s="0">
         <v>1646.55172413793</v>
@@ -40178,7 +40178,7 @@
         <v>1458.57142857143</v>
       </c>
       <c r="AM204" s="0">
-        <v>2533.62831858407</v>
+        <v>0.253362831858407</v>
       </c>
       <c r="AN204" s="0">
         <v>382.300884955752</v>
@@ -40373,7 +40373,7 @@
         <v>3209.62121212121</v>
       </c>
       <c r="AM205" s="0">
-        <v>4040.15827338129</v>
+        <v>0.404015827338129</v>
       </c>
       <c r="AN205" s="0">
         <v>134.172661870504</v>
@@ -40568,7 +40568,7 @@
         <v>866.666666666667</v>
       </c>
       <c r="AM206" s="0">
-        <v>1394.66019417476</v>
+        <v>0.139466019417476</v>
       </c>
       <c r="AN206" s="0">
         <v>0</v>
@@ -40763,7 +40763,7 @@
         <v>12969.012345679</v>
       </c>
       <c r="AM207" s="0">
-        <v>7618.66666666667</v>
+        <v>0.761866666666667</v>
       </c>
       <c r="AN207" s="0">
         <v>5140.95238095238</v>
@@ -40958,7 +40958,7 @@
         <v>4078.26086956522</v>
       </c>
       <c r="AM208" s="0">
-        <v>5356.27118644068</v>
+        <v>0.535627118644068</v>
       </c>
       <c r="AN208" s="0">
         <v>762.71186440678</v>
@@ -41153,7 +41153,7 @@
         <v>7045.2</v>
       </c>
       <c r="AM209" s="0">
-        <v>544.117647058824</v>
+        <v>5.44117647058824E-02</v>
       </c>
       <c r="AN209" s="0">
         <v>3676.47058823529</v>
@@ -41348,7 +41348,7 @@
         <v>1222.44</v>
       </c>
       <c r="AM210" s="0">
-        <v>876.222222222222</v>
+        <v>8.76222222222222E-02</v>
       </c>
       <c r="AN210" s="0">
         <v>0</v>
@@ -41543,7 +41543,7 @@
         <v>2650.97142857143</v>
       </c>
       <c r="AM211" s="0">
-        <v>6147.91666666667</v>
+        <v>0.614791666666667</v>
       </c>
       <c r="AN211" s="0">
         <v>583.333333333333</v>
@@ -41738,7 +41738,7 @@
         <v>7008.51063829787</v>
       </c>
       <c r="AM212" s="0">
-        <v>2809.84126984127</v>
+        <v>0.280984126984127</v>
       </c>
       <c r="AN212" s="0">
         <v>1130.15873015873</v>
@@ -41933,7 +41933,7 @@
         <v>11700</v>
       </c>
       <c r="AM213" s="0">
-        <v>6864.25531914894</v>
+        <v>0.686425531914894</v>
       </c>
       <c r="AN213" s="0">
         <v>204.255319148936</v>
@@ -42128,7 +42128,7 @@
         <v>2030.42352941176</v>
       </c>
       <c r="AM214" s="0">
-        <v>2916.49122807018</v>
+        <v>0.291649122807018</v>
       </c>
       <c r="AN214" s="0">
         <v>203.508771929825</v>
@@ -42323,7 +42323,7 @@
         <v>9288.58682634731</v>
       </c>
       <c r="AM215" s="0">
-        <v>2631.08910891089</v>
+        <v>0.263108910891089</v>
       </c>
       <c r="AN215" s="0">
         <v>1717.82178217822</v>
@@ -42518,7 +42518,7 @@
         <v>2591.5625</v>
       </c>
       <c r="AM216" s="0">
-        <v>10709.5238095238</v>
+        <v>1.07095238095238</v>
       </c>
       <c r="AN216" s="0">
         <v>952.380952380952</v>
@@ -42713,7 +42713,7 @@
         <v>2325.43609022556</v>
       </c>
       <c r="AM217" s="0">
-        <v>5055.60846560847</v>
+        <v>0.505560846560847</v>
       </c>
       <c r="AN217" s="0">
         <v>391.534391534392</v>
@@ -42908,7 +42908,7 @@
         <v>4059.65714285714</v>
       </c>
       <c r="AM218" s="0">
-        <v>4213.17647058824</v>
+        <v>0.421317647058824</v>
       </c>
       <c r="AN218" s="0">
         <v>164.705882352941</v>
@@ -43103,7 +43103,7 @@
         <v>18119.875</v>
       </c>
       <c r="AM219" s="0">
-        <v>12119.1176470588</v>
+        <v>1.21191176470588</v>
       </c>
       <c r="AN219" s="0">
         <v>2009.80392156863</v>
@@ -43298,7 +43298,7 @@
         <v>11534.1333333333</v>
       </c>
       <c r="AM220" s="0">
-        <v>1881.25</v>
+        <v>0.188125</v>
       </c>
       <c r="AN220" s="0">
         <v>520.833333333333</v>
@@ -43493,7 +43493,7 @@
         <v>3690.76923076923</v>
       </c>
       <c r="AM221" s="0">
-        <v>1364.07017629523</v>
+        <v>0.136407017629523</v>
       </c>
       <c r="AN221" s="0">
         <v>105.263157894737</v>
@@ -43688,7 +43688,7 @@
         <v>8086.32926829268</v>
       </c>
       <c r="AM222" s="0">
-        <v>6479.44036697248</v>
+        <v>0.647944036697248</v>
       </c>
       <c r="AN222" s="0">
         <v>1642.01834862385</v>
@@ -43883,7 +43883,7 @@
         <v>4025.67796610169</v>
       </c>
       <c r="AM223" s="0">
-        <v>7401.92307692308</v>
+        <v>0.740192307692308</v>
       </c>
       <c r="AN223" s="0">
         <v>750</v>
@@ -44078,7 +44078,7 @@
         <v>1580</v>
       </c>
       <c r="AM224" s="0">
-        <v>8371.31147540984</v>
+        <v>0.837131147540984</v>
       </c>
       <c r="AN224" s="0">
         <v>409.836065573771</v>
@@ -44273,7 +44273,7 @@
         <v>1521.10091743119</v>
       </c>
       <c r="AM225" s="0">
-        <v>6983.64179104478</v>
+        <v>0.698364179104478</v>
       </c>
       <c r="AN225" s="0">
         <v>485.074626865672</v>
@@ -44468,7 +44468,7 @@
         <v>4052.63157894737</v>
       </c>
       <c r="AM226" s="0">
-        <v>9335.57823129252</v>
+        <v>0.933557823129252</v>
       </c>
       <c r="AN226" s="0">
         <v>748.299319727891</v>
@@ -44663,7 +44663,7 @@
         <v>4129.69696969697</v>
       </c>
       <c r="AM227" s="0">
-        <v>2635.1171875</v>
+        <v>0.26351171875</v>
       </c>
       <c r="AN227" s="0">
         <v>921.875</v>
@@ -44858,7 +44858,7 @@
         <v>50029.0625</v>
       </c>
       <c r="AM228" s="0">
-        <v>2392.40506329114</v>
+        <v>0.239240506329114</v>
       </c>
       <c r="AN228" s="0">
         <v>563.291139240506</v>
@@ -45053,7 +45053,7 @@
         <v>2364.89655172414</v>
       </c>
       <c r="AM229" s="0">
-        <v>4962.44186046512</v>
+        <v>0.496244186046512</v>
       </c>
       <c r="AN229" s="0">
         <v>555.232558139535</v>
@@ -45248,7 +45248,7 @@
         <v>613.114754098361</v>
       </c>
       <c r="AM230" s="0">
-        <v>2445.90384615385</v>
+        <v>0.244590384615385</v>
       </c>
       <c r="AN230" s="0">
         <v>67.3076923076923</v>
@@ -45443,7 +45443,7 @@
         <v>6920.75757575758</v>
       </c>
       <c r="AM231" s="0">
-        <v>2953.81944444444</v>
+        <v>0.295381944444444</v>
       </c>
       <c r="AN231" s="0">
         <v>726.851851851852</v>
@@ -45638,7 +45638,7 @@
         <v>10689.9322033898</v>
       </c>
       <c r="AM232" s="0">
-        <v>5689.47368421053</v>
+        <v>0.568947368421053</v>
       </c>
       <c r="AN232" s="0">
         <v>611.842105263158</v>
@@ -45833,7 +45833,7 @@
         <v>5504</v>
       </c>
       <c r="AM233" s="0">
-        <v>2512.81690140845</v>
+        <v>0.251281690140845</v>
       </c>
       <c r="AN233" s="0">
         <v>49.2957746478873</v>
@@ -46028,7 +46028,7 @@
         <v>8937.85087719298</v>
       </c>
       <c r="AM234" s="0">
-        <v>6490.54794520548</v>
+        <v>0.649054794520548</v>
       </c>
       <c r="AN234" s="0">
         <v>1000</v>
@@ -46223,7 +46223,7 @@
         <v>6965.15217391304</v>
       </c>
       <c r="AM235" s="0">
-        <v>11606.8067226891</v>
+        <v>1.16068067226891</v>
       </c>
       <c r="AN235" s="0">
         <v>764.705882352941</v>
@@ -46418,7 +46418,7 @@
         <v>3460.43956043956</v>
       </c>
       <c r="AM236" s="0">
-        <v>1769.84126984127</v>
+        <v>0.176984126984127</v>
       </c>
       <c r="AN236" s="0">
         <v>388.095238095238</v>
@@ -46613,7 +46613,7 @@
         <v>8011.97350993377</v>
       </c>
       <c r="AM237" s="0">
-        <v>3314.08866995074</v>
+        <v>0.331408866995074</v>
       </c>
       <c r="AN237" s="0">
         <v>1030.04926108374</v>
@@ -46808,7 +46808,7 @@
         <v>2407.32394366197</v>
       </c>
       <c r="AM238" s="0">
-        <v>7471.51515151515</v>
+        <v>0.747151515151515</v>
       </c>
       <c r="AN238" s="0">
         <v>631.313131313131</v>
@@ -47003,7 +47003,7 @@
         <v>2004.21052631579</v>
       </c>
       <c r="AM239" s="0">
-        <v>2080.76923076923</v>
+        <v>0.208076923076923</v>
       </c>
       <c r="AN239" s="0">
         <v>642.307692307692</v>
@@ -47198,7 +47198,7 @@
         <v>5950.93975903615</v>
       </c>
       <c r="AM240" s="0">
-        <v>3785.04854368932</v>
+        <v>0.378504854368932</v>
       </c>
       <c r="AN240" s="0">
         <v>728.155339805825</v>
@@ -47393,7 +47393,7 @@
         <v>2565.93922651934</v>
       </c>
       <c r="AM241" s="0">
-        <v>3572.45018450184</v>
+        <v>0.357245018450184</v>
       </c>
       <c r="AN241" s="0">
         <v>878.966789667897</v>
@@ -47588,7 +47588,7 @@
         <v>18473.2142857143</v>
       </c>
       <c r="AM242" s="0">
-        <v>9157.89473684211</v>
+        <v>0.91578947368421</v>
       </c>
       <c r="AN242" s="0">
         <v>4013.15789473684</v>
@@ -47783,7 +47783,7 @@
         <v>5855.59139784946</v>
       </c>
       <c r="AM243" s="0">
-        <v>6862.54237288136</v>
+        <v>0.686254237288136</v>
       </c>
       <c r="AN243" s="0">
         <v>593.220338983051</v>
@@ -47978,7 +47978,7 @@
         <v>1391.70149253731</v>
       </c>
       <c r="AM244" s="0">
-        <v>3346.60740017361</v>
+        <v>0.334660740017361</v>
       </c>
       <c r="AN244" s="0">
         <v>272.222222222222</v>
@@ -48173,7 +48173,7 @@
         <v>44326.0759493671</v>
       </c>
       <c r="AM245" s="0">
-        <v>2409.01639344262</v>
+        <v>0.240901639344262</v>
       </c>
       <c r="AN245" s="0">
         <v>3659.83606557377</v>
@@ -48368,7 +48368,7 @@
         <v>10642.8571428571</v>
       </c>
       <c r="AM246" s="0">
-        <v>4721.87919463087</v>
+        <v>0.472187919463087</v>
       </c>
       <c r="AN246" s="0">
         <v>213.422818791946</v>
@@ -48563,7 +48563,7 @@
         <v>2035.0303030303</v>
       </c>
       <c r="AM247" s="0">
-        <v>1646.83168316832</v>
+        <v>0.164683168316832</v>
       </c>
       <c r="AN247" s="0">
         <v>460.39603960396</v>
@@ -48758,7 +48758,7 @@
         <v>2813.6170212766</v>
       </c>
       <c r="AM248" s="0">
-        <v>6816.02</v>
+        <v>0.681602</v>
       </c>
       <c r="AN248" s="0">
         <v>290</v>
@@ -48953,7 +48953,7 @@
         <v>4245.21472392638</v>
       </c>
       <c r="AM249" s="0">
-        <v>2101.2</v>
+        <v>0.21012</v>
       </c>
       <c r="AN249" s="0">
         <v>360</v>
@@ -49148,7 +49148,7 @@
         <v>3932.63157894737</v>
       </c>
       <c r="AM250" s="0">
-        <v>4196.24615384615</v>
+        <v>0.419624615384615</v>
       </c>
       <c r="AN250" s="0">
         <v>0</v>
@@ -49343,7 +49343,7 @@
         <v>1768.29927007299</v>
       </c>
       <c r="AM251" s="0">
-        <v>2671.1875</v>
+        <v>0.26711875</v>
       </c>
       <c r="AN251" s="0">
         <v>101.25</v>
@@ -49538,7 +49538,7 @@
         <v>8171.20879120879</v>
       </c>
       <c r="AM252" s="0">
-        <v>1868.03278688525</v>
+        <v>0.186803278688525</v>
       </c>
       <c r="AN252" s="0">
         <v>532.786885245902</v>
@@ -49733,7 +49733,7 @@
         <v>3235.20408163265</v>
       </c>
       <c r="AM253" s="0">
-        <v>2750.390625</v>
+        <v>0.2750390625</v>
       </c>
       <c r="AN253" s="0">
         <v>31.25</v>
@@ -49928,7 +49928,7 @@
         <v>7477.16417910448</v>
       </c>
       <c r="AM254" s="0">
-        <v>5121.53846153846</v>
+        <v>0.512153846153846</v>
       </c>
       <c r="AN254" s="0">
         <v>1051.28205128205</v>
@@ -50123,7 +50123,7 @@
         <v>3631.90476190476</v>
       </c>
       <c r="AM255" s="0">
-        <v>2551.62790697674</v>
+        <v>0.255162790697674</v>
       </c>
       <c r="AN255" s="0">
         <v>145.348837209302</v>
@@ -50318,7 +50318,7 @@
         <v>13545.5616438356</v>
       </c>
       <c r="AM256" s="0">
-        <v>2821.42857142857</v>
+        <v>0.282142857142857</v>
       </c>
       <c r="AN256" s="0">
         <v>1071.42857142857</v>
@@ -50513,7 +50513,7 @@
         <v>2310.9243697479</v>
       </c>
       <c r="AM257" s="0">
-        <v>1509.17293233083</v>
+        <v>0.150917293233083</v>
       </c>
       <c r="AN257" s="0">
         <v>451.127819548872</v>
@@ -50708,7 +50708,7 @@
         <v>3363.85537190083</v>
       </c>
       <c r="AM258" s="0">
-        <v>2591.22710622711</v>
+        <v>0.259122710622711</v>
       </c>
       <c r="AN258" s="0">
         <v>1173.99267399267</v>
@@ -50903,7 +50903,7 @@
         <v>1153.42391304348</v>
       </c>
       <c r="AM259" s="0">
-        <v>1906.8932038835</v>
+        <v>0.19068932038835</v>
       </c>
       <c r="AN259" s="0">
         <v>0</v>
@@ -51098,7 +51098,7 @@
         <v>1019.44444444444</v>
       </c>
       <c r="AM260" s="0">
-        <v>3593.72549019608</v>
+        <v>0.359372549019608</v>
       </c>
       <c r="AN260" s="0">
         <v>130.718954248366</v>
@@ -51293,7 +51293,7 @@
         <v>4254.54545454546</v>
       </c>
       <c r="AM261" s="0">
-        <v>1957.44680851064</v>
+        <v>0.195744680851064</v>
       </c>
       <c r="AN261" s="0">
         <v>1063.82978723404</v>
@@ -51488,7 +51488,7 @@
         <v>1041.50943396226</v>
       </c>
       <c r="AM262" s="0">
-        <v>5643.69230769231</v>
+        <v>0.564369230769231</v>
       </c>
       <c r="AN262" s="0">
         <v>640</v>
@@ -51683,7 +51683,7 @@
         <v>19204.8461538462</v>
       </c>
       <c r="AM263" s="0">
-        <v>2459.41176470588</v>
+        <v>0.245941176470588</v>
       </c>
       <c r="AN263" s="0">
         <v>1876.83823529412</v>
@@ -51878,7 +51878,7 @@
         <v>3139.28571428571</v>
       </c>
       <c r="AM264" s="0">
-        <v>5406.66666666667</v>
+        <v>0.540666666666667</v>
       </c>
       <c r="AN264" s="0">
         <v>466.666666666667</v>
@@ -52073,7 +52073,7 @@
         <v>7548.51063829787</v>
       </c>
       <c r="AM265" s="0">
-        <v>6827.4</v>
+        <v>0.68274</v>
       </c>
       <c r="AN265" s="0">
         <v>2752</v>
@@ -52268,7 +52268,7 @@
         <v>4912.53333333333</v>
       </c>
       <c r="AM266" s="0">
-        <v>2665.88235294118</v>
+        <v>0.266588235294118</v>
       </c>
       <c r="AN266" s="0">
         <v>1647.05882352941</v>
@@ -52463,7 +52463,7 @@
         <v>7938.33333333333</v>
       </c>
       <c r="AM267" s="0">
-        <v>2086.35514018692</v>
+        <v>0.208635514018692</v>
       </c>
       <c r="AN267" s="0">
         <v>355.140186915888</v>
@@ -52658,7 +52658,7 @@
         <v>3566.66666666667</v>
       </c>
       <c r="AM268" s="0">
-        <v>6475.32467532467</v>
+        <v>0.647532467532468</v>
       </c>
       <c r="AN268" s="0">
         <v>0</v>
@@ -52853,7 +52853,7 @@
         <v>5889.39759036145</v>
       </c>
       <c r="AM269" s="0">
-        <v>2384.2</v>
+        <v>0.23842</v>
       </c>
       <c r="AN269" s="0">
         <v>0</v>
@@ -53048,7 +53048,7 @@
         <v>2650.35714285714</v>
       </c>
       <c r="AM270" s="0">
-        <v>3325.17006802721</v>
+        <v>0.332517006802721</v>
       </c>
       <c r="AN270" s="0">
         <v>319.727891156463</v>
@@ -53243,7 +53243,7 @@
         <v>910.434782608696</v>
       </c>
       <c r="AM271" s="0">
-        <v>3744.18604651163</v>
+        <v>0.374418604651163</v>
       </c>
       <c r="AN271" s="0">
         <v>263.565891472868</v>
@@ -53438,7 +53438,7 @@
         <v>4432.67326732673</v>
       </c>
       <c r="AM272" s="0">
-        <v>3550.90909090909</v>
+        <v>0.355090909090909</v>
       </c>
       <c r="AN272" s="0">
         <v>681.818181818182</v>
@@ -53633,7 +53633,7 @@
         <v>6151.07317073171</v>
       </c>
       <c r="AM273" s="0">
-        <v>865.040650406504</v>
+        <v>8.65040650406504E-02</v>
       </c>
       <c r="AN273" s="0">
         <v>203.252032520325</v>
@@ -53828,7 +53828,7 @@
         <v>5389.83050847458</v>
       </c>
       <c r="AM274" s="0">
-        <v>2603.22580645161</v>
+        <v>0.260322580645161</v>
       </c>
       <c r="AN274" s="0">
         <v>1370.96774193548</v>
@@ -54023,7 +54023,7 @@
         <v>4010.01869158879</v>
       </c>
       <c r="AM275" s="0">
-        <v>2614.65517241379</v>
+        <v>0.261465517241379</v>
       </c>
       <c r="AN275" s="0">
         <v>311.206896551724</v>
@@ -54218,7 +54218,7 @@
         <v>9412.94117647059</v>
       </c>
       <c r="AM276" s="0">
-        <v>1396.11650485437</v>
+        <v>0.139611650485437</v>
       </c>
       <c r="AN276" s="0">
         <v>297.087378640777</v>
@@ -54413,7 +54413,7 @@
         <v>1705.44444444444</v>
       </c>
       <c r="AM277" s="0">
-        <v>2287.6</v>
+        <v>0.22876</v>
       </c>
       <c r="AN277" s="0">
         <v>40</v>
@@ -54608,7 +54608,7 @@
         <v>8474.92753623188</v>
       </c>
       <c r="AM278" s="0">
-        <v>7883.33333333333</v>
+        <v>0.788333333333333</v>
       </c>
       <c r="AN278" s="0">
         <v>750</v>
@@ -54803,7 +54803,7 @@
         <v>96.5853658536585</v>
       </c>
       <c r="AM279" s="0">
-        <v>6156.26315789474</v>
+        <v>0.615626315789474</v>
       </c>
       <c r="AN279" s="0">
         <v>210.526315789474</v>
@@ -54998,7 +54998,7 @@
         <v>2021.20720720721</v>
       </c>
       <c r="AM280" s="0">
-        <v>2048.26315789474</v>
+        <v>0.204826315789474</v>
       </c>
       <c r="AN280" s="0">
         <v>175.438596491228</v>
@@ -55193,7 +55193,7 @@
         <v>3569.25925925926</v>
       </c>
       <c r="AM281" s="0">
-        <v>893.703703703704</v>
+        <v>8.93703703703704E-02</v>
       </c>
       <c r="AN281" s="0">
         <v>55.5555555555556</v>
@@ -55388,7 +55388,7 @@
         <v>1732.43564356436</v>
       </c>
       <c r="AM282" s="0">
-        <v>888.976377952756</v>
+        <v>8.88976377952756E-02</v>
       </c>
       <c r="AN282" s="0">
         <v>236.220472440945</v>
@@ -55583,7 +55583,7 @@
         <v>1164</v>
       </c>
       <c r="AM283" s="0">
-        <v>1833.03571428571</v>
+        <v>0.183303571428571</v>
       </c>
       <c r="AN283" s="0">
         <v>142.857142857143</v>
@@ -55778,7 +55778,7 @@
         <v>2619.04761904762</v>
       </c>
       <c r="AM284" s="0">
-        <v>3177.1186440678</v>
+        <v>0.31771186440678</v>
       </c>
       <c r="AN284" s="0">
         <v>115.254237288136</v>
@@ -55973,7 +55973,7 @@
         <v>8027.90697674419</v>
       </c>
       <c r="AM285" s="0">
-        <v>3425.53191489362</v>
+        <v>0.342553191489362</v>
       </c>
       <c r="AN285" s="0">
         <v>0</v>
@@ -56168,7 +56168,7 @@
         <v>0</v>
       </c>
       <c r="AM286" s="0">
-        <v>7941.17647058824</v>
+        <v>0.794117647058823</v>
       </c>
       <c r="AN286" s="0">
         <v>0</v>
@@ -56363,7 +56363,7 @@
         <v>4588.23529411765</v>
       </c>
       <c r="AM287" s="0">
-        <v>4497.05882352941</v>
+        <v>0.449705882352941</v>
       </c>
       <c r="AN287" s="0">
         <v>0</v>
@@ -56558,7 +56558,7 @@
         <v>3994.18803418803</v>
       </c>
       <c r="AM288" s="0">
-        <v>1284.81481481481</v>
+        <v>0.128481481481481</v>
       </c>
       <c r="AN288" s="0">
         <v>2.96296296296296</v>
@@ -56753,7 +56753,7 @@
         <v>2957.38636363636</v>
       </c>
       <c r="AM289" s="0">
-        <v>4101.61616161616</v>
+        <v>0.410161616161616</v>
       </c>
       <c r="AN289" s="0">
         <v>282.828282828283</v>
@@ -56948,7 +56948,7 @@
         <v>0</v>
       </c>
       <c r="AM290" s="0">
-        <v>10333.3333333333</v>
+        <v>1.03333333333333</v>
       </c>
       <c r="AN290" s="0">
         <v>0</v>
@@ -57143,7 +57143,7 @@
         <v>1684.18987341772</v>
       </c>
       <c r="AM291" s="0">
-        <v>515.6</v>
+        <v>0.05156</v>
       </c>
       <c r="AN291" s="0">
         <v>0</v>
@@ -57338,7 +57338,7 @@
         <v>8828.10810810811</v>
       </c>
       <c r="AM292" s="0">
-        <v>14082.5</v>
+        <v>1.40825</v>
       </c>
       <c r="AN292" s="0">
         <v>2525</v>
@@ -57533,7 +57533,7 @@
         <v>3984.34024896266</v>
       </c>
       <c r="AM293" s="0">
-        <v>1720.24911032028</v>
+        <v>0.172024911032028</v>
       </c>
       <c r="AN293" s="0">
         <v>850.533807829181</v>
@@ -57728,7 +57728,7 @@
         <v>11854.9019607843</v>
       </c>
       <c r="AM294" s="0">
-        <v>15407.1428571429</v>
+        <v>1.54071428571429</v>
       </c>
       <c r="AN294" s="0">
         <v>3035.71428571429</v>
@@ -57923,7 +57923,7 @@
         <v>3238.9247311828</v>
       </c>
       <c r="AM295" s="0">
-        <v>3939.17525773196</v>
+        <v>0.393917525773196</v>
       </c>
       <c r="AN295" s="0">
         <v>628.865979381443</v>
@@ -58118,7 +58118,7 @@
         <v>1228.07692307692</v>
       </c>
       <c r="AM296" s="0">
-        <v>4961.59663865546</v>
+        <v>0.496159663865546</v>
       </c>
       <c r="AN296" s="0">
         <v>403.361344537815</v>
@@ -58313,7 +58313,7 @@
         <v>4604.7619047619</v>
       </c>
       <c r="AM297" s="0">
-        <v>574.468085106383</v>
+        <v>5.74468085106383E-02</v>
       </c>
       <c r="AN297" s="0">
         <v>617.021276595745</v>
@@ -58508,7 +58508,7 @@
         <v>5863.63636363636</v>
       </c>
       <c r="AM298" s="0">
-        <v>1210.22222222222</v>
+        <v>0.121022222222222</v>
       </c>
       <c r="AN298" s="0">
         <v>666.666666666667</v>
@@ -58703,7 +58703,7 @@
         <v>8589.70297029703</v>
       </c>
       <c r="AM299" s="0">
-        <v>4574.56140350877</v>
+        <v>0.457456140350877</v>
       </c>
       <c r="AN299" s="0">
         <v>1871.57894736842</v>
@@ -58898,7 +58898,7 @@
         <v>10459.7</v>
       </c>
       <c r="AM300" s="0">
-        <v>3447.56637168142</v>
+        <v>0.344756637168142</v>
       </c>
       <c r="AN300" s="0">
         <v>1402.65486725664</v>
@@ -59093,7 +59093,7 @@
         <v>11844.6153846154</v>
       </c>
       <c r="AM301" s="0">
-        <v>10414.7058823529</v>
+        <v>1.04147058823529</v>
       </c>
       <c r="AN301" s="0">
         <v>0</v>
@@ -59288,7 +59288,7 @@
         <v>16929.0322580645</v>
       </c>
       <c r="AM302" s="0">
-        <v>3440</v>
+        <v>0.344</v>
       </c>
       <c r="AN302" s="0">
         <v>3142.85714285714</v>
@@ -59483,7 +59483,7 @@
         <v>1383.61538461538</v>
       </c>
       <c r="AM303" s="0">
-        <v>7038.68613138686</v>
+        <v>0.703868613138686</v>
       </c>
       <c r="AN303" s="0">
         <v>52.5547445255474</v>
@@ -59678,7 +59678,7 @@
         <v>2102.66129032258</v>
       </c>
       <c r="AM304" s="0">
-        <v>3746.71532846715</v>
+        <v>0.374671532846715</v>
       </c>
       <c r="AN304" s="0">
         <v>401.459854014599</v>
@@ -59873,7 +59873,7 @@
         <v>4258.64646464646</v>
       </c>
       <c r="AM305" s="0">
-        <v>2910.09174311927</v>
+        <v>0.291009174311927</v>
       </c>
       <c r="AN305" s="0">
         <v>899.08256880734</v>
@@ -60068,7 +60068,7 @@
         <v>1377.35294117647</v>
       </c>
       <c r="AM306" s="0">
-        <v>7785.55555555556</v>
+        <v>0.778555555555556</v>
       </c>
       <c r="AN306" s="0">
         <v>111.111111111111</v>
@@ -60263,7 +60263,7 @@
         <v>1366.77966101695</v>
       </c>
       <c r="AM307" s="0">
-        <v>1906.25</v>
+        <v>0.190625</v>
       </c>
       <c r="AN307" s="0">
         <v>890.625</v>
@@ -60458,7 +60458,7 @@
         <v>11583.4210526316</v>
       </c>
       <c r="AM308" s="0">
-        <v>2435.48387096774</v>
+        <v>0.243548387096774</v>
       </c>
       <c r="AN308" s="0">
         <v>3786.02150537634</v>
@@ -60653,7 +60653,7 @@
         <v>5826.14864864865</v>
       </c>
       <c r="AM309" s="0">
-        <v>2427.43902439024</v>
+        <v>0.242743902439024</v>
       </c>
       <c r="AN309" s="0">
         <v>582.317073170732</v>
@@ -60848,7 +60848,7 @@
         <v>3750</v>
       </c>
       <c r="AM310" s="0">
-        <v>6292.30769230769</v>
+        <v>0.629230769230769</v>
       </c>
       <c r="AN310" s="0">
         <v>1730.76923076923</v>
@@ -61043,7 +61043,7 @@
         <v>3617.27777777778</v>
       </c>
       <c r="AM311" s="0">
-        <v>651.149425287356</v>
+        <v>6.51149425287356E-02</v>
       </c>
       <c r="AN311" s="0">
         <v>172.413793103448</v>
@@ -61238,7 +61238,7 @@
         <v>3058.82352941176</v>
       </c>
       <c r="AM312" s="0">
-        <v>5711.13043478261</v>
+        <v>0.571113043478261</v>
       </c>
       <c r="AN312" s="0">
         <v>1173.91304347826</v>
@@ -61433,7 +61433,7 @@
         <v>2082.1359223301</v>
       </c>
       <c r="AM313" s="0">
-        <v>1995.4954954955</v>
+        <v>0.19954954954955</v>
       </c>
       <c r="AN313" s="0">
         <v>450.45045045045</v>
@@ -61628,7 +61628,7 @@
         <v>9190.78947368421</v>
       </c>
       <c r="AM314" s="0">
-        <v>1507.56756756757</v>
+        <v>0.150756756756757</v>
       </c>
       <c r="AN314" s="0">
         <v>135.135135135135</v>
@@ -61823,7 +61823,7 @@
         <v>2175.79881656805</v>
       </c>
       <c r="AM315" s="0">
-        <v>3377.84090909091</v>
+        <v>0.337784090909091</v>
       </c>
       <c r="AN315" s="0">
         <v>284.090909090909</v>
@@ -62018,7 +62018,7 @@
         <v>6678.08823529412</v>
       </c>
       <c r="AM316" s="0">
-        <v>1328.86363636364</v>
+        <v>0.132886363636364</v>
       </c>
       <c r="AN316" s="0">
         <v>0</v>
@@ -62213,7 +62213,7 @@
         <v>7115.04132231405</v>
       </c>
       <c r="AM317" s="0">
-        <v>3569.92481203008</v>
+        <v>0.356992481203008</v>
       </c>
       <c r="AN317" s="0">
         <v>206.766917293233</v>
@@ -62408,7 +62408,7 @@
         <v>3720.40952380952</v>
       </c>
       <c r="AM318" s="0">
-        <v>3826.15702479339</v>
+        <v>0.382615702479339</v>
       </c>
       <c r="AN318" s="0">
         <v>1244.00826446281</v>
@@ -62603,7 +62603,7 @@
         <v>5210.9</v>
       </c>
       <c r="AM319" s="0">
-        <v>2113.97849462366</v>
+        <v>0.211397849462366</v>
       </c>
       <c r="AN319" s="0">
         <v>645.161290322581</v>
@@ -62798,7 +62798,7 @@
         <v>4626.15189873418</v>
       </c>
       <c r="AM320" s="0">
-        <v>1679.61165048544</v>
+        <v>0.167961165048544</v>
       </c>
       <c r="AN320" s="0">
         <v>902.912621359223</v>
@@ -62993,7 +62993,7 @@
         <v>6044.87218045113</v>
       </c>
       <c r="AM321" s="0">
-        <v>3943.28859060403</v>
+        <v>0.394328859060403</v>
       </c>
       <c r="AN321" s="0">
         <v>813.489932885906</v>
@@ -63188,7 +63188,7 @@
         <v>2057.36994219653</v>
       </c>
       <c r="AM322" s="0">
-        <v>2349.95726495727</v>
+        <v>0.234995726495727</v>
       </c>
       <c r="AN322" s="0">
         <v>524.145299145299</v>
@@ -63383,7 +63383,7 @@
         <v>1510.18604651163</v>
       </c>
       <c r="AM323" s="0">
-        <v>253.333333333333</v>
+        <v>2.53333333333333E-02</v>
       </c>
       <c r="AN323" s="0">
         <v>0</v>
@@ -63578,7 +63578,7 @@
         <v>8741.86597938144</v>
       </c>
       <c r="AM324" s="0">
-        <v>3493.46153846154</v>
+        <v>0.349346153846154</v>
       </c>
       <c r="AN324" s="0">
         <v>1423.07692307692</v>
@@ -63773,7 +63773,7 @@
         <v>4361.79104477612</v>
       </c>
       <c r="AM325" s="0">
-        <v>4547.59259259259</v>
+        <v>0.454759259259259</v>
       </c>
       <c r="AN325" s="0">
         <v>993.827160493827</v>
@@ -63968,7 +63968,7 @@
         <v>2295.79591836735</v>
       </c>
       <c r="AM326" s="0">
-        <v>1864.60145642919</v>
+        <v>0.186460145642919</v>
       </c>
       <c r="AN326" s="0">
         <v>533.009708737864</v>
@@ -64163,7 +64163,7 @@
         <v>9007.62962962963</v>
       </c>
       <c r="AM327" s="0">
-        <v>5030.76923076923</v>
+        <v>0.503076923076923</v>
       </c>
       <c r="AN327" s="0">
         <v>353.076923076923</v>
@@ -64358,7 +64358,7 @@
         <v>401.018181818182</v>
       </c>
       <c r="AM328" s="0">
-        <v>1382.82608695652</v>
+        <v>0.138282608695652</v>
       </c>
       <c r="AN328" s="0">
         <v>36.231884057971</v>
@@ -64553,7 +64553,7 @@
         <v>12417.4757281553</v>
       </c>
       <c r="AM329" s="0">
-        <v>9071.9298245614</v>
+        <v>0.90719298245614</v>
       </c>
       <c r="AN329" s="0">
         <v>1491.22807017544</v>
@@ -64748,7 +64748,7 @@
         <v>2406.73469387755</v>
       </c>
       <c r="AM330" s="0">
-        <v>2649.64285714286</v>
+        <v>0.264964285714286</v>
       </c>
       <c r="AN330" s="0">
         <v>212.5</v>
@@ -64943,7 +64943,7 @@
         <v>2655.68965517241</v>
       </c>
       <c r="AM331" s="0">
-        <v>1293.73134328358</v>
+        <v>0.129373134328358</v>
       </c>
       <c r="AN331" s="0">
         <v>522.388059701493</v>
@@ -65138,7 +65138,7 @@
         <v>1295.21276595745</v>
       </c>
       <c r="AM332" s="0">
-        <v>1246.95238095238</v>
+        <v>0.124695238095238</v>
       </c>
       <c r="AN332" s="0">
         <v>66.6666666666667</v>
@@ -65333,7 +65333,7 @@
         <v>67101.1224489796</v>
       </c>
       <c r="AM333" s="0">
-        <v>4341.7094017094</v>
+        <v>0.43417094017094</v>
       </c>
       <c r="AN333" s="0">
         <v>427.350427350427</v>
@@ -65528,7 +65528,7 @@
         <v>5084.89795918367</v>
       </c>
       <c r="AM334" s="0">
-        <v>1856.42857142857</v>
+        <v>0.185642857142857</v>
       </c>
       <c r="AN334" s="0">
         <v>858.125</v>
@@ -65723,7 +65723,7 @@
         <v>3446.15873015873</v>
       </c>
       <c r="AM335" s="0">
-        <v>1929.58904109589</v>
+        <v>0.192958904109589</v>
       </c>
       <c r="AN335" s="0">
         <v>1232.87671232877</v>
@@ -65918,7 +65918,7 @@
         <v>4361.51315789474</v>
       </c>
       <c r="AM336" s="0">
-        <v>991.494252873563</v>
+        <v>9.91494252873563E-02</v>
       </c>
       <c r="AN336" s="0">
         <v>0</v>
@@ -66113,7 +66113,7 @@
         <v>5800</v>
       </c>
       <c r="AM337" s="0">
-        <v>16681.6326530612</v>
+        <v>1.66816326530612</v>
       </c>
       <c r="AN337" s="0">
         <v>1020.40816326531</v>
@@ -66308,7 +66308,7 @@
         <v>3593.86666666667</v>
       </c>
       <c r="AM338" s="0">
-        <v>3139.34426229508</v>
+        <v>0.313934426229508</v>
       </c>
       <c r="AN338" s="0">
         <v>737.737704918033</v>
@@ -66503,7 +66503,7 @@
         <v>9690.32258064516</v>
       </c>
       <c r="AM339" s="0">
-        <v>7026.82926829268</v>
+        <v>0.702682926829268</v>
       </c>
       <c r="AN339" s="0">
         <v>609.756097560976</v>
@@ -66698,7 +66698,7 @@
         <v>3549.12844036697</v>
       </c>
       <c r="AM340" s="0">
-        <v>2088.41666666667</v>
+        <v>0.208841666666667</v>
       </c>
       <c r="AN340" s="0">
         <v>1133.33333333333</v>
@@ -66893,7 +66893,7 @@
         <v>2777.02105263158</v>
       </c>
       <c r="AM341" s="0">
-        <v>2440.9756097561</v>
+        <v>0.24409756097561</v>
       </c>
       <c r="AN341" s="0">
         <v>434.146341463415</v>
@@ -67088,7 +67088,7 @@
         <v>0</v>
       </c>
       <c r="AM342" s="0">
-        <v>10653.3333333333</v>
+        <v>1.06533333333333</v>
       </c>
       <c r="AN342" s="0">
         <v>0</v>
@@ -67283,7 +67283,7 @@
         <v>1717.06896551724</v>
       </c>
       <c r="AM343" s="0">
-        <v>3879.06735751295</v>
+        <v>0.387906735751295</v>
       </c>
       <c r="AN343" s="0">
         <v>230.051813471503</v>
@@ -67478,7 +67478,7 @@
         <v>5228.71748878924</v>
       </c>
       <c r="AM344" s="0">
-        <v>3165</v>
+        <v>0.3165</v>
       </c>
       <c r="AN344" s="0">
         <v>925.641025641026</v>
@@ -67673,7 +67673,7 @@
         <v>22457.92</v>
       </c>
       <c r="AM345" s="0">
-        <v>10123.5849056604</v>
+        <v>1.01235849056604</v>
       </c>
       <c r="AN345" s="0">
         <v>1320.75471698113</v>
@@ -67868,7 +67868,7 @@
         <v>1084.40860215054</v>
       </c>
       <c r="AM346" s="0">
-        <v>2217.25490196078</v>
+        <v>0.221725490196078</v>
       </c>
       <c r="AN346" s="0">
         <v>0</v>
@@ -68063,7 +68063,7 @@
         <v>1660.40476190476</v>
       </c>
       <c r="AM347" s="0">
-        <v>432.315789473684</v>
+        <v>4.32315789473684E-02</v>
       </c>
       <c r="AN347" s="0">
         <v>0</v>
@@ -68258,7 +68258,7 @@
         <v>5877.10714285714</v>
       </c>
       <c r="AM348" s="0">
-        <v>6794.13333333333</v>
+        <v>0.679413333333333</v>
       </c>
       <c r="AN348" s="0">
         <v>1307.35111111111</v>
@@ -68453,7 +68453,7 @@
         <v>4181.62962962963</v>
       </c>
       <c r="AM349" s="0">
-        <v>7262.48951048951</v>
+        <v>0.726248951048951</v>
       </c>
       <c r="AN349" s="0">
         <v>1409.09090909091</v>
@@ -68648,7 +68648,7 @@
         <v>2756.97802197802</v>
       </c>
       <c r="AM350" s="0">
-        <v>6706.93069306931</v>
+        <v>0.670693069306931</v>
       </c>
       <c r="AN350" s="0">
         <v>198.019801980198</v>
@@ -68843,7 +68843,7 @@
         <v>4384.77876106195</v>
       </c>
       <c r="AM351" s="0">
-        <v>4215.32258064516</v>
+        <v>0.421532258064516</v>
       </c>
       <c r="AN351" s="0">
         <v>1500</v>
@@ -69038,7 +69038,7 @@
         <v>10137.7099236641</v>
       </c>
       <c r="AM352" s="0">
-        <v>6535.77464788732</v>
+        <v>0.653577464788732</v>
       </c>
       <c r="AN352" s="0">
         <v>1183.12676056338</v>
@@ -69233,7 +69233,7 @@
         <v>2670.38095238095</v>
       </c>
       <c r="AM353" s="0">
-        <v>2224.62809917355</v>
+        <v>0.222462809917355</v>
       </c>
       <c r="AN353" s="0">
         <v>212.148760330579</v>
@@ -69428,7 +69428,7 @@
         <v>21422.8070175439</v>
       </c>
       <c r="AM354" s="0">
-        <v>939.393939393939</v>
+        <v>9.39393939393939E-02</v>
       </c>
       <c r="AN354" s="0">
         <v>0</v>
@@ -69623,7 +69623,7 @@
         <v>2142.68115942029</v>
       </c>
       <c r="AM355" s="0">
-        <v>2044.40251572327</v>
+        <v>0.204440251572327</v>
       </c>
       <c r="AN355" s="0">
         <v>452.830188679245</v>
@@ -69818,7 +69818,7 @@
         <v>592.715789473684</v>
       </c>
       <c r="AM356" s="0">
-        <v>3096.05769230769</v>
+        <v>0.309605769230769</v>
       </c>
       <c r="AN356" s="0">
         <v>284.615384615385</v>
@@ -70013,7 +70013,7 @@
         <v>3574.09638554217</v>
       </c>
       <c r="AM357" s="0">
-        <v>840</v>
+        <v>0.084</v>
       </c>
       <c r="AN357" s="0">
         <v>491.891891891892</v>
@@ -70208,7 +70208,7 @@
         <v>5439.49206349206</v>
       </c>
       <c r="AM358" s="0">
-        <v>3958.76923076923</v>
+        <v>0.395876923076923</v>
       </c>
       <c r="AN358" s="0">
         <v>446.153846153846</v>
@@ -70403,7 +70403,7 @@
         <v>2806.25</v>
       </c>
       <c r="AM359" s="0">
-        <v>2597.2972972973</v>
+        <v>0.25972972972973</v>
       </c>
       <c r="AN359" s="0">
         <v>283.783783783784</v>
@@ -70598,7 +70598,7 @@
         <v>8789.36363636364</v>
       </c>
       <c r="AM360" s="0">
-        <v>4073.68421052632</v>
+        <v>0.407368421052632</v>
       </c>
       <c r="AN360" s="0">
         <v>263.157894736842</v>
@@ -70793,7 +70793,7 @@
         <v>4412.64957264957</v>
       </c>
       <c r="AM361" s="0">
-        <v>8510.16260162602</v>
+        <v>0.851016260162602</v>
       </c>
       <c r="AN361" s="0">
         <v>1601.62601626016</v>
@@ -70988,7 +70988,7 @@
         <v>726.126126126126</v>
       </c>
       <c r="AM362" s="0">
-        <v>1502.54237288136</v>
+        <v>0.150254237288136</v>
       </c>
       <c r="AN362" s="0">
         <v>254.237288135593</v>
@@ -71183,7 +71183,7 @@
         <v>3913.40909090909</v>
       </c>
       <c r="AM363" s="0">
-        <v>3104.97461928934</v>
+        <v>0.310497461928934</v>
       </c>
       <c r="AN363" s="0">
         <v>664.467005076142</v>
@@ -71378,7 +71378,7 @@
         <v>408.148648648649</v>
       </c>
       <c r="AM364" s="0">
-        <v>3595.86956521739</v>
+        <v>0.359586956521739</v>
       </c>
       <c r="AN364" s="0">
         <v>115.434782608696</v>
@@ -71573,7 +71573,7 @@
         <v>6013.39784946237</v>
       </c>
       <c r="AM365" s="0">
-        <v>1567.45098039216</v>
+        <v>0.156745098039216</v>
       </c>
       <c r="AN365" s="0">
         <v>1039.21568627451</v>
@@ -71768,7 +71768,7 @@
         <v>-2751.48936170213</v>
       </c>
       <c r="AM366" s="0">
-        <v>2286.11111111111</v>
+        <v>0.228611111111111</v>
       </c>
       <c r="AN366" s="0">
         <v>111.111111111111</v>
@@ -71963,7 +71963,7 @@
         <v>3472.80213903743</v>
       </c>
       <c r="AM367" s="0">
-        <v>2808.47058823529</v>
+        <v>0.280847058823529</v>
       </c>
       <c r="AN367" s="0">
         <v>196.470588235294</v>
@@ -72158,7 +72158,7 @@
         <v>10300</v>
       </c>
       <c r="AM368" s="0">
-        <v>3438.96103896104</v>
+        <v>0.343896103896104</v>
       </c>
       <c r="AN368" s="0">
         <v>2935.06493506494</v>
@@ -72353,7 +72353,7 @@
         <v>4909.49056603774</v>
       </c>
       <c r="AM369" s="0">
-        <v>5725.75892857143</v>
+        <v>0.572575892857143</v>
       </c>
       <c r="AN369" s="0">
         <v>223.214285714286</v>
@@ -72548,7 +72548,7 @@
         <v>2116.1875</v>
       </c>
       <c r="AM370" s="0">
-        <v>2492.57674425702</v>
+        <v>0.249257674425702</v>
       </c>
       <c r="AN370" s="0">
         <v>58.1395348837209</v>
@@ -72743,7 +72743,7 @@
         <v>-9670.59405940594</v>
       </c>
       <c r="AM371" s="0">
-        <v>1350.84745762712</v>
+        <v>0.135084745762712</v>
       </c>
       <c r="AN371" s="0">
         <v>137.28813559322</v>
@@ -72938,7 +72938,7 @@
         <v>3454.14814814815</v>
       </c>
       <c r="AM372" s="0">
-        <v>4935.1724137931</v>
+        <v>0.49351724137931</v>
       </c>
       <c r="AN372" s="0">
         <v>551.724137931035</v>
@@ -73133,7 +73133,7 @@
         <v>2111.42045454545</v>
       </c>
       <c r="AM373" s="0">
-        <v>1929.80295566502</v>
+        <v>0.192980295566502</v>
       </c>
       <c r="AN373" s="0">
         <v>325.12315270936</v>
@@ -73328,7 +73328,7 @@
         <v>3179.60248447205</v>
       </c>
       <c r="AM374" s="0">
-        <v>4172.27127659574</v>
+        <v>0.417227127659574</v>
       </c>
       <c r="AN374" s="0">
         <v>8063.82978723404</v>
@@ -73523,7 +73523,7 @@
         <v>5471.60621761658</v>
       </c>
       <c r="AM375" s="0">
-        <v>2409.40654205607</v>
+        <v>0.240940654205607</v>
       </c>
       <c r="AN375" s="0">
         <v>371.495327102804</v>
@@ -73718,7 +73718,7 @@
         <v>4284.34782608696</v>
       </c>
       <c r="AM376" s="0">
-        <v>3521.11111111111</v>
+        <v>0.352111111111111</v>
       </c>
       <c r="AN376" s="0">
         <v>55.5555555555556</v>
@@ -73913,7 +73913,7 @@
         <v>2164.54545454545</v>
       </c>
       <c r="AM377" s="0">
-        <v>1238.01369863014</v>
+        <v>0.123801369863014</v>
       </c>
       <c r="AN377" s="0">
         <v>424.657534246575</v>
@@ -74108,7 +74108,7 @@
         <v>2651.35135135135</v>
       </c>
       <c r="AM378" s="0">
-        <v>1585.41666666667</v>
+        <v>0.158541666666667</v>
       </c>
       <c r="AN378" s="0">
         <v>1133.33333333333</v>
@@ -74303,7 +74303,7 @@
         <v>8744.58333333333</v>
       </c>
       <c r="AM379" s="0">
-        <v>2544.96124031008</v>
+        <v>0.254496124031008</v>
       </c>
       <c r="AN379" s="0">
         <v>2038.75968992248</v>
